--- a/web-scraping/blocket_data.xlsx
+++ b/web-scraping/blocket_data.xlsx
@@ -25,958 +25,958 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Peugeot 107 5-dörrar 1.0 68hk -08</t>
-  </si>
-  <si>
-    <t>19 900 kr</t>
+    <t>Jaguar X-Type Kombi 2.2 D 152hk -06</t>
+  </si>
+  <si>
+    <t>49 900 kr</t>
   </si>
   <si>
     <t>Stockholm</t>
   </si>
   <si>
-    <t>6 delar möbler - paketpris</t>
-  </si>
-  <si>
-    <t>3 800 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Passat Variant 2.0 TDI 4M D-VÄRM E -17</t>
-  </si>
-  <si>
-    <t>239 800 kr (191 840 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volvo S40 2.0F (145hk) -11</t>
-  </si>
-  <si>
-    <t>89 000 kr</t>
-  </si>
-  <si>
-    <t>Stabil dagsturskajak | NU 5990 kr</t>
-  </si>
-  <si>
-    <t>5 990 kr</t>
-  </si>
-  <si>
-    <t>Swarovski armband</t>
+    <t>Volkswagen Passat CC 2.0 TDI 4-MOTION DSG 170 -11</t>
+  </si>
+  <si>
+    <t>89 900 kr</t>
+  </si>
+  <si>
+    <t>4 x Nokian Hakka Blue 2 - 215 / 45R17 91W</t>
+  </si>
+  <si>
+    <t>6 500 kr</t>
+  </si>
+  <si>
+    <t>Soffa Mio 305cm divan</t>
+  </si>
+  <si>
+    <t>2 200 kr</t>
+  </si>
+  <si>
+    <t>BMW 520 d xDrive Touring Innovation Edition -19</t>
+  </si>
+  <si>
+    <t>519 900 kr (415 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Byggfirma: Tillfälle inför högsäsong</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Två st 120 sängar / Hemleverans</t>
+    <t>Terassvärmare 2100w Cotech</t>
+  </si>
+  <si>
+    <t>800 kr</t>
+  </si>
+  <si>
+    <t>Ungkatt säljes</t>
+  </si>
+  <si>
+    <t>Gant vårjacka</t>
+  </si>
+  <si>
+    <t>650 kr</t>
+  </si>
+  <si>
+    <t>Solbäddar med litet bord</t>
+  </si>
+  <si>
+    <t>2 500 kr</t>
+  </si>
+  <si>
+    <t>Soffa, hög kvalitet från Bröderna Andersson</t>
   </si>
   <si>
     <t>1 500 kr</t>
   </si>
   <si>
-    <t>Unika handgjorda smycken i äkta stämplat silv</t>
-  </si>
-  <si>
-    <t>1 100 kr</t>
-  </si>
-  <si>
-    <t>Audi RS4 19" Original. Pirelli P Zero 8 mm</t>
-  </si>
-  <si>
-    <t>8 500 kr</t>
-  </si>
-  <si>
-    <t>Sonab CLS - Trådlöst ljudsystem för skena</t>
-  </si>
-  <si>
-    <t>Elektrisk bröstpump Medela swing</t>
+    <t>Litteratur förskollärarutbildningen</t>
+  </si>
+  <si>
+    <t>20 kr</t>
+  </si>
+  <si>
+    <t>Subaru Outback 2.5 4WD Base Automat / Motorvä -16</t>
+  </si>
+  <si>
+    <t>214 000 kr</t>
+  </si>
+  <si>
+    <t>Roddbåt</t>
+  </si>
+  <si>
+    <t>2 000 kr</t>
+  </si>
+  <si>
+    <t>Fiat TIPO LOUNGE HB 1,4L 120HK -18</t>
+  </si>
+  <si>
+    <t>169 800 kr</t>
+  </si>
+  <si>
+    <t>IKEA Stuva barnmöbler</t>
+  </si>
+  <si>
+    <t>1 000 kr</t>
+  </si>
+  <si>
+    <t>Vitrinskåp</t>
+  </si>
+  <si>
+    <t>1 700 kr</t>
+  </si>
+  <si>
+    <t>Loftsäng stuva</t>
+  </si>
+  <si>
+    <t>Tomason tn9 19"</t>
+  </si>
+  <si>
+    <t>4 500 kr</t>
+  </si>
+  <si>
+    <t>Soffa</t>
+  </si>
+  <si>
+    <t>3 000 kr</t>
+  </si>
+  <si>
+    <t>Volvo S60 T5 Summum 260hk Four-c -05</t>
+  </si>
+  <si>
+    <t>54 900 kr</t>
+  </si>
+  <si>
+    <t>Elstängsel mot vildsvin</t>
+  </si>
+  <si>
+    <t>Postiljonsvägen 5, Stockholms stad</t>
+  </si>
+  <si>
+    <t>2 695 000 kr</t>
+  </si>
+  <si>
+    <t>Bmw 335 d x-drive m-sport euro 6 313hk -15</t>
+  </si>
+  <si>
+    <t>289 900 kr</t>
+  </si>
+  <si>
+    <t>Rodebjer-klänning</t>
+  </si>
+  <si>
+    <t>700 kr</t>
+  </si>
+  <si>
+    <t>BMW 335 d xDrive 313hk Aut Sport line H/K -17</t>
+  </si>
+  <si>
+    <t>355 900 kr (284 720 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Audi S1 2.0 TFSI SB Quattro Bose Skalstolar N -15</t>
+  </si>
+  <si>
+    <t>244 900 kr</t>
+  </si>
+  <si>
+    <t>Volvo V60 D4 e Business Advanced Summum -17</t>
+  </si>
+  <si>
+    <t>218 900 kr (175 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Däck med fälg</t>
+  </si>
+  <si>
+    <t>5 000 kr</t>
+  </si>
+  <si>
+    <t>Skrivbord och stolen</t>
+  </si>
+  <si>
+    <t>300 kr</t>
+  </si>
+  <si>
+    <t>Volvo V60 D4 AUT AWD R-DESIGN POLESTAR VOC -14</t>
+  </si>
+  <si>
+    <t>219 000 kr</t>
+  </si>
+  <si>
+    <t>Toyota Auris 1,8 HSD Executive 5d -15</t>
+  </si>
+  <si>
+    <t>159 900 kr</t>
+  </si>
+  <si>
+    <t>Volvo XC90 D4 AWD Business Advanced 7-säten -18</t>
+  </si>
+  <si>
+    <t>549 900 kr (439 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Goldwing 1500 -89</t>
+  </si>
+  <si>
+    <t>39 000 kr</t>
+  </si>
+  <si>
+    <t>Bäddsoffa</t>
+  </si>
+  <si>
+    <t>12 000 kr</t>
+  </si>
+  <si>
+    <t>Planteringsbord / Blombord</t>
+  </si>
+  <si>
+    <t>1 750 kr</t>
+  </si>
+  <si>
+    <t>Renault Master Skåp III Skåp L2H2 Navi Drag 1 -17</t>
+  </si>
+  <si>
+    <t>219 000 kr (175 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Volvo V40 D2 Business Advanced -18</t>
+  </si>
+  <si>
+    <t>189 900 kr (151 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Volvo V60 D2 aut Business Advanced -17</t>
+  </si>
+  <si>
+    <t>199 000 kr (159 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Volvo XC60 D4 AWD Classic Summum -17</t>
+  </si>
+  <si>
+    <t>318 900 kr (255 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Loungemöbel</t>
+  </si>
+  <si>
+    <t>7 000 kr</t>
+  </si>
+  <si>
+    <t>Fastighetsadministratör</t>
+  </si>
+  <si>
+    <t>Rustikt byrå/skänk</t>
+  </si>
+  <si>
+    <t>1 600 kr</t>
+  </si>
+  <si>
+    <t>Grundskollärare till Ängskolan F-6</t>
+  </si>
+  <si>
+    <t>Ikea PS skåp vitt</t>
+  </si>
+  <si>
+    <t>50 kr</t>
+  </si>
+  <si>
+    <t>Volvo V60 D2 Business -17</t>
+  </si>
+  <si>
+    <t>179 000 kr (143 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Volvo XC60 D4 R-Design Business E PRO -16</t>
+  </si>
+  <si>
+    <t>294 900 kr (235 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Soffa, soffbord och fotölj</t>
+  </si>
+  <si>
+    <t>Account Manager sökes till Tradera</t>
+  </si>
+  <si>
+    <t>Studerande kredithandläggare till expansiva s</t>
+  </si>
+  <si>
+    <t>Nissan Pathfinder 2.5 4WD 171hk / NYSERVAD / -10</t>
+  </si>
+  <si>
+    <t>109 900 kr</t>
+  </si>
+  <si>
+    <t>Städare till Nykvarn med bil och körkort.</t>
+  </si>
+  <si>
+    <t>Svart Snurrfåtölj med fotpall</t>
+  </si>
+  <si>
+    <t>Schlebach Förfalsmaskin SPA</t>
+  </si>
+  <si>
+    <t>235 000 kr</t>
+  </si>
+  <si>
+    <t>Yamaha 40 hk fyrtaktsutombordsmotor</t>
+  </si>
+  <si>
+    <t>30 000 kr</t>
+  </si>
+  <si>
+    <t>Volvo V40 D2 Your Kinetic -16</t>
+  </si>
+  <si>
+    <t>138 900 kr (111 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Klädpaket flicka74/80/86</t>
+  </si>
+  <si>
+    <t>Michael kors väska lim edition</t>
+  </si>
+  <si>
+    <t>Klippo Excellent SH Gräsklippare</t>
+  </si>
+  <si>
+    <t>Korg Electribe Sampler 2 (ESX2)</t>
+  </si>
+  <si>
+    <t>Väldisponerad 1:a med pool och takterrass, lå</t>
+  </si>
+  <si>
+    <t>2 150 000 kr</t>
+  </si>
+  <si>
+    <t>Fiat 595 ABARTH 1,4T 145HK -19</t>
+  </si>
+  <si>
+    <t>187 800 kr</t>
+  </si>
+  <si>
+    <t>Renault Clio IV Energy TCe 90 Dynamique 5-d -15</t>
+  </si>
+  <si>
+    <t>89 900 kr (71 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>SWEDISH HOUSE MAFIA - Tele2 Arena 2019</t>
+  </si>
+  <si>
+    <t>Bmw x5 fälgar</t>
+  </si>
+  <si>
+    <t>4 000 kr</t>
+  </si>
+  <si>
+    <t>Djurgården - Frölunda 23/4</t>
+  </si>
+  <si>
+    <t>1 200 kr</t>
+  </si>
+  <si>
+    <t>Junior Business Controller</t>
+  </si>
+  <si>
+    <t>Tory Burch väska</t>
+  </si>
+  <si>
+    <t>600 kr</t>
+  </si>
+  <si>
+    <t>Äldre inredning ( 1971 ) från Frisörsalong</t>
+  </si>
+  <si>
+    <t>Honda CR-V i-MMD Hybrid 2WD Elegance Premiär -19</t>
+  </si>
+  <si>
+    <t>350 900 kr (280 720 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Opel Astra 1.6 Twinport / 1 Ägare -07</t>
+  </si>
+  <si>
+    <t>39 900 kr</t>
+  </si>
+  <si>
+    <t>187 800 kr (150 240 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Den optimala 3:an med naturen inpå knuten</t>
+  </si>
+  <si>
+    <t>2 390 000 kr</t>
+  </si>
+  <si>
+    <t>Volvo XC60 T8 AWD R-Design -18</t>
+  </si>
+  <si>
+    <t>668 900 kr (535 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Kundtjänstmedarbetare till Contact Center Par</t>
+  </si>
+  <si>
+    <t>Sr. Manager Marketing Finance Controller to C</t>
+  </si>
+  <si>
+    <t>Seat Leon ST 1.2 TSI DSG Sekventiell Euro 6 1 -16</t>
+  </si>
+  <si>
+    <t>138 900 kr</t>
+  </si>
+  <si>
+    <t>Trågsoffa från Åmells</t>
+  </si>
+  <si>
+    <t>10 000 kr</t>
+  </si>
+  <si>
+    <t>Humleplantor för ölbryggning</t>
+  </si>
+  <si>
+    <t>60 kr</t>
+  </si>
+  <si>
+    <t>Renault Clio IV Energy TCe 90 Dynamique Sport -15</t>
+  </si>
+  <si>
+    <t>79 500 kr (63 600 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Kristallampa i fint skick</t>
   </si>
   <si>
     <t>500 kr</t>
   </si>
   <si>
-    <t>Omega Seamaster Diver 300M Regatta</t>
-  </si>
-  <si>
-    <t>37 900 kr</t>
-  </si>
-  <si>
-    <t>Båt</t>
-  </si>
-  <si>
-    <t>10 000 kr</t>
-  </si>
-  <si>
-    <t>Swedish House Mafia Biljetter</t>
+    <t>Volkswagen The Beetle 1.2 TSI Comfort, Vinter -12</t>
+  </si>
+  <si>
+    <t>88 500 kr</t>
+  </si>
+  <si>
+    <t>Nyskick fåtölj relax/solstol Calcutta Svart</t>
+  </si>
+  <si>
+    <t>328 900 kr (263 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Stort säkerhetsskåp/vapenskåp SS3492 elkodlås</t>
+  </si>
+  <si>
+    <t>6 750 kr</t>
+  </si>
+  <si>
+    <t>Soffbord Sven Larsson furu</t>
+  </si>
+  <si>
+    <t>Kap- och gersåg + sågbord</t>
+  </si>
+  <si>
+    <t>Ek hylla från Mio</t>
+  </si>
+  <si>
+    <t>400 kr</t>
+  </si>
+  <si>
+    <t>Spelbutik-Ombud för ATG, DHL PostNord- Bro</t>
+  </si>
+  <si>
+    <t>790 000 kr</t>
+  </si>
+  <si>
+    <t>Bal klänning</t>
+  </si>
+  <si>
+    <t>950 kr</t>
+  </si>
+  <si>
+    <t>Mercedes benz 230 Se</t>
+  </si>
+  <si>
+    <t>11 000 kr</t>
+  </si>
+  <si>
+    <t>Betongskruv/bult</t>
+  </si>
+  <si>
+    <t>Butikssäljare Deltid - Circle K Hässelby</t>
+  </si>
+  <si>
+    <t>Volvo V90 D5 AWD R-Design -17</t>
+  </si>
+  <si>
+    <t>409 900 kr (327 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Land Rover Discovery 3.0 TDV6 4WD HSE 7-SITS -12</t>
+  </si>
+  <si>
+    <t>249 900 kr</t>
+  </si>
+  <si>
+    <t>Butikssäljare Deltid - Circle K Råsunda</t>
+  </si>
+  <si>
+    <t>Dodge plåt Fartyg Helikopter Bogserbåt Ångbil</t>
+  </si>
+  <si>
+    <t>Barnmatstol</t>
+  </si>
+  <si>
+    <t>150 kr</t>
+  </si>
+  <si>
+    <t>Seat 16"tums Fälgar+sommardäck</t>
+  </si>
+  <si>
+    <t>Fromax bocknycklar</t>
+  </si>
+  <si>
+    <t>Garderob från Marmodal med förvaring</t>
+  </si>
+  <si>
+    <t>100 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz GLA 45 AMG 4M Performance Skals -16</t>
+  </si>
+  <si>
+    <t>449 000 kr</t>
+  </si>
+  <si>
+    <t>Kia Niro 1.6 PLUG-IN DCT6 ADVANCE PLUS 2 -18</t>
+  </si>
+  <si>
+    <t>279 900 kr</t>
+  </si>
+  <si>
+    <t>Dieselkraft trimbox till 170hk TDI motor</t>
+  </si>
+  <si>
+    <t>Matgrupp</t>
+  </si>
+  <si>
+    <t>Bröderna Andersson, soffa Andrew</t>
+  </si>
+  <si>
+    <t>6 000 kr</t>
+  </si>
+  <si>
+    <t>Bostadsvagn / Bovagn 80km/h Omg.lev - KAMPANJ</t>
+  </si>
+  <si>
+    <t>292 375 kr</t>
+  </si>
+  <si>
+    <t>SALOMON QST STELLA 106 (2018) + bindningar</t>
+  </si>
+  <si>
+    <t>4 199 kr</t>
+  </si>
+  <si>
+    <t>Bädd Soffa/ nyskick. Ink bärhjälp / 1490</t>
+  </si>
+  <si>
+    <t>1 490 kr</t>
+  </si>
+  <si>
+    <t>Toyota Prius 1.5 VVT-i + 3CM Auto Fullutrust -08</t>
+  </si>
+  <si>
+    <t>59 900 kr</t>
+  </si>
+  <si>
+    <t>Studiohögtalare KRK Rokit 5 (par)</t>
+  </si>
+  <si>
+    <t>Takfläkt</t>
+  </si>
+  <si>
+    <t>270 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Sprinter 219 BlueTEC Panel Van -14</t>
+  </si>
+  <si>
+    <t>239 000 kr (191 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Klotgrill 55 cm - Ny/oöppnad</t>
+  </si>
+  <si>
+    <t>Yamaha MT 125 -18</t>
+  </si>
+  <si>
+    <t>45 000 kr</t>
+  </si>
+  <si>
+    <t>Nya aluminiumdörrar. Mycket hög kvalitet</t>
+  </si>
+  <si>
+    <t>6 860 kr</t>
+  </si>
+  <si>
+    <t>BMW 530 d Touring Steptronic 245hk -11</t>
+  </si>
+  <si>
+    <t>174 000 kr</t>
+  </si>
+  <si>
+    <t>11.5 Meter motorbåt. Bytes?</t>
+  </si>
+  <si>
+    <t>95 000 kr</t>
+  </si>
+  <si>
+    <t>Hockey final globen</t>
+  </si>
+  <si>
+    <t>Garderobsinredning från Kvik</t>
+  </si>
+  <si>
+    <t>1 800 kr</t>
+  </si>
+  <si>
+    <t>Avfuktare Mitsubishi</t>
+  </si>
+  <si>
+    <t>Bra kyl och frys</t>
+  </si>
+  <si>
+    <t>Adria Aviva 400 PS 2018</t>
+  </si>
+  <si>
+    <t>155 000 kr</t>
+  </si>
+  <si>
+    <t>Ford Focus CC 2.0 Duratec 145hk -07</t>
+  </si>
+  <si>
+    <t>64 900 kr</t>
+  </si>
+  <si>
+    <t>Mon amie koppar, skålar o pastatallrikar</t>
+  </si>
+  <si>
+    <t>Frisörer och butikschef till Headspot</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 7010 - 16GB - SSD - Liten</t>
+  </si>
+  <si>
+    <t>3 790 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Golf GTI Performance 230hk 5dr Vär -15</t>
+  </si>
+  <si>
+    <t>209 000 kr</t>
+  </si>
+  <si>
+    <t>Rastvagn 6PR - Omg.lev Storsäljaren - 2019</t>
+  </si>
+  <si>
+    <t>141 150 kr</t>
+  </si>
+  <si>
+    <t>Spännande uppdrag åt Lantmännen i Södertälje</t>
+  </si>
+  <si>
+    <t>Planet X Full Carbon Fixed Gear FSE Hjul</t>
+  </si>
+  <si>
+    <t>9 800 kr</t>
+  </si>
+  <si>
+    <t>Kavat skor/ Bobux skor/ Mango väst</t>
+  </si>
+  <si>
+    <t>Toyota C-HR Toyota C-HR 1.2 AWD Aut Executive -17</t>
+  </si>
+  <si>
+    <t>229 000 kr</t>
+  </si>
+  <si>
+    <t>Handmålad kista i trä från 1946</t>
+  </si>
+  <si>
+    <t>19 Tum däck o fälg för Audi Q7</t>
+  </si>
+  <si>
+    <t>Carl Malmsten fåtölj</t>
+  </si>
+  <si>
+    <t>Abs fälgar</t>
+  </si>
+  <si>
+    <t>Förskolelärare/tidigarelärare till Karsby Int</t>
+  </si>
+  <si>
+    <t>Fordonsegenskapsansvarig repairability &amp; main</t>
+  </si>
+  <si>
+    <t>Volkswagen Transporter 2.0 TDI AUT KYL/FRYSBI -13</t>
+  </si>
+  <si>
+    <t>189 900 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz V V 250 d Avantagarde / 8-Sits -18</t>
+  </si>
+  <si>
+    <t>474 900 kr (379 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Tv-bänk</t>
+  </si>
+  <si>
+    <t>Normann Copenhagen stolar</t>
+  </si>
+  <si>
+    <t>Grön skinnjacka Rockandblue</t>
+  </si>
+  <si>
+    <t>Säng 140 cm + bäddmadrass IKEA</t>
+  </si>
+  <si>
+    <t>Björkbacksvägen 83, Tyresö</t>
+  </si>
+  <si>
+    <t>2 295 000 kr</t>
+  </si>
+  <si>
+    <t>Helt ny Asus rog gtx980 kortet</t>
+  </si>
+  <si>
+    <t>Bugaboo Cameleon Barnvagn</t>
+  </si>
+  <si>
+    <t>Servicetekniker i tryckluftsbranschen</t>
+  </si>
+  <si>
+    <t>Runt vitt matbord</t>
+  </si>
+  <si>
+    <t>450 kr</t>
+  </si>
+  <si>
+    <t>? Statist - Extrajobb. 10 Maj sökes - Statist</t>
+  </si>
+  <si>
+    <t>Crescent Ran 24 tum</t>
+  </si>
+  <si>
+    <t>2 750 kr</t>
+  </si>
+  <si>
+    <t>Kommod med handfat</t>
+  </si>
+  <si>
+    <t>200 kr</t>
+  </si>
+  <si>
+    <t>Belle Rastvagn 4PE #Omg.lev - 2019</t>
+  </si>
+  <si>
+    <t>112 375 kr</t>
+  </si>
+  <si>
+    <t>Peugeot 407 SW 2.2 163hk Panorama -06</t>
+  </si>
+  <si>
+    <t>28 900 kr</t>
+  </si>
+  <si>
+    <t>Opel Astra Sports Tourer 1.4 Turbo 140hk -13</t>
+  </si>
+  <si>
+    <t>75 000 kr</t>
+  </si>
+  <si>
+    <t>LCD-TV 32 tum i gott skick</t>
+  </si>
+  <si>
+    <t>Vit Playstation Pro, 2 kontroller, 3 spel</t>
+  </si>
+  <si>
+    <t>BMW 520 d GT /Steptronic/ Euro 6 /184hk -14</t>
+  </si>
+  <si>
+    <t>Luftkylare/Kalluftsfläkt Tec Lime TAC-70</t>
   </si>
   <si>
     <t>550 kr</t>
   </si>
   <si>
-    <t>Soffgrupp konstrotting utemöbler</t>
-  </si>
-  <si>
-    <t>2 900 kr</t>
-  </si>
-  <si>
-    <t>Chrysler Grand Voyager 3.8 V6 Automat 7-sits -10</t>
-  </si>
-  <si>
-    <t>119 900 kr</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Watch LTE 46mm med kvitto</t>
-  </si>
-  <si>
-    <t>2 899 kr</t>
-  </si>
-  <si>
-    <t>Flytbrygga</t>
-  </si>
-  <si>
-    <t>Matbord</t>
-  </si>
-  <si>
-    <t>1 600 kr</t>
-  </si>
-  <si>
-    <t>Swedish House Mafia ståplats x2</t>
-  </si>
-  <si>
-    <t>Volvo V40 2.0T 160 HK AUT DRAG KAMREM BYTT -98</t>
-  </si>
-  <si>
-    <t>4 900 kr</t>
-  </si>
-  <si>
-    <t>Jeep Commander 3.0 V6 CRD 4WD Automat 7-sits -07</t>
-  </si>
-  <si>
-    <t>59 000 kr</t>
-  </si>
-  <si>
-    <t>Mazda MX-5 RF SPORT 2.0 184hk i LAGER -19</t>
-  </si>
-  <si>
-    <t>304 900 kr (243 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Gösta Liljedahl litografi</t>
-  </si>
-  <si>
-    <t>400 kr</t>
-  </si>
-  <si>
-    <t>Vårkläder klädpaket 4-6 mån</t>
-  </si>
-  <si>
-    <t>200 kr</t>
-  </si>
-  <si>
-    <t>Citroeng c5 07 halvcom -07</t>
-  </si>
-  <si>
-    <t>16 500 kr</t>
-  </si>
-  <si>
-    <t>2 cyklar</t>
-  </si>
-  <si>
-    <t>1 200 kr</t>
-  </si>
-  <si>
-    <t>By Morris &amp; Camilla Lundsten. textil:</t>
+    <t>Vacker, helt oanvänd diamantring "halo" -47%</t>
+  </si>
+  <si>
+    <t>15 900 kr</t>
+  </si>
+  <si>
+    <t>Dansare - Extrajobb. Karnevalsklädda statiste</t>
+  </si>
+  <si>
+    <t>Statist - Extrajobb. Statister till enkla tal</t>
+  </si>
+  <si>
+    <t>Frys NO FROST Rostfri</t>
+  </si>
+  <si>
+    <t>Statist - Extrajobb. Statister som olika kara</t>
+  </si>
+  <si>
+    <t>Söker lägenhet eller rum med egen entré</t>
+  </si>
+  <si>
+    <t>? Statist - Extrajobb. Statist som chaufför s</t>
+  </si>
+  <si>
+    <t>Uterum? Köp Sveriges rymligaste friggebod</t>
+  </si>
+  <si>
+    <t>195 000 kr</t>
+  </si>
+  <si>
+    <t>Wolfcraft master 200 arbetsbänk</t>
+  </si>
+  <si>
+    <t>Diskmaskin 60cm</t>
+  </si>
+  <si>
+    <t>Rosa sammetsstolar 6 st. Hemleverans möjlig</t>
+  </si>
+  <si>
+    <t>3 500 kr</t>
+  </si>
+  <si>
+    <t>Statist - Extrajobb. Uniformerade poliser sök</t>
+  </si>
+  <si>
+    <t>Byrån i framkant</t>
+  </si>
+  <si>
+    <t>Frys 155cm</t>
+  </si>
+  <si>
+    <t>Möbelgrupp vit Rotting</t>
   </si>
   <si>
     <t>900 kr</t>
   </si>
   <si>
-    <t>Uthyres minigrävare -14</t>
-  </si>
-  <si>
-    <t>Robust sideboard/skänk säljes</t>
-  </si>
-  <si>
-    <t>1 000 kr</t>
-  </si>
-  <si>
-    <t>Barbie garderob</t>
-  </si>
-  <si>
-    <t>100 kr</t>
-  </si>
-  <si>
-    <t>Fridhemsgatan 39, Stockholms stad</t>
-  </si>
-  <si>
-    <t>7 295 000 kr</t>
-  </si>
-  <si>
-    <t>Kylrum</t>
+    <t>Däckstol med dyna</t>
+  </si>
+  <si>
+    <t>Atletico madrid - juventus - 10/8 - biljetter</t>
+  </si>
+  <si>
+    <t>395 kr</t>
+  </si>
+  <si>
+    <t>Mazda 2 1,5 90hk Vision | Aut -18</t>
+  </si>
+  <si>
+    <t>149 000 kr (119 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Studentlitteratur / Kurslitteratur Nytt &amp; Beg</t>
+  </si>
+  <si>
+    <t>Fin möbel grupp av JOHANSON Design</t>
   </si>
   <si>
     <t>8 000 kr</t>
   </si>
   <si>
-    <t>Gåstol</t>
-  </si>
-  <si>
-    <t>5m Hög tvåpelarlyft 4,0 ton från 698kr/mån</t>
-  </si>
-  <si>
-    <t>Mammakläder, amning- och gravidkläder</t>
+    <t>Hyundai i20 1.2 Premium -14</t>
+  </si>
+  <si>
+    <t>69 900 kr</t>
+  </si>
+  <si>
+    <t>Konkursanbud victorias blomsterbod ab</t>
+  </si>
+  <si>
+    <t>Nissan Qashqai+2 2.0 dCi 4x4 7-sits / NAV / P -09</t>
+  </si>
+  <si>
+    <t>79 000 kr</t>
+  </si>
+  <si>
+    <t>Respo släpvagn 1350 kg 3,70x1,85 m</t>
+  </si>
+  <si>
+    <t>29 595 kr</t>
+  </si>
+  <si>
+    <t>Lammpläd 50x90 cm - Rosa Nordal</t>
+  </si>
+  <si>
+    <t>Takbox</t>
+  </si>
+  <si>
+    <t>Ford Focus Combi 1.8 Duratec Flexifuel 125hk -07</t>
+  </si>
+  <si>
+    <t>19 800 kr</t>
+  </si>
+  <si>
+    <t>Persienner i trä</t>
+  </si>
+  <si>
+    <t>Släpvagn Benjamin 250x125x40</t>
+  </si>
+  <si>
+    <t>22 000 kr</t>
+  </si>
+  <si>
+    <t>Espressomaskin Phillips "SAECO MINUTO" HD8763</t>
+  </si>
+  <si>
+    <t>Barncykel 20 tum 600 kr</t>
+  </si>
+  <si>
+    <t>Kvalitets cykel</t>
+  </si>
+  <si>
+    <t>2 850 kr</t>
+  </si>
+  <si>
+    <t>Barnsängar</t>
   </si>
   <si>
     <t>250 kr</t>
   </si>
   <si>
-    <t>Swedish House Mafia - Ståplats - 4 maj</t>
-  </si>
-  <si>
-    <t>810 kr</t>
-  </si>
-  <si>
-    <t>Begagnade däck</t>
-  </si>
-  <si>
-    <t>3 000 kr</t>
-  </si>
-  <si>
-    <t>Fynda Bianchi</t>
-  </si>
-  <si>
-    <t>Äldre Taklampa</t>
-  </si>
-  <si>
-    <t>Rumsavdelare/barngrind/valphage Beemoo</t>
-  </si>
-  <si>
-    <t>300 kr</t>
-  </si>
-  <si>
-    <t>Chevrolet Camaro 6,2L V8, 453HK Svensksåld -17</t>
-  </si>
-  <si>
-    <t>400 000 kr</t>
-  </si>
-  <si>
-    <t>Tvättmaskin 7kg CLASS A</t>
-  </si>
-  <si>
-    <t>IMac 27" i5 New Gener + AdobeCC + Travel Case</t>
-  </si>
-  <si>
-    <t>10 500 kr</t>
-  </si>
-  <si>
-    <t>Barpall i äkta skinn, nyskick, passa på</t>
-  </si>
-  <si>
-    <t>Kassaskåp</t>
-  </si>
-  <si>
-    <t>5 000 kr</t>
-  </si>
-  <si>
-    <t>Kirch Gardinskenor och Gardinstångset</t>
-  </si>
-  <si>
-    <t>50 kr</t>
-  </si>
-  <si>
-    <t>Maclaren techno</t>
-  </si>
-  <si>
-    <t>1 250 kr</t>
-  </si>
-  <si>
-    <t>Frog 48, exklusiv barncykel. Gör cykling kul</t>
-  </si>
-  <si>
-    <t>2 400 kr</t>
-  </si>
-  <si>
-    <t>Bromsskivor Volvo S60 I, S80 I, V70N</t>
-  </si>
-  <si>
-    <t>230 kr</t>
-  </si>
-  <si>
-    <t>Tommy Hilfiger</t>
-  </si>
-  <si>
-    <t>Oanvända allvädersjackor Jofama PRISSÄNKTA</t>
-  </si>
-  <si>
-    <t>Frys Class A</t>
-  </si>
-  <si>
-    <t>Utombordsmotor Suzuki 85Hk</t>
-  </si>
-  <si>
-    <t>15 000 kr</t>
-  </si>
-  <si>
-    <t>Industrimaskiner - Bygg - Gräv - Lager Rensas</t>
-  </si>
-  <si>
-    <t>58 000 kr</t>
-  </si>
-  <si>
-    <t>Disposable Vape Pen</t>
-  </si>
-  <si>
-    <t>99 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz C 180 Classic Aut -01</t>
-  </si>
-  <si>
-    <t>Burberry clutch</t>
-  </si>
-  <si>
-    <t>Puky LR XL Springcykel</t>
-  </si>
-  <si>
-    <t>Bädd Soffa/ nyskick. Ink bärhjälp / 1900</t>
-  </si>
-  <si>
-    <t>1 900 kr</t>
-  </si>
-  <si>
-    <t>Trådlöst tangentbord Apple</t>
-  </si>
-  <si>
-    <t>Mio soffa</t>
-  </si>
-  <si>
-    <t>Playstation 4</t>
-  </si>
-  <si>
-    <t>Damcykel</t>
-  </si>
-  <si>
-    <t>800 kr</t>
-  </si>
-  <si>
-    <t>Barnskor till vår och sommar</t>
-  </si>
-  <si>
-    <t>40 kr</t>
-  </si>
-  <si>
-    <t>En GRÖN ”ORANGE”</t>
-  </si>
-  <si>
-    <t>2 500 kr</t>
-  </si>
-  <si>
-    <t>Babyjogger city mini gt double inkl liggdel</t>
-  </si>
-  <si>
-    <t>5 200 kr</t>
-  </si>
-  <si>
-    <t>Exklusivt matbord i massiv ek + sideboard</t>
-  </si>
-  <si>
-    <t>Väska i ormskinns imitation</t>
-  </si>
-  <si>
-    <t>IPhone 5S</t>
-  </si>
-  <si>
-    <t>750 kr</t>
-  </si>
-  <si>
-    <t>Gediget konferensbord med tillhörande stolar</t>
-  </si>
-  <si>
-    <t>IPad 3 32GB wi-fi</t>
-  </si>
-  <si>
-    <t>MS 670 IT Däckomläggare Från 2032 kr månaden</t>
-  </si>
-  <si>
-    <t>Gråsten, Habopläd, Cappellini hylla</t>
-  </si>
-  <si>
-    <t>350 kr</t>
-  </si>
-  <si>
-    <t>Kaninbur</t>
-  </si>
-  <si>
-    <t>Bertil Vallien Pokaler Satelite</t>
-  </si>
-  <si>
-    <t>850 kr</t>
-  </si>
-  <si>
-    <t>Babyskydd besafe</t>
-  </si>
-  <si>
-    <t>BMW 530 d xDrive Sedan M-Sport Innovation Edi -19</t>
-  </si>
-  <si>
-    <t>586 700 kr (469 360 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Suzuki dt85hk -00</t>
-  </si>
-  <si>
-    <t>18 000 kr</t>
-  </si>
-  <si>
-    <t>Lego 42055 &amp; 75230</t>
-  </si>
-  <si>
-    <t>Mizuno ST 180 driver nyskick</t>
-  </si>
-  <si>
-    <t>1 750 kr</t>
-  </si>
-  <si>
-    <t>Swedish House Mafia</t>
-  </si>
-  <si>
-    <t>600 kr</t>
-  </si>
-  <si>
-    <t>Canon 750D, 18-55 &amp; 55-250-objektiv</t>
-  </si>
-  <si>
-    <t>5 500 kr</t>
-  </si>
-  <si>
-    <t>Genelec 4030A</t>
-  </si>
-  <si>
-    <t>Äldre Stor Spegel</t>
-  </si>
-  <si>
-    <t>Louis Vuitton Speedy 30</t>
-  </si>
-  <si>
-    <t>Brimnes Huvudgavel med förvaring</t>
-  </si>
-  <si>
-    <t>Toyota Camry 2,4 / EN ÄGARE -02</t>
-  </si>
-  <si>
-    <t>32 500 kr</t>
-  </si>
-  <si>
-    <t>Granhill 341 1985</t>
-  </si>
-  <si>
-    <t>220 000 kr</t>
-  </si>
-  <si>
-    <t>Fint kök för dom minsta</t>
-  </si>
-  <si>
-    <t>Volvo V70 GLT 2.5motor Drag Auto Nybesiktad -98</t>
-  </si>
-  <si>
-    <t>7 500 kr</t>
-  </si>
-  <si>
-    <t>Vitt Soffbord</t>
-  </si>
-  <si>
-    <t>450 kr</t>
-  </si>
-  <si>
-    <t>Hylla</t>
-  </si>
-  <si>
-    <t>120 kr</t>
-  </si>
-  <si>
-    <t>Dyson V6 animal extra, nyservad</t>
-  </si>
-  <si>
-    <t>1 800 kr</t>
-  </si>
-  <si>
-    <t>Tolix orginalstolar</t>
-  </si>
-  <si>
-    <t>IKEA oanvänd.180x200.Nypris 6,500 Nu 2,000</t>
-  </si>
-  <si>
-    <t>2 000 kr</t>
-  </si>
-  <si>
-    <t>Chabby sänggavel, fotpallar. Sängskåp</t>
-  </si>
-  <si>
-    <t>Nissan X-Trail -07</t>
-  </si>
-  <si>
-    <t>63 000 kr</t>
-  </si>
-  <si>
-    <t>Kabe smaragd gle king siez -02</t>
-  </si>
-  <si>
-    <t>85 000 kr</t>
-  </si>
-  <si>
-    <t>Husqvarna Vitpilen 701, 132 mil, Akrapovic -18</t>
-  </si>
-  <si>
-    <t>79 000 kr</t>
-  </si>
-  <si>
-    <t>Besafe babyskydd</t>
-  </si>
-  <si>
-    <t>Elverk</t>
-  </si>
-  <si>
-    <t>2 600 kr</t>
-  </si>
-  <si>
-    <t>Kalmgatan 26, Stockholms stad</t>
-  </si>
-  <si>
-    <t>4 425 000 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Tiguan 2.0TDI 4-MOTION AUTO SVENSK -10</t>
-  </si>
-  <si>
-    <t>Dalagatan 70, Stockholms stad</t>
-  </si>
-  <si>
-    <t>3 895 000 kr</t>
-  </si>
-  <si>
-    <t>Vi hjälper dig att finansiera din verksamhet -19</t>
-  </si>
-  <si>
-    <t>IPhone XS 64GB Silver</t>
-  </si>
-  <si>
-    <t>Komplett fjäderben Saab 9-3 2003- stötdämpare</t>
-  </si>
-  <si>
-    <t>389 kr</t>
-  </si>
-  <si>
-    <t>Klassiker; Marieholms Concorde</t>
-  </si>
-  <si>
-    <t>16 000 kr</t>
-  </si>
-  <si>
-    <t>Grafisk designer till växande techbolag</t>
-  </si>
-  <si>
-    <t>Vikväggar rumsavskiljare Fogia</t>
-  </si>
-  <si>
-    <t>Gustavianska bokhyllor i fint skick</t>
-  </si>
-  <si>
-    <t>4 500 kr</t>
-  </si>
-  <si>
-    <t>Fd Tullkryssaren "Nalle" -nytt fyndpris</t>
-  </si>
-  <si>
-    <t>1 150 000 kr</t>
-  </si>
-  <si>
-    <t>Tapwell köksblandare</t>
-  </si>
-  <si>
-    <t>Akta Graco Tri-Logic Bilbarnstol junior</t>
-  </si>
-  <si>
-    <t>380 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz Viano 8-SITS MOMS AUT D-VÄRM -13</t>
-  </si>
-  <si>
-    <t>199 800 kr (159 840 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Balklänning Festklänning</t>
-  </si>
-  <si>
-    <t>Projektledare inom NIS och GIS</t>
-  </si>
-  <si>
-    <t>STIGA PRO HOCKEY Electric / HOCKEYSPEL</t>
-  </si>
-  <si>
-    <t>Rea/ Mediamöbler / Snabb leverans</t>
-  </si>
-  <si>
-    <t>1 690 kr</t>
-  </si>
-  <si>
-    <t>Pc+Skärm Gaming</t>
-  </si>
-  <si>
-    <t>5 450 kr</t>
-  </si>
-  <si>
-    <t>Toyota Yaris 1.5 HSD Active / Nya modellen -18</t>
-  </si>
-  <si>
-    <t>159 900 kr (127 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Ford Mondeo Combi 2.5 V6 Automat 170hk -07</t>
-  </si>
-  <si>
-    <t>14 900 kr</t>
-  </si>
-  <si>
-    <t>Statist - Extrajobb. (finsktalande) Familj sö</t>
-  </si>
-  <si>
-    <t>Sourcing manager for bus body components</t>
-  </si>
-  <si>
-    <t>6*139,7 Mitsubishi L200, Pajero,Fiat FULLBACK</t>
-  </si>
-  <si>
-    <t>11 500 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz ML 320 CDI 4MATIC 7G-Tronic 224 -10</t>
-  </si>
-  <si>
-    <t>159 800 kr</t>
-  </si>
-  <si>
-    <t>Ford Fiesta 1.0 80hk Titanium -13</t>
-  </si>
-  <si>
-    <t>78 900 kr</t>
-  </si>
-  <si>
-    <t>Sideboard i emaljerad stål och terrazzo-sten</t>
-  </si>
-  <si>
-    <t>Gatsten , kantsten , marksten</t>
-  </si>
-  <si>
-    <t>Retro skrivbord i teak &amp; Öglan stolar</t>
-  </si>
-  <si>
-    <t>Cube barn mtb</t>
-  </si>
-  <si>
-    <t>Vinterdäck med fälg</t>
-  </si>
-  <si>
-    <t>6 000 kr</t>
-  </si>
-  <si>
-    <t>Jack daniels</t>
-  </si>
-  <si>
-    <t>2 700 kr</t>
-  </si>
-  <si>
-    <t>Fräsch grön/grönmelerad matta</t>
-  </si>
-  <si>
-    <t>Volvo V70 -12</t>
-  </si>
-  <si>
-    <t>120 000 kr</t>
-  </si>
-  <si>
-    <t>Flipper 640 ht wallas värmare + kök</t>
-  </si>
-  <si>
-    <t>77 000 kr</t>
-  </si>
-  <si>
-    <t>Fyrklövern servis Blåklocka</t>
-  </si>
-  <si>
-    <t>Hästen, Ställbar &amp; massage 2x90cm (180cm)</t>
-  </si>
-  <si>
-    <t>Sea ray 215 Express Cruiser -99</t>
-  </si>
-  <si>
-    <t>127 000 kr</t>
-  </si>
-  <si>
-    <t>Taxibåt / charterbåt</t>
-  </si>
-  <si>
-    <t>375 000 kr</t>
-  </si>
-  <si>
-    <t>Administratör till telekombolag i Sätra</t>
-  </si>
-  <si>
-    <t>Tvättmaskin</t>
-  </si>
-  <si>
-    <t>Volkswagen Caddy Maxi 4-Motion D-varm/Drag/V- -12</t>
-  </si>
-  <si>
-    <t>87 800 kr (70 240 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Toalettstol sanifloavloppspump</t>
-  </si>
-  <si>
-    <t>3 500 kr</t>
-  </si>
-  <si>
-    <t>Porsche 911 996 -99</t>
-  </si>
-  <si>
-    <t>149 000 kr</t>
-  </si>
-  <si>
-    <t>Nissan Navara Np300 2.3dCi D-VÄRM DRAGKROK -16</t>
-  </si>
-  <si>
-    <t>284 800 kr (227 840 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Yamaha RD350 ypvs -85</t>
-  </si>
-  <si>
-    <t>Bortskänkes</t>
-  </si>
-  <si>
-    <t>Wii samt xbox one spel</t>
-  </si>
-  <si>
-    <t>Toyota Aygo 5-dörrar 1.0 VVT-i 68hk -14</t>
-  </si>
-  <si>
-    <t>61 500 kr</t>
-  </si>
-  <si>
-    <t>Kivik 3 sits soffa</t>
-  </si>
-  <si>
-    <t>1 599 kr</t>
-  </si>
-  <si>
-    <t>Louis Vuitton lås-smycke</t>
-  </si>
-  <si>
-    <t>Citroën Berlingo 90hk -10</t>
-  </si>
-  <si>
-    <t>43 000 kr</t>
-  </si>
-  <si>
-    <t>Peugeot 508 SW 1.6 e-HDi / Aut / Panorama -11</t>
-  </si>
-  <si>
-    <t>69 900 kr (55 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Carisma 610 Tender PROVKÖRNING</t>
-  </si>
-  <si>
-    <t>389 000 kr</t>
-  </si>
-  <si>
-    <t>Styrpulpetbåt m. 40 hk inkl. Trailer</t>
-  </si>
-  <si>
-    <t>40 000 kr</t>
-  </si>
-  <si>
-    <t>Balkongmöbler - först till kvarn</t>
-  </si>
-  <si>
-    <t>Fiat 500C -15</t>
-  </si>
-  <si>
-    <t>110 000 kr</t>
-  </si>
-  <si>
-    <t>Linjett 35 SWE-20 1991</t>
-  </si>
-  <si>
-    <t>795 000 kr</t>
-  </si>
-  <si>
-    <t>Kejsarlänl 100G</t>
-  </si>
-  <si>
-    <t>38 000 kr</t>
-  </si>
-  <si>
-    <t>Toyota C-HR 1.8 HSD X-Edition/Bi-Tone/Teknikp -18</t>
-  </si>
-  <si>
-    <t>264 900 kr</t>
-  </si>
-  <si>
-    <t>Stenspräckning bergspräckning Powertools</t>
-  </si>
-  <si>
-    <t>Mini Cooper 5-dörrar Pepper pkt Nypris: 225.0 -19</t>
-  </si>
-  <si>
-    <t>178 700 kr (142 960 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Valphage av nylon</t>
-  </si>
-  <si>
-    <t>Apple iPhone Xs Max 512GB Guld 441 kr/mån</t>
-  </si>
-  <si>
-    <t>Biltransport o motortransport -05</t>
-  </si>
-  <si>
-    <t>130 000 kr</t>
-  </si>
-  <si>
-    <t>Chanel ballerina , Mango skinnjacka</t>
-  </si>
-  <si>
-    <t>495 kr</t>
-  </si>
-  <si>
-    <t>Spis 70cm</t>
-  </si>
-  <si>
-    <t>Sjösala 26" damcykel</t>
-  </si>
-  <si>
-    <t>Matta Tanger</t>
-  </si>
-  <si>
-    <t>Polaris pro XR 800 -04</t>
-  </si>
-  <si>
-    <t>14 000 kr</t>
-  </si>
-  <si>
-    <t>Audi A5 Sportback 3.0 TDI V6 DPF quattro S Rä -13</t>
-  </si>
-  <si>
-    <t>214 000 kr</t>
-  </si>
-  <si>
-    <t>Tempurmadrasser</t>
-  </si>
-  <si>
-    <t>Specialized Stumpjumper FSR Elite 29 MTB</t>
-  </si>
-  <si>
-    <t>Hopfällbar cykel</t>
-  </si>
-  <si>
-    <t>Datorservice i Bromma - Stockholm</t>
-  </si>
-  <si>
-    <t>Snurrstol i läderimitation</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz VITO 116 D-VÄRM DRAG -16</t>
-  </si>
-  <si>
-    <t>219 800 kr (175 840 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volkswagen EOS TSI 160 -12</t>
-  </si>
-  <si>
-    <t>109 000 kr</t>
-  </si>
-  <si>
-    <t>Hemsida inom andrahandsuthyrning</t>
-  </si>
-  <si>
-    <t>30 000 kr</t>
-  </si>
-  <si>
-    <t>Helt ny duschdörr 80 cm</t>
-  </si>
-  <si>
-    <t>Finnmyrten-skedar (tornedalssilver) Säljes ti</t>
-  </si>
-  <si>
-    <t>5 100 kr</t>
-  </si>
-  <si>
-    <t>Poolvärmepump</t>
-  </si>
-  <si>
-    <t>Ford Mustang Gt cab -97</t>
-  </si>
-  <si>
-    <t>82 000 kr</t>
-  </si>
-  <si>
-    <t>Sommardäck 175/65R14</t>
-  </si>
-  <si>
-    <t>4 Al-sommarhjul Volvo V70 97 4-5mm</t>
-  </si>
-  <si>
-    <t>Toyota Yaris - Lågmilare -08</t>
-  </si>
-  <si>
-    <t>48 000 kr</t>
-  </si>
-  <si>
-    <t>Vattenburen panna Kroll KWOB (100kW)/Kampanj/</t>
-  </si>
-  <si>
-    <t>Varmluftspanna Tyska Kroll 40 S(40KW)KAMPANJ</t>
-  </si>
-  <si>
-    <t>Professionell webbutveckling</t>
-  </si>
-  <si>
-    <t>Kia Rio 1.4 97hk -06</t>
-  </si>
-  <si>
-    <t>29 900 kr</t>
-  </si>
-  <si>
-    <t>BMW X1 23d xdrive -11</t>
-  </si>
-  <si>
-    <t>129 000 kr</t>
-  </si>
-  <si>
-    <t>Hantelställ med hantlar 13.6 - 21.2 kilo</t>
-  </si>
-  <si>
-    <t>3 900 kr</t>
-  </si>
-  <si>
-    <t>Däck på fälg till vw touareg</t>
-  </si>
-  <si>
-    <t>12 000 kr</t>
-  </si>
-  <si>
-    <t>Herrkostym Filippa K</t>
-  </si>
-  <si>
-    <t>1 650 kr</t>
-  </si>
-  <si>
-    <t>Saab 9-5 sportcombi Biopower2,0 -07</t>
-  </si>
-  <si>
-    <t>21 000 kr</t>
-  </si>
-  <si>
-    <t>Frys</t>
+    <t>NY trehjuling för vuxna 24" hjul med 6-växlar</t>
+  </si>
+  <si>
+    <t>6 200 kr</t>
+  </si>
+  <si>
+    <t>Skoda Superb Kombi 1.8 TSI Aut 160hk Dragkrok -11</t>
+  </si>
+  <si>
+    <t>99 900 kr</t>
+  </si>
+  <si>
+    <t>Bianchi Via Nirone 7</t>
+  </si>
+  <si>
+    <t>Barock bord</t>
+  </si>
+  <si>
+    <t>2 st Höj &amp; Sänkbara bord 160*80 Vit Skiva</t>
+  </si>
+  <si>
+    <t>Vagga Troll</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1531,7 +1531,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1553,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2837,10 +2837,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B138" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B151" t="s">
         <v>15</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3214,7 +3214,7 @@
         <v>277</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3225,7 +3225,7 @@
         <v>278</v>
       </c>
       <c r="B173" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3258,7 +3258,7 @@
         <v>282</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>283</v>
+      </c>
+      <c r="B177" t="s">
         <v>284</v>
-      </c>
-      <c r="B177" t="s">
-        <v>162</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3280,7 +3280,7 @@
         <v>285</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3291,7 +3291,7 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B184" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B187" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B188" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B190" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B191" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B195" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B196" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B199" t="s">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B200" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3533,7 +3533,7 @@
         <v>320</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>

--- a/web-scraping/blocket_data.xlsx
+++ b/web-scraping/blocket_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="450">
   <si>
     <t>Title</t>
   </si>
@@ -25,958 +25,1345 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Jaguar X-Type Kombi 2.2 D 152hk -06</t>
+    <t>Mercedes-Benz C / AMG Line / Burmester / B -19</t>
+  </si>
+  <si>
+    <t>484 900 kr (387 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikBilar, Älvsborg</t>
+  </si>
+  <si>
+    <t>Ford Mondeo Combi 2.0 TDCi Automat 140hk -09</t>
+  </si>
+  <si>
+    <t>45 000 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Örebro</t>
+  </si>
+  <si>
+    <t>Observatoriegatan 12 A, Stockholms stad</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MäklareLägenheter, Stockholm</t>
+  </si>
+  <si>
+    <t>Volvo V60 D4 190hk AWD EU6 Momentum R-Design -16</t>
+  </si>
+  <si>
+    <t>239 900 kr (191 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikBilar, Stockholm</t>
+  </si>
+  <si>
+    <t>Harley-Davidson FLHRC Road King Classic -00</t>
+  </si>
+  <si>
+    <t>85 000 kr</t>
+  </si>
+  <si>
+    <t>ButikMotorcyklar, Stockholm</t>
+  </si>
+  <si>
+    <t>CRATE GT 200 Gitarr förstärkare</t>
+  </si>
+  <si>
+    <t>3 995 kr</t>
+  </si>
+  <si>
+    <t>ButikMusikutrustning, Stockholm</t>
+  </si>
+  <si>
+    <t>Sideboard i mässing med marmorskiva</t>
+  </si>
+  <si>
+    <t>1 500 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Stockholm</t>
+  </si>
+  <si>
+    <t>Div. skåp och hyllor</t>
+  </si>
+  <si>
+    <t>600 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Värmland</t>
+  </si>
+  <si>
+    <t>Skoda Octavia RS Combi 2.0 TDI DPF DSG Sekve -12</t>
+  </si>
+  <si>
+    <t>119 000 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Västernorrland</t>
+  </si>
+  <si>
+    <t>Audi orginal</t>
+  </si>
+  <si>
+    <t>3 800 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Västernorrland</t>
+  </si>
+  <si>
+    <t>Chicco fotölj</t>
+  </si>
+  <si>
+    <t>150 kr</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker, Stockholm</t>
+  </si>
+  <si>
+    <t>Verkstads inredning, Modulsystem caddy</t>
+  </si>
+  <si>
+    <t>10 500 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Stockholm</t>
+  </si>
+  <si>
+    <t>Soffa från Living furniture</t>
+  </si>
+  <si>
+    <t>2 000 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Malmö</t>
+  </si>
+  <si>
+    <t>Stolar, skohylla, Persisk matt-tavla av siden</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Uppsala</t>
+  </si>
+  <si>
+    <t>Britax Max-Way bilbarnstol</t>
+  </si>
+  <si>
+    <t>800 kr</t>
+  </si>
+  <si>
+    <t>Vit New Era Yankees, vita Air Max 90</t>
+  </si>
+  <si>
+    <t>200 kr</t>
+  </si>
+  <si>
+    <t>Kläder &amp; skor, Stockholm</t>
+  </si>
+  <si>
+    <t>Jaguar XE P200 R-Sport *VECKANS DEAL* -18</t>
+  </si>
+  <si>
+    <t>3 895 kr/mån Privatleasing</t>
+  </si>
+  <si>
+    <t>Kombinerad kyl och frys (electrolux) säljes</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror, Göteborg</t>
+  </si>
+  <si>
+    <t>Ny shubert hjälp</t>
+  </si>
+  <si>
+    <t>MC-delar &amp; tillbehör, Västmanland</t>
+  </si>
+  <si>
+    <t>Bänk</t>
+  </si>
+  <si>
+    <t>250 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Västerbotten</t>
+  </si>
+  <si>
+    <t>Hundbur till bil</t>
+  </si>
+  <si>
+    <t>Djur, Uppsala</t>
+  </si>
+  <si>
+    <t>Tiki TP385</t>
+  </si>
+  <si>
+    <t>60 700 kr</t>
+  </si>
+  <si>
+    <t>ButikBildelar &amp; biltillbehör, Örebro</t>
+  </si>
+  <si>
+    <t>Campingbord och stolar</t>
+  </si>
+  <si>
+    <t>1 900 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar, Lund</t>
+  </si>
+  <si>
+    <t>Tryckluftstank 350 liter, 11 bar</t>
+  </si>
+  <si>
+    <t>3 500 kr</t>
+  </si>
+  <si>
+    <t>Inventarier &amp; maskiner, Jönköping</t>
+  </si>
+  <si>
+    <t>Goldenhane till avel</t>
+  </si>
+  <si>
+    <t>1 000 kr</t>
+  </si>
+  <si>
+    <t>Tjänster, Ystad</t>
+  </si>
+  <si>
+    <t>Bardisk</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Göteborg</t>
+  </si>
+  <si>
+    <t>Picnicbord</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Halland</t>
+  </si>
+  <si>
+    <t>FUCHS Blackjack 21 MKII inkl. 2x12 låda</t>
+  </si>
+  <si>
+    <t>13 995 kr</t>
+  </si>
+  <si>
+    <t>Vedkap bortskänkes</t>
+  </si>
+  <si>
+    <t>Verktyg, Älvsborg</t>
+  </si>
+  <si>
+    <t>Britax go big</t>
+  </si>
+  <si>
+    <t>4 900 kr</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker, Östergötland</t>
+  </si>
+  <si>
+    <t>Sommardäck sorento</t>
+  </si>
+  <si>
+    <t>2 900 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Södermanland</t>
+  </si>
+  <si>
+    <t>Land Rover Range Rover Sport 3.0 SDV6 4WD Sig -19</t>
+  </si>
+  <si>
+    <t>799 000 kr (639 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Däck Volvo 850/V70 -98</t>
+  </si>
+  <si>
+    <t>2 500 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Gävleborg</t>
+  </si>
+  <si>
+    <t>AKG K242 HD Hörlurar</t>
+  </si>
+  <si>
+    <t>700 kr</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild, Stockholm</t>
+  </si>
+  <si>
+    <t>Harley-Davidson Street Rod -18</t>
+  </si>
+  <si>
+    <t>83 400 kr</t>
+  </si>
+  <si>
+    <t>ButikMotorcyklar, Västerbotten</t>
+  </si>
+  <si>
+    <t>Prima hösilage</t>
+  </si>
+  <si>
+    <t>900 kr</t>
+  </si>
+  <si>
+    <t>FHästar &amp; ridsport, Södermanland</t>
+  </si>
+  <si>
+    <t>Elektrisk pallvagn JAC 1500kg -19</t>
+  </si>
+  <si>
+    <t>ButikLastbil, truck &amp; entreprenad, Stockholm</t>
+  </si>
+  <si>
+    <t>Kompakt stationär dator ASRock</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel, Göteborg</t>
+  </si>
+  <si>
+    <t>Poolvård, Pool reparationer &amp; Poolstädning</t>
+  </si>
+  <si>
+    <t>FTjänster, Stockholm</t>
+  </si>
+  <si>
+    <t>Porträtt på canvasduk</t>
+  </si>
+  <si>
+    <t>500 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Halland</t>
+  </si>
+  <si>
+    <t>Sänggavel</t>
+  </si>
+  <si>
+    <t>Klipsch RF-63, RC-62, RS-52 + Harman AVR460</t>
+  </si>
+  <si>
+    <t>13 000 kr</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild, Göteborg</t>
+  </si>
+  <si>
+    <t>Takbox Packline 90 med snabbfästen</t>
+  </si>
+  <si>
+    <t>Monitor audio rx 6</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild, Västerbotten</t>
+  </si>
+  <si>
+    <t>Mini rodini filt</t>
+  </si>
+  <si>
+    <t>Barnkläder &amp; skor, Kronoberg</t>
+  </si>
+  <si>
+    <t>Volkswagen Tiguan 2.0 TDI 4Motion DSG Sekvent -12</t>
+  </si>
+  <si>
+    <t>99 000 kr</t>
+  </si>
+  <si>
+    <t>Stor stuga - Oslagbart pris -Snabb lev</t>
+  </si>
+  <si>
+    <t>212 000 kr</t>
+  </si>
+  <si>
+    <t>ButikBygg &amp; trädgård</t>
+  </si>
+  <si>
+    <t>Spjälsäng och skötbord, Sundvik, IKEA</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker, Uppsala</t>
+  </si>
+  <si>
+    <t>Elnagh 680 sl</t>
+  </si>
+  <si>
+    <t>90 000 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar, Uppsala</t>
+  </si>
+  <si>
+    <t>Hifi-system av audiofil kvalite</t>
+  </si>
+  <si>
+    <t>14 500 kr</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild, Västmanland</t>
+  </si>
+  <si>
+    <t>Bärbar dator för skola/jobb/nöje</t>
+  </si>
+  <si>
+    <t>3 499 kr</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel, Örebro</t>
+  </si>
+  <si>
+    <t>Solifer 6102i i kanonskick -89</t>
+  </si>
+  <si>
+    <t>50 000 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar, Arvidsjaur</t>
+  </si>
+  <si>
+    <t>Mercedes Benz E 230 -95</t>
+  </si>
+  <si>
+    <t>10 000 kr</t>
+  </si>
+  <si>
+    <t>Bilar, Kalix</t>
+  </si>
+  <si>
+    <t>Kia CEED 1.6 CRDi 128hk -14</t>
+  </si>
+  <si>
+    <t>Durspel beg Weltmeister 2-körigt 3-radigt</t>
+  </si>
+  <si>
+    <t>9 500 kr</t>
+  </si>
+  <si>
+    <t>ButikMusikutrustning, Halland</t>
+  </si>
+  <si>
+    <t>Lego Harry Potter, Star wars DeathStar</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker, Göteborg</t>
+  </si>
+  <si>
+    <t>Baby Björn babysitter + sulky</t>
+  </si>
+  <si>
+    <t>Toyota Avensis 1.8 Manuell ActivePlus Motorvä -16</t>
+  </si>
+  <si>
+    <t>174 900 kr</t>
+  </si>
+  <si>
+    <t>Nissan Pulsar 1.2 DIG-T Euro 6 115hk -16</t>
+  </si>
+  <si>
+    <t>129 900 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Lund</t>
+  </si>
+  <si>
+    <t>BMW i3 94 Ah REX | Nav -18</t>
+  </si>
+  <si>
+    <t>369 900 kr (295 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikBilar, Halland</t>
+  </si>
+  <si>
+    <t>BMW X3 35D/Aut/X-drive/286hk/Panorama/2.22% R -10</t>
+  </si>
+  <si>
+    <t>99 900 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Göteborg</t>
+  </si>
+  <si>
+    <t>Fiat Freemont 2,0 Jtdm AWD Black Code -15</t>
+  </si>
+  <si>
+    <t>172 900 kr</t>
+  </si>
+  <si>
+    <t>Bäddmadrass 140 x 220</t>
+  </si>
+  <si>
+    <t>Spegel</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning, Dalarna</t>
+  </si>
+  <si>
+    <t>Terassvärmare Burny med Gasoltub</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Stockholm</t>
+  </si>
+  <si>
+    <t>Kia Sportage 2.0 CRDi AWD 184hk -13</t>
+  </si>
+  <si>
+    <t>Taklampor, lampskärm Marimekko</t>
+  </si>
+  <si>
+    <t>Två supergulliga vädurshanar</t>
+  </si>
+  <si>
+    <t>400 kr</t>
+  </si>
+  <si>
+    <t>18 tum fälgar 235 40 r18 5x100 et45 bvsa</t>
+  </si>
+  <si>
+    <t>2 800 kr</t>
+  </si>
+  <si>
+    <t>Retro Barnvagn</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker, Örebro</t>
+  </si>
+  <si>
+    <t>Crescent Elder 2018 elcykel nyskick 15 mil</t>
+  </si>
+  <si>
+    <t>14 000 kr</t>
+  </si>
+  <si>
+    <t>Cyklar, Lund</t>
+  </si>
+  <si>
+    <t>Amerikansk Cocker Spaniel valpar</t>
+  </si>
+  <si>
+    <t>15 000 kr</t>
+  </si>
+  <si>
+    <t>Djur, Trelleborg</t>
+  </si>
+  <si>
+    <t>BMW 520 d Touring Steptronic 184hk Automat -11</t>
+  </si>
+  <si>
+    <t>134 900 kr</t>
+  </si>
+  <si>
+    <t>Nybörjarset</t>
+  </si>
+  <si>
+    <t>Sport &amp; fritid, Örebro</t>
+  </si>
+  <si>
+    <t>Sommardäck</t>
+  </si>
+  <si>
+    <t>2 400 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Älvsborg</t>
+  </si>
+  <si>
+    <t>Siberian Husky</t>
+  </si>
+  <si>
+    <t>Djur, Stockholm</t>
+  </si>
+  <si>
+    <t>Silva kompass / Jollesegling</t>
+  </si>
+  <si>
+    <t>Sport &amp; fritid, Halland</t>
+  </si>
+  <si>
+    <t>Modern kattmöbel</t>
+  </si>
+  <si>
+    <t>650 kr</t>
+  </si>
+  <si>
+    <t>Stenhöj 4-pelarlyft</t>
+  </si>
+  <si>
+    <t>Verktyg, Östergötland</t>
+  </si>
+  <si>
+    <t>Tryckluftstank 120 liter, 11 bar</t>
+  </si>
+  <si>
+    <t>Onkyo TX-NR727. 7.2 Surround Reciever</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild, Södermanland</t>
+  </si>
+  <si>
+    <t>Isländska tuppar</t>
+  </si>
+  <si>
+    <t>75 kr</t>
+  </si>
+  <si>
+    <t>Djur, Jönköping</t>
+  </si>
+  <si>
+    <t>Skoda Octavia 1.4Tsi Elegance (mtrvrm + drag) -13</t>
+  </si>
+  <si>
+    <t>ButikBilar, Gävleborg</t>
+  </si>
+  <si>
+    <t>Audi A5 Coupé 2.0 TFSI quattro S-Tronic, 252h -17</t>
+  </si>
+  <si>
+    <t>359 900 kr</t>
+  </si>
+  <si>
+    <t>Seat Alhambra 1,8 TSI 160 HK AUTOMAT DRAG -10</t>
+  </si>
+  <si>
+    <t>64 900 kr</t>
+  </si>
+  <si>
+    <t>Honda NSC50 Vision</t>
+  </si>
+  <si>
+    <t>26 995 kr</t>
+  </si>
+  <si>
+    <t>ButikMopeder &amp; A-traktor, Västerbotten</t>
+  </si>
+  <si>
+    <t>Nissan Leaf 40 kWh N-Connecta -19</t>
+  </si>
+  <si>
+    <t>319 900 kr</t>
+  </si>
+  <si>
+    <t>BMW 320 d xDrive Touring / M Sport / V-hjul i -19</t>
+  </si>
+  <si>
+    <t>491 800 kr (393 440 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikBilar, Västmanland</t>
+  </si>
+  <si>
+    <t>Douchebag Carryall 65L</t>
+  </si>
+  <si>
+    <t>Accessoarer &amp; klockor, Stockholm</t>
+  </si>
+  <si>
+    <t>Mycket fin STUVA byrå</t>
+  </si>
+  <si>
+    <t>Jason Cafégrupp - FRI FRAKT HEM</t>
+  </si>
+  <si>
+    <t>3 495 kr</t>
+  </si>
+  <si>
+    <t>ButikBygg &amp; trädgård, Hässleholm</t>
+  </si>
+  <si>
+    <t>Ikea Resårmadrass 140x200</t>
+  </si>
+  <si>
+    <t>300 kr</t>
+  </si>
+  <si>
+    <t>Kabe Safir Grand De Luxe -81</t>
+  </si>
+  <si>
+    <t>18 500 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar, Älvsborg</t>
+  </si>
+  <si>
+    <t>Mitsubishi Outlander PHEV Fleet Edition 4WD -19</t>
+  </si>
+  <si>
+    <t>379 900 kr</t>
+  </si>
+  <si>
+    <t>Phillips GreenSpace downlight</t>
+  </si>
+  <si>
+    <t>750 kr</t>
+  </si>
+  <si>
+    <t>Durspel nytt Dino Baffetti 1-körigt</t>
+  </si>
+  <si>
+    <t>7 900 kr</t>
+  </si>
+  <si>
+    <t>Vattentank på 5000 liter i PVC</t>
+  </si>
+  <si>
+    <t>9 000 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Västernorrland</t>
+  </si>
+  <si>
+    <t>Mini Cooper D Countryman*Sportstolar*Kampanj* -11</t>
+  </si>
+  <si>
+    <t>ButikBilar, Kalmar</t>
+  </si>
+  <si>
+    <t>Åkgräsklippare trädgårdstraktor MTD</t>
+  </si>
+  <si>
+    <t>7 500 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Älvsborg</t>
+  </si>
+  <si>
+    <t>4 ståplatsbiljetter till Swedish House Mafia</t>
+  </si>
+  <si>
+    <t>625 kr</t>
+  </si>
+  <si>
+    <t>Biljetter, Stockholm</t>
+  </si>
+  <si>
+    <t>IPhone 6S 16GB Nyskick</t>
+  </si>
+  <si>
+    <t>Telefoner &amp; tillbehör, Stockholm</t>
+  </si>
+  <si>
+    <t>Gtx 1080</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel, Stockholm</t>
+  </si>
+  <si>
+    <t>Paisleymönstrad kopp</t>
+  </si>
+  <si>
+    <t>10 kr</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror, Dalarna</t>
+  </si>
+  <si>
+    <t>Kelberg 4-axlad flaksläp 10.500mm omg lev -19</t>
+  </si>
+  <si>
+    <t>ButikLastbil, truck &amp; entreprenad, Helsingborg</t>
+  </si>
+  <si>
+    <t>Durspel Castagnari "Lilly" 1-körigt G-C</t>
+  </si>
+  <si>
+    <t>17 900 kr</t>
+  </si>
+  <si>
+    <t>ButikMusikutrustning</t>
+  </si>
+  <si>
+    <t>4-mans tält</t>
+  </si>
+  <si>
+    <t>Sport &amp; fritid, Stockholm</t>
+  </si>
+  <si>
+    <t>Diverse byggmaterial och verktyg</t>
+  </si>
+  <si>
+    <t>Festklänning balklänning brudklänning</t>
+  </si>
+  <si>
+    <t>Kläder &amp; skor, Göteborg</t>
+  </si>
+  <si>
+    <t>Byrå / Tv-bänk</t>
+  </si>
+  <si>
+    <t>270 kr</t>
+  </si>
+  <si>
+    <t>Audi A1 1.4 TFSI S Tronic 122hk -11</t>
+  </si>
+  <si>
+    <t>BMW 520 d Touring Drag/Skinn/177hk -10</t>
+  </si>
+  <si>
+    <t>ButikBilar, Östergötland</t>
+  </si>
+  <si>
+    <t>Volkswagen Golf 1.4 TSI / Style / FINANS -11</t>
+  </si>
+  <si>
+    <t>69 000 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Skaraborg</t>
+  </si>
+  <si>
+    <t>BMW F800GT 48 mil *Fri hemlev* -15</t>
+  </si>
+  <si>
+    <t>89 900 kr</t>
+  </si>
+  <si>
+    <t>Renault Clio 0.9 TCe 90hk / NAVIGATION -14</t>
+  </si>
+  <si>
+    <t>74 900 kr</t>
+  </si>
+  <si>
+    <t>Renault Twizy Intens 45 A Röd -16</t>
   </si>
   <si>
     <t>49 900 kr</t>
   </si>
   <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Volkswagen Passat CC 2.0 TDI 4-MOTION DSG 170 -11</t>
-  </si>
-  <si>
-    <t>89 900 kr</t>
-  </si>
-  <si>
-    <t>4 x Nokian Hakka Blue 2 - 215 / 45R17 91W</t>
-  </si>
-  <si>
-    <t>6 500 kr</t>
-  </si>
-  <si>
-    <t>Soffa Mio 305cm divan</t>
-  </si>
-  <si>
-    <t>2 200 kr</t>
-  </si>
-  <si>
-    <t>BMW 520 d xDrive Touring Innovation Edition -19</t>
-  </si>
-  <si>
-    <t>519 900 kr (415 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Byggfirma: Tillfälle inför högsäsong</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Terassvärmare 2100w Cotech</t>
-  </si>
-  <si>
-    <t>800 kr</t>
-  </si>
-  <si>
-    <t>Ungkatt säljes</t>
-  </si>
-  <si>
-    <t>Gant vårjacka</t>
-  </si>
-  <si>
-    <t>650 kr</t>
-  </si>
-  <si>
-    <t>Solbäddar med litet bord</t>
-  </si>
-  <si>
-    <t>2 500 kr</t>
-  </si>
-  <si>
-    <t>Soffa, hög kvalitet från Bröderna Andersson</t>
-  </si>
-  <si>
-    <t>1 500 kr</t>
-  </si>
-  <si>
-    <t>Litteratur förskollärarutbildningen</t>
-  </si>
-  <si>
-    <t>20 kr</t>
-  </si>
-  <si>
-    <t>Subaru Outback 2.5 4WD Base Automat / Motorvä -16</t>
-  </si>
-  <si>
-    <t>214 000 kr</t>
-  </si>
-  <si>
-    <t>Roddbåt</t>
-  </si>
-  <si>
-    <t>2 000 kr</t>
-  </si>
-  <si>
-    <t>Fiat TIPO LOUNGE HB 1,4L 120HK -18</t>
-  </si>
-  <si>
-    <t>169 800 kr</t>
-  </si>
-  <si>
-    <t>IKEA Stuva barnmöbler</t>
-  </si>
-  <si>
-    <t>1 000 kr</t>
-  </si>
-  <si>
-    <t>Vitrinskåp</t>
-  </si>
-  <si>
-    <t>1 700 kr</t>
-  </si>
-  <si>
-    <t>Loftsäng stuva</t>
-  </si>
-  <si>
-    <t>Tomason tn9 19"</t>
+    <t>Bmw x6 elektrisk bil för barn</t>
+  </si>
+  <si>
+    <t>2 498 kr</t>
+  </si>
+  <si>
+    <t>ButikBarnartiklar &amp; leksaker</t>
+  </si>
+  <si>
+    <t>Chaufförer till Lindströms Transport i Gälliv</t>
+  </si>
+  <si>
+    <t>JobbTransport &amp; logistik, Gällivare</t>
+  </si>
+  <si>
+    <t>Mycket kraftig Quad core Speldator med skärm</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel, Östergötland</t>
+  </si>
+  <si>
+    <t>Lindus bogserad spruta 1500 lit 16 m ramp</t>
+  </si>
+  <si>
+    <t>27 500 kr (22 000 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikSkogs- &amp; lantbruksmaskiner, Blekinge</t>
+  </si>
+  <si>
+    <t>Nya Castagnari "Brincu" 2-köriga durspel</t>
+  </si>
+  <si>
+    <t>21 400 kr</t>
+  </si>
+  <si>
+    <t>Niesmann Flair 880 BE-15 205 HK 8-stegad auto</t>
+  </si>
+  <si>
+    <t>1 690 000 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar, Göteborg</t>
+  </si>
+  <si>
+    <t>Stor skänk, billig</t>
+  </si>
+  <si>
+    <t>Power mate 6500 smt dieselelverk 1 &amp; 3 fas</t>
+  </si>
+  <si>
+    <t>14 990 kr</t>
+  </si>
+  <si>
+    <t>Soffa bortskänkes</t>
+  </si>
+  <si>
+    <t>Säng 300:-</t>
+  </si>
+  <si>
+    <t>Honda shadow -97</t>
+  </si>
+  <si>
+    <t>Motorcyklar, Blekinge</t>
+  </si>
+  <si>
+    <t>Fällbara konferensstolar med vagn</t>
+  </si>
+  <si>
+    <t>14 400 kr</t>
+  </si>
+  <si>
+    <t>Inventarier &amp; maskiner, Stockholm</t>
+  </si>
+  <si>
+    <t>Phoenix mountainbike dam aluminium 26"</t>
+  </si>
+  <si>
+    <t>ButikCyklar</t>
+  </si>
+  <si>
+    <t>Sommarhjul Volvo, Audi, Opel, Kia, Mustang</t>
+  </si>
+  <si>
+    <t>ButikBildelar &amp; biltillbehör, Skaraborg</t>
+  </si>
+  <si>
+    <t>Cykel Specialized Hotrock 24</t>
+  </si>
+  <si>
+    <t>Cyklar, Stockholm</t>
+  </si>
+  <si>
+    <t>BMW 125 i Aut M-Sport -18</t>
+  </si>
+  <si>
+    <t>289 900 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Amarok -14</t>
+  </si>
+  <si>
+    <t>219 900 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Caddy 2.0 EcoFuel 109hk.Panel Van -09</t>
+  </si>
+  <si>
+    <t>48 000 kr</t>
+  </si>
+  <si>
+    <t>Suzuki Swift Sport 5-door 1.6 Sport 136hk -14</t>
+  </si>
+  <si>
+    <t>94 900 kr</t>
+  </si>
+  <si>
+    <t>ButikBilar, Värmland</t>
+  </si>
+  <si>
+    <t>Evolt Elmoped RETRO</t>
+  </si>
+  <si>
+    <t>22 900 kr</t>
+  </si>
+  <si>
+    <t>ButikMopeder &amp; A-traktor, Västernorrland</t>
+  </si>
+  <si>
+    <t>Volvo XC70 D5 AWD SUMMUM AUT 215HK -13</t>
+  </si>
+  <si>
+    <t>178 900 kr</t>
+  </si>
+  <si>
+    <t>Bmw r 1250 rt -19</t>
+  </si>
+  <si>
+    <t>262 900 kr</t>
+  </si>
+  <si>
+    <t>ButikMotorcyklar, Ängelholm</t>
+  </si>
+  <si>
+    <t>Cabby 620 + F2B -11</t>
+  </si>
+  <si>
+    <t>259 000 kr</t>
+  </si>
+  <si>
+    <t>ButikHusvagnar &amp; husbilar, Västerbotten</t>
+  </si>
+  <si>
+    <t>Paisley mönstrade koppar, billigt</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror, Uppsala</t>
+  </si>
+  <si>
+    <t>Carthago c-tourer super-lightweight I 150 40H -15</t>
+  </si>
+  <si>
+    <t>899 000 kr</t>
+  </si>
+  <si>
+    <t>ButikHusvagnar &amp; husbilar, Skaraborg</t>
+  </si>
+  <si>
+    <t>Nya Castagnari 3-köriga "Tommy" durspel G-C</t>
+  </si>
+  <si>
+    <t>33 900 kr</t>
+  </si>
+  <si>
+    <t>Degblandare 30 liter 2014</t>
+  </si>
+  <si>
+    <t>11 000 kr</t>
+  </si>
+  <si>
+    <t>Inventarier &amp; maskiner, Ystad</t>
+  </si>
+  <si>
+    <t>Fettfrysning maskin</t>
+  </si>
+  <si>
+    <t>20 000 kr</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror, Stockholm</t>
+  </si>
+  <si>
+    <t>Vårstädning pågår</t>
+  </si>
+  <si>
+    <t>5 195 kr</t>
+  </si>
+  <si>
+    <t>ButikBygg &amp; trädgård, Västernorrland</t>
+  </si>
+  <si>
+    <t>Målarfärg</t>
+  </si>
+  <si>
+    <t>5 000 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Dalarna</t>
+  </si>
+  <si>
+    <t>Nytt Castagnari durspel 3-körigt "Trilly" G-C</t>
+  </si>
+  <si>
+    <t>45 500 kr</t>
+  </si>
+  <si>
+    <t>Dubbel divansoffa</t>
+  </si>
+  <si>
+    <t>5 500 kr</t>
+  </si>
+  <si>
+    <t>Hyundai i20 1.6 Diesel*Vinterdäck*Årsskatt 13 -09</t>
+  </si>
+  <si>
+    <t>49 000 kr</t>
+  </si>
+  <si>
+    <t>Non Sense Maxiklänning från Mathilde</t>
+  </si>
+  <si>
+    <t>Hyundai i30 1.6 CRDi*Enägare*Låga 7200MIL*Kam -14</t>
+  </si>
+  <si>
+    <t>89 000 kr</t>
+  </si>
+  <si>
+    <t>Husqvarna FC 250 -18</t>
+  </si>
+  <si>
+    <t>59 000 kr</t>
+  </si>
+  <si>
+    <t>Motorcyklar, Dalarna</t>
+  </si>
+  <si>
+    <t>Fender Hot Rod Deluxe III FSR Silver Edition</t>
+  </si>
+  <si>
+    <t>6 999 kr</t>
+  </si>
+  <si>
+    <t>ButikMusikutrustning, Jönköping</t>
+  </si>
+  <si>
+    <t>Gardentec bensindriven kompostkvarn</t>
+  </si>
+  <si>
+    <t>17 990 kr</t>
+  </si>
+  <si>
+    <t>Showel -78 -80</t>
+  </si>
+  <si>
+    <t>129 000 kr</t>
+  </si>
+  <si>
+    <t>Motorcyklar, Stockholm</t>
+  </si>
+  <si>
+    <t>Honda SH150 -18</t>
+  </si>
+  <si>
+    <t>44 900 kr</t>
+  </si>
+  <si>
+    <t>Ford Focus 1.0 100 Trend Kombi -16</t>
+  </si>
+  <si>
+    <t>119 900 kr (95 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Lastnät och insynsskydd</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör, Uppsala</t>
+  </si>
+  <si>
+    <t>120 CM säng med bäddmadrass</t>
+  </si>
+  <si>
+    <t>Grävmaskin Yanmar B 7 -04</t>
+  </si>
+  <si>
+    <t>125 000 kr (100 000 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>FLastbil, truck &amp; entreprenad, Södermanland</t>
+  </si>
+  <si>
+    <t>OPAI Vigorous Promenadscooter 1000W -19</t>
+  </si>
+  <si>
+    <t>17 500 kr</t>
+  </si>
+  <si>
+    <t>ButikMotorcyklar, Jönköping</t>
+  </si>
+  <si>
+    <t>Kompostkvarn 2800w med uppsamlare</t>
+  </si>
+  <si>
+    <t>2 490 kr</t>
+  </si>
+  <si>
+    <t>Lampkrona x 2</t>
+  </si>
+  <si>
+    <t>Grothrian Steinweg</t>
+  </si>
+  <si>
+    <t>23 456 kr</t>
+  </si>
+  <si>
+    <t>Musikutrustning, Västmanland</t>
+  </si>
+  <si>
+    <t>Lerhamn bord Ikea</t>
+  </si>
+  <si>
+    <t>Yallotrade söker en ny stjärna till kundsuppo</t>
+  </si>
+  <si>
+    <t>JobbAdministration, Stockholm</t>
+  </si>
+  <si>
+    <t>Vi söker kvalificerad montör</t>
+  </si>
+  <si>
+    <t>JobbIndustri &amp; anläggning, Göteborg</t>
+  </si>
+  <si>
+    <t>Yamaha PSR-S670</t>
   </si>
   <si>
     <t>4 500 kr</t>
   </si>
   <si>
-    <t>Soffa</t>
+    <t>Musikutrustning, Höör</t>
+  </si>
+  <si>
+    <t>Markis</t>
+  </si>
+  <si>
+    <t>12 000 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård, Göteborg</t>
+  </si>
+  <si>
+    <t>Bmw r 1200 r -16</t>
+  </si>
+  <si>
+    <t>128 900 kr</t>
+  </si>
+  <si>
+    <t>BMW 525 d M-Sport/218HK/1-Ägare/Drag/Värmare -12</t>
+  </si>
+  <si>
+    <t>147 500 kr</t>
+  </si>
+  <si>
+    <t>Renault Kangoo Express 1.5 dCi 75hk -13</t>
+  </si>
+  <si>
+    <t>59 900 kr</t>
+  </si>
+  <si>
+    <t>Citroën C3 Puretec*Super Cool*1600mil*Kampanj -17</t>
+  </si>
+  <si>
+    <t>Kraftig flistugg med 40 hk dieselmotor</t>
+  </si>
+  <si>
+    <t>73 990 kr</t>
+  </si>
+  <si>
+    <t>Ford Focus lättmetallfälgar med däck</t>
+  </si>
+  <si>
+    <t>4 köksstolar</t>
+  </si>
+  <si>
+    <t>Mitsubishi Eclipse Cross Komfort 1.5 T CVT 4W -19</t>
+  </si>
+  <si>
+    <t>279 900 kr</t>
+  </si>
+  <si>
+    <t>Bose Lifestyle 38 DVD Home Entertainment Syst</t>
+  </si>
+  <si>
+    <t>Mitsubishi Colt Låga mil * Kampanj* -09</t>
+  </si>
+  <si>
+    <t>29 900 kr</t>
+  </si>
+  <si>
+    <t>Mercedes gl63 amg 12 v elbil med gummihjul</t>
+  </si>
+  <si>
+    <t>3 598 kr</t>
+  </si>
+  <si>
+    <t>THEOZ + MOJJE - Huskvarna 5/5 - BILJETTER</t>
+  </si>
+  <si>
+    <t>100 kr</t>
+  </si>
+  <si>
+    <t>FBiljetter, Jönköping</t>
+  </si>
+  <si>
+    <t>Säng 120 cm plus fin sänggavel till</t>
+  </si>
+  <si>
+    <t>1 800 kr</t>
+  </si>
+  <si>
+    <t>Porsche Panamera Diesel Svensksåld -14</t>
+  </si>
+  <si>
+    <t>518 000 kr</t>
+  </si>
+  <si>
+    <t>Järnsoffa/säng Fransk lantstil</t>
   </si>
   <si>
     <t>3 000 kr</t>
   </si>
   <si>
-    <t>Volvo S60 T5 Summum 260hk Four-c -05</t>
-  </si>
-  <si>
-    <t>54 900 kr</t>
-  </si>
-  <si>
-    <t>Elstängsel mot vildsvin</t>
-  </si>
-  <si>
-    <t>Postiljonsvägen 5, Stockholms stad</t>
-  </si>
-  <si>
-    <t>2 695 000 kr</t>
-  </si>
-  <si>
-    <t>Bmw 335 d x-drive m-sport euro 6 313hk -15</t>
-  </si>
-  <si>
-    <t>289 900 kr</t>
-  </si>
-  <si>
-    <t>Rodebjer-klänning</t>
-  </si>
-  <si>
-    <t>700 kr</t>
-  </si>
-  <si>
-    <t>BMW 335 d xDrive 313hk Aut Sport line H/K -17</t>
-  </si>
-  <si>
-    <t>355 900 kr (284 720 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Audi S1 2.0 TFSI SB Quattro Bose Skalstolar N -15</t>
-  </si>
-  <si>
-    <t>244 900 kr</t>
-  </si>
-  <si>
-    <t>Volvo V60 D4 e Business Advanced Summum -17</t>
-  </si>
-  <si>
-    <t>218 900 kr (175 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Däck med fälg</t>
-  </si>
-  <si>
-    <t>5 000 kr</t>
-  </si>
-  <si>
-    <t>Skrivbord och stolen</t>
-  </si>
-  <si>
-    <t>300 kr</t>
-  </si>
-  <si>
-    <t>Volvo V60 D4 AUT AWD R-DESIGN POLESTAR VOC -14</t>
-  </si>
-  <si>
-    <t>219 000 kr</t>
-  </si>
-  <si>
-    <t>Toyota Auris 1,8 HSD Executive 5d -15</t>
-  </si>
-  <si>
-    <t>159 900 kr</t>
-  </si>
-  <si>
-    <t>Volvo XC90 D4 AWD Business Advanced 7-säten -18</t>
-  </si>
-  <si>
-    <t>549 900 kr (439 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Goldwing 1500 -89</t>
-  </si>
-  <si>
-    <t>39 000 kr</t>
-  </si>
-  <si>
-    <t>Bäddsoffa</t>
-  </si>
-  <si>
-    <t>12 000 kr</t>
-  </si>
-  <si>
-    <t>Planteringsbord / Blombord</t>
-  </si>
-  <si>
-    <t>1 750 kr</t>
-  </si>
-  <si>
-    <t>Renault Master Skåp III Skåp L2H2 Navi Drag 1 -17</t>
-  </si>
-  <si>
-    <t>219 000 kr (175 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volvo V40 D2 Business Advanced -18</t>
-  </si>
-  <si>
-    <t>189 900 kr (151 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volvo V60 D2 aut Business Advanced -17</t>
-  </si>
-  <si>
-    <t>199 000 kr (159 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volvo XC60 D4 AWD Classic Summum -17</t>
-  </si>
-  <si>
-    <t>318 900 kr (255 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Loungemöbel</t>
-  </si>
-  <si>
-    <t>7 000 kr</t>
-  </si>
-  <si>
-    <t>Fastighetsadministratör</t>
-  </si>
-  <si>
-    <t>Rustikt byrå/skänk</t>
-  </si>
-  <si>
-    <t>1 600 kr</t>
-  </si>
-  <si>
-    <t>Grundskollärare till Ängskolan F-6</t>
-  </si>
-  <si>
-    <t>Ikea PS skåp vitt</t>
-  </si>
-  <si>
-    <t>50 kr</t>
-  </si>
-  <si>
-    <t>Volvo V60 D2 Business -17</t>
-  </si>
-  <si>
-    <t>179 000 kr (143 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volvo XC60 D4 R-Design Business E PRO -16</t>
-  </si>
-  <si>
-    <t>294 900 kr (235 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Soffa, soffbord och fotölj</t>
-  </si>
-  <si>
-    <t>Account Manager sökes till Tradera</t>
-  </si>
-  <si>
-    <t>Studerande kredithandläggare till expansiva s</t>
-  </si>
-  <si>
-    <t>Nissan Pathfinder 2.5 4WD 171hk / NYSERVAD / -10</t>
-  </si>
-  <si>
-    <t>109 900 kr</t>
-  </si>
-  <si>
-    <t>Städare till Nykvarn med bil och körkort.</t>
-  </si>
-  <si>
-    <t>Svart Snurrfåtölj med fotpall</t>
-  </si>
-  <si>
-    <t>Schlebach Förfalsmaskin SPA</t>
-  </si>
-  <si>
-    <t>235 000 kr</t>
-  </si>
-  <si>
-    <t>Yamaha 40 hk fyrtaktsutombordsmotor</t>
-  </si>
-  <si>
-    <t>30 000 kr</t>
-  </si>
-  <si>
-    <t>Volvo V40 D2 Your Kinetic -16</t>
-  </si>
-  <si>
-    <t>138 900 kr (111 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Klädpaket flicka74/80/86</t>
-  </si>
-  <si>
-    <t>Michael kors väska lim edition</t>
-  </si>
-  <si>
-    <t>Klippo Excellent SH Gräsklippare</t>
-  </si>
-  <si>
-    <t>Korg Electribe Sampler 2 (ESX2)</t>
-  </si>
-  <si>
-    <t>Väldisponerad 1:a med pool och takterrass, lå</t>
-  </si>
-  <si>
-    <t>2 150 000 kr</t>
-  </si>
-  <si>
-    <t>Fiat 595 ABARTH 1,4T 145HK -19</t>
-  </si>
-  <si>
-    <t>187 800 kr</t>
-  </si>
-  <si>
-    <t>Renault Clio IV Energy TCe 90 Dynamique 5-d -15</t>
-  </si>
-  <si>
-    <t>89 900 kr (71 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>SWEDISH HOUSE MAFIA - Tele2 Arena 2019</t>
-  </si>
-  <si>
-    <t>Bmw x5 fälgar</t>
-  </si>
-  <si>
-    <t>4 000 kr</t>
-  </si>
-  <si>
-    <t>Djurgården - Frölunda 23/4</t>
-  </si>
-  <si>
-    <t>1 200 kr</t>
-  </si>
-  <si>
-    <t>Junior Business Controller</t>
-  </si>
-  <si>
-    <t>Tory Burch väska</t>
-  </si>
-  <si>
-    <t>600 kr</t>
-  </si>
-  <si>
-    <t>Äldre inredning ( 1971 ) från Frisörsalong</t>
-  </si>
-  <si>
-    <t>Honda CR-V i-MMD Hybrid 2WD Elegance Premiär -19</t>
-  </si>
-  <si>
-    <t>350 900 kr (280 720 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Opel Astra 1.6 Twinport / 1 Ägare -07</t>
-  </si>
-  <si>
-    <t>39 900 kr</t>
-  </si>
-  <si>
-    <t>187 800 kr (150 240 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Den optimala 3:an med naturen inpå knuten</t>
-  </si>
-  <si>
-    <t>2 390 000 kr</t>
-  </si>
-  <si>
-    <t>Volvo XC60 T8 AWD R-Design -18</t>
-  </si>
-  <si>
-    <t>668 900 kr (535 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Kundtjänstmedarbetare till Contact Center Par</t>
-  </si>
-  <si>
-    <t>Sr. Manager Marketing Finance Controller to C</t>
-  </si>
-  <si>
-    <t>Seat Leon ST 1.2 TSI DSG Sekventiell Euro 6 1 -16</t>
-  </si>
-  <si>
-    <t>138 900 kr</t>
-  </si>
-  <si>
-    <t>Trågsoffa från Åmells</t>
-  </si>
-  <si>
-    <t>10 000 kr</t>
-  </si>
-  <si>
-    <t>Humleplantor för ölbryggning</t>
-  </si>
-  <si>
-    <t>60 kr</t>
-  </si>
-  <si>
-    <t>Renault Clio IV Energy TCe 90 Dynamique Sport -15</t>
-  </si>
-  <si>
-    <t>79 500 kr (63 600 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Kristallampa i fint skick</t>
-  </si>
-  <si>
-    <t>500 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen The Beetle 1.2 TSI Comfort, Vinter -12</t>
-  </si>
-  <si>
-    <t>88 500 kr</t>
-  </si>
-  <si>
-    <t>Nyskick fåtölj relax/solstol Calcutta Svart</t>
-  </si>
-  <si>
-    <t>328 900 kr (263 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Stort säkerhetsskåp/vapenskåp SS3492 elkodlås</t>
-  </si>
-  <si>
-    <t>6 750 kr</t>
-  </si>
-  <si>
-    <t>Soffbord Sven Larsson furu</t>
-  </si>
-  <si>
-    <t>Kap- och gersåg + sågbord</t>
-  </si>
-  <si>
-    <t>Ek hylla från Mio</t>
-  </si>
-  <si>
-    <t>400 kr</t>
-  </si>
-  <si>
-    <t>Spelbutik-Ombud för ATG, DHL PostNord- Bro</t>
-  </si>
-  <si>
-    <t>790 000 kr</t>
-  </si>
-  <si>
-    <t>Bal klänning</t>
-  </si>
-  <si>
-    <t>950 kr</t>
-  </si>
-  <si>
-    <t>Mercedes benz 230 Se</t>
-  </si>
-  <si>
-    <t>11 000 kr</t>
-  </si>
-  <si>
-    <t>Betongskruv/bult</t>
-  </si>
-  <si>
-    <t>Butikssäljare Deltid - Circle K Hässelby</t>
-  </si>
-  <si>
-    <t>Volvo V90 D5 AWD R-Design -17</t>
-  </si>
-  <si>
-    <t>409 900 kr (327 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Land Rover Discovery 3.0 TDV6 4WD HSE 7-SITS -12</t>
-  </si>
-  <si>
-    <t>249 900 kr</t>
-  </si>
-  <si>
-    <t>Butikssäljare Deltid - Circle K Råsunda</t>
-  </si>
-  <si>
-    <t>Dodge plåt Fartyg Helikopter Bogserbåt Ångbil</t>
-  </si>
-  <si>
-    <t>Barnmatstol</t>
-  </si>
-  <si>
-    <t>150 kr</t>
-  </si>
-  <si>
-    <t>Seat 16"tums Fälgar+sommardäck</t>
-  </si>
-  <si>
-    <t>Fromax bocknycklar</t>
-  </si>
-  <si>
-    <t>Garderob från Marmodal med förvaring</t>
-  </si>
-  <si>
-    <t>100 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz GLA 45 AMG 4M Performance Skals -16</t>
-  </si>
-  <si>
-    <t>449 000 kr</t>
-  </si>
-  <si>
-    <t>Kia Niro 1.6 PLUG-IN DCT6 ADVANCE PLUS 2 -18</t>
-  </si>
-  <si>
-    <t>279 900 kr</t>
-  </si>
-  <si>
-    <t>Dieselkraft trimbox till 170hk TDI motor</t>
-  </si>
-  <si>
-    <t>Matgrupp</t>
-  </si>
-  <si>
-    <t>Bröderna Andersson, soffa Andrew</t>
-  </si>
-  <si>
-    <t>6 000 kr</t>
-  </si>
-  <si>
-    <t>Bostadsvagn / Bovagn 80km/h Omg.lev - KAMPANJ</t>
-  </si>
-  <si>
-    <t>292 375 kr</t>
-  </si>
-  <si>
-    <t>SALOMON QST STELLA 106 (2018) + bindningar</t>
-  </si>
-  <si>
-    <t>4 199 kr</t>
-  </si>
-  <si>
-    <t>Bädd Soffa/ nyskick. Ink bärhjälp / 1490</t>
-  </si>
-  <si>
-    <t>1 490 kr</t>
-  </si>
-  <si>
-    <t>Toyota Prius 1.5 VVT-i + 3CM Auto Fullutrust -08</t>
-  </si>
-  <si>
-    <t>59 900 kr</t>
-  </si>
-  <si>
-    <t>Studiohögtalare KRK Rokit 5 (par)</t>
-  </si>
-  <si>
-    <t>Takfläkt</t>
-  </si>
-  <si>
-    <t>270 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz Sprinter 219 BlueTEC Panel Van -14</t>
-  </si>
-  <si>
-    <t>239 000 kr (191 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Klotgrill 55 cm - Ny/oöppnad</t>
-  </si>
-  <si>
-    <t>Yamaha MT 125 -18</t>
-  </si>
-  <si>
-    <t>45 000 kr</t>
-  </si>
-  <si>
-    <t>Nya aluminiumdörrar. Mycket hög kvalitet</t>
-  </si>
-  <si>
-    <t>6 860 kr</t>
-  </si>
-  <si>
-    <t>BMW 530 d Touring Steptronic 245hk -11</t>
-  </si>
-  <si>
-    <t>174 000 kr</t>
-  </si>
-  <si>
-    <t>11.5 Meter motorbåt. Bytes?</t>
-  </si>
-  <si>
-    <t>95 000 kr</t>
-  </si>
-  <si>
-    <t>Hockey final globen</t>
-  </si>
-  <si>
-    <t>Garderobsinredning från Kvik</t>
-  </si>
-  <si>
-    <t>1 800 kr</t>
-  </si>
-  <si>
-    <t>Avfuktare Mitsubishi</t>
-  </si>
-  <si>
-    <t>Bra kyl och frys</t>
-  </si>
-  <si>
-    <t>Adria Aviva 400 PS 2018</t>
-  </si>
-  <si>
-    <t>155 000 kr</t>
-  </si>
-  <si>
-    <t>Ford Focus CC 2.0 Duratec 145hk -07</t>
-  </si>
-  <si>
-    <t>64 900 kr</t>
-  </si>
-  <si>
-    <t>Mon amie koppar, skålar o pastatallrikar</t>
-  </si>
-  <si>
-    <t>Frisörer och butikschef till Headspot</t>
-  </si>
-  <si>
-    <t>Dell Optiplex 7010 - 16GB - SSD - Liten</t>
-  </si>
-  <si>
-    <t>3 790 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Golf GTI Performance 230hk 5dr Vär -15</t>
-  </si>
-  <si>
-    <t>209 000 kr</t>
-  </si>
-  <si>
-    <t>Rastvagn 6PR - Omg.lev Storsäljaren - 2019</t>
-  </si>
-  <si>
-    <t>141 150 kr</t>
-  </si>
-  <si>
-    <t>Spännande uppdrag åt Lantmännen i Södertälje</t>
-  </si>
-  <si>
-    <t>Planet X Full Carbon Fixed Gear FSE Hjul</t>
-  </si>
-  <si>
-    <t>9 800 kr</t>
-  </si>
-  <si>
-    <t>Kavat skor/ Bobux skor/ Mango väst</t>
-  </si>
-  <si>
-    <t>Toyota C-HR Toyota C-HR 1.2 AWD Aut Executive -17</t>
-  </si>
-  <si>
-    <t>229 000 kr</t>
-  </si>
-  <si>
-    <t>Handmålad kista i trä från 1946</t>
-  </si>
-  <si>
-    <t>19 Tum däck o fälg för Audi Q7</t>
-  </si>
-  <si>
-    <t>Carl Malmsten fåtölj</t>
-  </si>
-  <si>
-    <t>Abs fälgar</t>
-  </si>
-  <si>
-    <t>Förskolelärare/tidigarelärare till Karsby Int</t>
-  </si>
-  <si>
-    <t>Fordonsegenskapsansvarig repairability &amp; main</t>
-  </si>
-  <si>
-    <t>Volkswagen Transporter 2.0 TDI AUT KYL/FRYSBI -13</t>
+    <t>Möbler &amp; heminredning, Östergötland</t>
+  </si>
+  <si>
+    <t>Garderob</t>
+  </si>
+  <si>
+    <t>Sony NEX-7 - 24 megapixel resekamera</t>
+  </si>
+  <si>
+    <t>20" OZ Centrumbult Porsche 997</t>
+  </si>
+  <si>
+    <t>40 000 kr</t>
+  </si>
+  <si>
+    <t>1000 liters IBC tank</t>
+  </si>
+  <si>
+    <t>IKEA Fjällberget kontorsstol</t>
+  </si>
+  <si>
+    <t>Minidumper 4wd 5,5hk B&amp;S eller Honda</t>
+  </si>
+  <si>
+    <t>21 990 kr</t>
+  </si>
+  <si>
+    <t>BMW 645 Ci/Lågamil/Cab/333hk/2,22% Ränta -04</t>
   </si>
   <si>
     <t>189 900 kr</t>
   </si>
   <si>
-    <t>Mercedes-Benz V V 250 d Avantagarde / 8-Sits -18</t>
-  </si>
-  <si>
-    <t>474 900 kr (379 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Tv-bänk</t>
-  </si>
-  <si>
-    <t>Normann Copenhagen stolar</t>
-  </si>
-  <si>
-    <t>Grön skinnjacka Rockandblue</t>
-  </si>
-  <si>
-    <t>Säng 140 cm + bäddmadrass IKEA</t>
-  </si>
-  <si>
-    <t>Björkbacksvägen 83, Tyresö</t>
-  </si>
-  <si>
-    <t>2 295 000 kr</t>
-  </si>
-  <si>
-    <t>Helt ny Asus rog gtx980 kortet</t>
-  </si>
-  <si>
-    <t>Bugaboo Cameleon Barnvagn</t>
-  </si>
-  <si>
-    <t>Servicetekniker i tryckluftsbranschen</t>
-  </si>
-  <si>
-    <t>Runt vitt matbord</t>
-  </si>
-  <si>
-    <t>450 kr</t>
-  </si>
-  <si>
-    <t>? Statist - Extrajobb. 10 Maj sökes - Statist</t>
-  </si>
-  <si>
-    <t>Crescent Ran 24 tum</t>
-  </si>
-  <si>
-    <t>2 750 kr</t>
-  </si>
-  <si>
-    <t>Kommod med handfat</t>
-  </si>
-  <si>
-    <t>200 kr</t>
-  </si>
-  <si>
-    <t>Belle Rastvagn 4PE #Omg.lev - 2019</t>
-  </si>
-  <si>
-    <t>112 375 kr</t>
-  </si>
-  <si>
-    <t>Peugeot 407 SW 2.2 163hk Panorama -06</t>
-  </si>
-  <si>
-    <t>28 900 kr</t>
-  </si>
-  <si>
-    <t>Opel Astra Sports Tourer 1.4 Turbo 140hk -13</t>
-  </si>
-  <si>
-    <t>75 000 kr</t>
-  </si>
-  <si>
-    <t>LCD-TV 32 tum i gott skick</t>
-  </si>
-  <si>
-    <t>Vit Playstation Pro, 2 kontroller, 3 spel</t>
-  </si>
-  <si>
-    <t>BMW 520 d GT /Steptronic/ Euro 6 /184hk -14</t>
-  </si>
-  <si>
-    <t>Luftkylare/Kalluftsfläkt Tec Lime TAC-70</t>
-  </si>
-  <si>
-    <t>550 kr</t>
-  </si>
-  <si>
-    <t>Vacker, helt oanvänd diamantring "halo" -47%</t>
-  </si>
-  <si>
-    <t>15 900 kr</t>
-  </si>
-  <si>
-    <t>Dansare - Extrajobb. Karnevalsklädda statiste</t>
-  </si>
-  <si>
-    <t>Statist - Extrajobb. Statister till enkla tal</t>
-  </si>
-  <si>
-    <t>Frys NO FROST Rostfri</t>
-  </si>
-  <si>
-    <t>Statist - Extrajobb. Statister som olika kara</t>
-  </si>
-  <si>
-    <t>Söker lägenhet eller rum med egen entré</t>
-  </si>
-  <si>
-    <t>? Statist - Extrajobb. Statist som chaufför s</t>
-  </si>
-  <si>
-    <t>Uterum? Köp Sveriges rymligaste friggebod</t>
-  </si>
-  <si>
-    <t>195 000 kr</t>
-  </si>
-  <si>
-    <t>Wolfcraft master 200 arbetsbänk</t>
-  </si>
-  <si>
-    <t>Diskmaskin 60cm</t>
-  </si>
-  <si>
-    <t>Rosa sammetsstolar 6 st. Hemleverans möjlig</t>
-  </si>
-  <si>
-    <t>3 500 kr</t>
-  </si>
-  <si>
-    <t>Statist - Extrajobb. Uniformerade poliser sök</t>
-  </si>
-  <si>
-    <t>Byrån i framkant</t>
-  </si>
-  <si>
-    <t>Frys 155cm</t>
-  </si>
-  <si>
-    <t>Möbelgrupp vit Rotting</t>
-  </si>
-  <si>
-    <t>900 kr</t>
-  </si>
-  <si>
-    <t>Däckstol med dyna</t>
-  </si>
-  <si>
-    <t>Atletico madrid - juventus - 10/8 - biljetter</t>
-  </si>
-  <si>
-    <t>395 kr</t>
-  </si>
-  <si>
-    <t>Mazda 2 1,5 90hk Vision | Aut -18</t>
-  </si>
-  <si>
-    <t>149 000 kr (119 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Studentlitteratur / Kurslitteratur Nytt &amp; Beg</t>
-  </si>
-  <si>
-    <t>Fin möbel grupp av JOHANSON Design</t>
-  </si>
-  <si>
-    <t>8 000 kr</t>
-  </si>
-  <si>
-    <t>Hyundai i20 1.2 Premium -14</t>
-  </si>
-  <si>
-    <t>69 900 kr</t>
-  </si>
-  <si>
-    <t>Konkursanbud victorias blomsterbod ab</t>
-  </si>
-  <si>
-    <t>Nissan Qashqai+2 2.0 dCi 4x4 7-sits / NAV / P -09</t>
-  </si>
-  <si>
-    <t>79 000 kr</t>
-  </si>
-  <si>
-    <t>Respo släpvagn 1350 kg 3,70x1,85 m</t>
-  </si>
-  <si>
-    <t>29 595 kr</t>
-  </si>
-  <si>
-    <t>Lammpläd 50x90 cm - Rosa Nordal</t>
-  </si>
-  <si>
-    <t>Takbox</t>
-  </si>
-  <si>
-    <t>Ford Focus Combi 1.8 Duratec Flexifuel 125hk -07</t>
-  </si>
-  <si>
-    <t>19 800 kr</t>
-  </si>
-  <si>
-    <t>Persienner i trä</t>
-  </si>
-  <si>
-    <t>Släpvagn Benjamin 250x125x40</t>
-  </si>
-  <si>
-    <t>22 000 kr</t>
-  </si>
-  <si>
-    <t>Espressomaskin Phillips "SAECO MINUTO" HD8763</t>
-  </si>
-  <si>
-    <t>Barncykel 20 tum 600 kr</t>
-  </si>
-  <si>
-    <t>Kvalitets cykel</t>
-  </si>
-  <si>
-    <t>2 850 kr</t>
-  </si>
-  <si>
-    <t>Barnsängar</t>
-  </si>
-  <si>
-    <t>250 kr</t>
-  </si>
-  <si>
-    <t>NY trehjuling för vuxna 24" hjul med 6-växlar</t>
-  </si>
-  <si>
-    <t>6 200 kr</t>
-  </si>
-  <si>
-    <t>Skoda Superb Kombi 1.8 TSI Aut 160hk Dragkrok -11</t>
-  </si>
-  <si>
-    <t>99 900 kr</t>
-  </si>
-  <si>
-    <t>Bianchi Via Nirone 7</t>
-  </si>
-  <si>
-    <t>Barock bord</t>
-  </si>
-  <si>
-    <t>2 st Höj &amp; Sänkbara bord 160*80 Vit Skiva</t>
-  </si>
-  <si>
-    <t>Vagga Troll</t>
+    <t>Chevrolet Camaro SS 6.2 V8 Automat 405hk -14</t>
+  </si>
+  <si>
+    <t>229 900 kr</t>
+  </si>
+  <si>
+    <t>Citroën Jumpy Van 2.0 HDi Automat Värmare Dra -16</t>
+  </si>
+  <si>
+    <t>149 900 kr (119 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>ButikBilar, Södermanland</t>
+  </si>
+  <si>
+    <t>Harley-Davidson Street 750 -18</t>
+  </si>
+  <si>
+    <t>73 020 kr</t>
+  </si>
+  <si>
+    <t>Audi A6 Allroad Quattro 3.0 TDI/ D-VÄRM/ DRAG -14</t>
+  </si>
+  <si>
+    <t>189 000 kr</t>
+  </si>
+  <si>
+    <t>Kia Niro 1.6 Hybrid Advance Plus 1 -19</t>
+  </si>
+  <si>
+    <t>240 800 kr</t>
+  </si>
+  <si>
+    <t>Solifer Artic 500 -88</t>
+  </si>
+  <si>
+    <t>29 500 kr</t>
+  </si>
+  <si>
+    <t>ButikHusvagnar &amp; husbilar, Örebro</t>
+  </si>
+  <si>
+    <t>Renault Trafic Trafic Limited Edition L2H1 14 -18</t>
+  </si>
+  <si>
+    <t>287 375 kr (229 900 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Kawasaki kx 60 cc -02</t>
+  </si>
+  <si>
+    <t>Luftvärmepumpar NYTT/BEGAGNAT /inbyten</t>
+  </si>
+  <si>
+    <t>6 995 kr</t>
   </si>
 </sst>
 </file>
@@ -1358,1995 +1745,1995 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="B130" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>325</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="B142" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>348</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="B150" t="s">
         <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>391</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B171" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="B173" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>401</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="B179" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="B180" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="B182" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>295</v>
+        <v>416</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>417</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3354,189 +3741,189 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="B187" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="B189" t="s">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="B190" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>305</v>
+        <v>427</v>
       </c>
       <c r="B191" t="s">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>307</v>
+        <v>429</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>430</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="B193" t="s">
-        <v>145</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="B194" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>435</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="B195" t="s">
-        <v>312</v>
+        <v>437</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>313</v>
+        <v>438</v>
       </c>
       <c r="B196" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="B197" t="s">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>320</v>
+        <v>448</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="C201" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/web-scraping/blocket_data.xlsx
+++ b/web-scraping/blocket_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="403">
   <si>
     <t>Title</t>
   </si>
@@ -28,73 +28,1153 @@
     <t>Region</t>
   </si>
   <si>
+    <t>Fender Stratocaster USA 1975 Obs 12500kr</t>
+  </si>
+  <si>
+    <t>12 500 kr</t>
+  </si>
+  <si>
+    <t>Musikutrustning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalarna</t>
+  </si>
+  <si>
+    <t>ORRSKÄR 850-85 AD41P Diesel DP290 Bogpropp</t>
+  </si>
+  <si>
+    <t>295 000 kr</t>
+  </si>
+  <si>
+    <t>Båtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stockholm</t>
+  </si>
+  <si>
+    <t>Daewoo Tacuma 1.6 -03</t>
+  </si>
+  <si>
+    <t>9 500 kr</t>
+  </si>
+  <si>
+    <t>Bilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gävleborg</t>
+  </si>
+  <si>
+    <t>Åskärrsvägen 5 B, Stråvalla</t>
+  </si>
+  <si>
+    <t>2 475 000 kr</t>
+  </si>
+  <si>
+    <t>Lägenheter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halland</t>
+  </si>
+  <si>
+    <t>Honda FJS 600 Silverwing *Fri hemlev* -07</t>
+  </si>
+  <si>
+    <t>44 900 kr</t>
+  </si>
+  <si>
+    <t>Motorcyklar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västerbotten</t>
+  </si>
+  <si>
+    <t>Volvo V60 MOMMENTUM D3 MANUELL SKINN 150 HK S -16</t>
+  </si>
+  <si>
+    <t>179 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malmö</t>
+  </si>
+  <si>
+    <t>Uttern 5750C - 96</t>
+  </si>
+  <si>
+    <t>125 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gällivare</t>
+  </si>
+  <si>
+    <t>Båtmotor suzuki dt 400 25hk</t>
+  </si>
+  <si>
+    <t>2 500 kr</t>
+  </si>
+  <si>
+    <t>Båtdelar &amp; tillbehör</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz E 500 Cabriolet 7G-Tronic AMG 3 -10</t>
+  </si>
+  <si>
+    <t>349 000 kr</t>
+  </si>
+  <si>
+    <t>Safari Bar - Till campen, bryggan, verandan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jakt &amp; fiske</t>
+  </si>
+  <si>
+    <t>ButikJakt &amp; fiske</t>
+  </si>
+  <si>
+    <t>Massor av fiske till rätt pris</t>
+  </si>
+  <si>
+    <t>Boghammar Magnum 35 Volvo D6 2004</t>
+  </si>
+  <si>
+    <t>750 000 kr</t>
+  </si>
+  <si>
+    <t>Cykel Nishiki hybrid 2013</t>
+  </si>
+  <si>
+    <t>1 800 kr</t>
+  </si>
+  <si>
+    <t>Cyklar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Östergötland</t>
+  </si>
+  <si>
+    <t>Brenderup kåpsläp</t>
+  </si>
+  <si>
+    <t>20 000 kr</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västernorrland</t>
+  </si>
+  <si>
+    <t>Gasolgrill</t>
+  </si>
+  <si>
+    <t>700 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jönköping</t>
+  </si>
+  <si>
+    <t>Honda 500 foreman -17</t>
+  </si>
+  <si>
+    <t>108 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Älvsborg</t>
+  </si>
+  <si>
+    <t>50 rader 210 kW Plattvärmeväxlare</t>
+  </si>
+  <si>
+    <t>2 090 kr</t>
+  </si>
+  <si>
+    <t>ButikBygg &amp; trädgård</t>
+  </si>
+  <si>
+    <t>Förtält Isabella FORUM färg Tweed/Skybl</t>
+  </si>
+  <si>
+    <t>4 000 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar</t>
+  </si>
+  <si>
+    <t>Lynx Xtrim SC 900 ACE -15</t>
+  </si>
+  <si>
+    <t>84 900 kr</t>
+  </si>
+  <si>
+    <t>Snöskotrar</t>
+  </si>
+  <si>
+    <t>Honda Shadow VT 600 Pc21 "Bobber" -88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trelleborg</t>
+  </si>
+  <si>
+    <t>Alaskan huskies</t>
+  </si>
+  <si>
+    <t>3 000 kr</t>
+  </si>
+  <si>
+    <t>Djur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Överkalix</t>
+  </si>
+  <si>
+    <t>Högboda Älvås 1, Kil</t>
+  </si>
+  <si>
+    <t>450 000 kr</t>
+  </si>
+  <si>
+    <t>Villor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Värmland</t>
+  </si>
+  <si>
+    <t>Kia Optima SW 1.7 CRDI GT-LINE Värmare V-hjul -17</t>
+  </si>
+  <si>
+    <t>234 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Örebro</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo 1,2 TSI 90 MASTERS PAKET 3156 -17</t>
+  </si>
+  <si>
+    <t>114 900 kr</t>
+  </si>
+  <si>
+    <t>Fågelbur voljär av trä</t>
+  </si>
+  <si>
+    <t>1 490 kr</t>
+  </si>
+  <si>
+    <t>ButikDjur</t>
+  </si>
+  <si>
+    <t>Domarvägen 14, Huddinge</t>
+  </si>
+  <si>
+    <t>Älgjakt Jämtland V.37 2019</t>
+  </si>
+  <si>
+    <t>11 650 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skaraborg</t>
+  </si>
+  <si>
+    <t>Nissan Micra IG-T 90 Acenta Comfort Pack -18</t>
+  </si>
+  <si>
+    <t>129 900 kr (103 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blekinge</t>
+  </si>
+  <si>
+    <t>Caravanstore Fiamma 360 komplett m väggar</t>
+  </si>
+  <si>
+    <t>3 500 kr</t>
+  </si>
+  <si>
+    <t>Måste bort innan 25/4</t>
+  </si>
+  <si>
+    <t>1 200 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Södermanland</t>
+  </si>
+  <si>
+    <t>Stubbfräs 15HK SF-13 hammarlack fri frakt -19</t>
+  </si>
+  <si>
+    <t>18 990 kr (15 192 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Skogs- &amp; lantbruksmaskiner</t>
+  </si>
+  <si>
+    <t>ButikSkogs- &amp; lantbruksmaskiner</t>
+  </si>
+  <si>
+    <t>Polar armbands ur M600</t>
+  </si>
+  <si>
+    <t>Sport &amp; fritid</t>
+  </si>
+  <si>
+    <t>BMW 320 Sedan automat -10</t>
+  </si>
+  <si>
+    <t>110 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västmanland</t>
+  </si>
+  <si>
+    <t>Ugnssäkra formar, pajformar,tallrikar, muggar</t>
+  </si>
+  <si>
+    <t>180 kr</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror</t>
+  </si>
+  <si>
+    <t>Kap och gearsåg</t>
+  </si>
+  <si>
+    <t>800 kr</t>
+  </si>
+  <si>
+    <t>Verktyg</t>
+  </si>
+  <si>
+    <t>Golf, greenlagare</t>
+  </si>
+  <si>
+    <t>600 kr</t>
+  </si>
+  <si>
+    <t>Åketorpsgatan 8, Göteborgs stad</t>
+  </si>
+  <si>
+    <t>4 975 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Göteborg</t>
+  </si>
+  <si>
+    <t>Volvo V60 D4 SUMMUM EU6 181hk NAVI VOC -15</t>
+  </si>
+  <si>
+    <t>179 800 kr (143 840 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Volkswagen Caddy Panel Van 1.6 TDI -15</t>
+  </si>
+  <si>
+    <t>74 900 kr</t>
+  </si>
+  <si>
+    <t>Skepparegatan 40, Norrköping</t>
+  </si>
+  <si>
+    <t>1 695 000 kr</t>
+  </si>
+  <si>
+    <t>Kymco Kymco Agility City 16+ 125i</t>
+  </si>
+  <si>
+    <t>24 995 kr</t>
+  </si>
+  <si>
+    <t>Mopeder &amp; A-traktor</t>
+  </si>
+  <si>
+    <t>Audi A1 Sportback 1.4 TFSI Pro Line Euro 6 12 -17</t>
+  </si>
+  <si>
+    <t>148 900 kr (119 120 kr ex. moms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uppsala</t>
+  </si>
+  <si>
+    <t>Kia Picanto 1.2 AUT Advance Plus/Motorvärmare -18</t>
+  </si>
+  <si>
+    <t>124 900 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Passat Variant 1.4 TSI EcoFuel Pre -14</t>
+  </si>
+  <si>
+    <t>104 000 kr</t>
+  </si>
+  <si>
+    <t>Triumph Speed Triple S -18</t>
+  </si>
+  <si>
+    <t>143 500 kr</t>
+  </si>
+  <si>
+    <t>Bestå tv bänk</t>
+  </si>
+  <si>
+    <t>100 kr</t>
+  </si>
+  <si>
+    <t>Tvåmanskajak för hela familjen</t>
+  </si>
+  <si>
+    <t>7 990 kr</t>
+  </si>
+  <si>
+    <t>Sjökort Garmin Bluechart G3</t>
+  </si>
+  <si>
+    <t>Fin heminredning och belysning</t>
+  </si>
+  <si>
+    <t>1 500 kr</t>
+  </si>
+  <si>
+    <t>Babybjörn bärsele miracle och one</t>
+  </si>
+  <si>
+    <t>350 kr</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker</t>
+  </si>
+  <si>
+    <t>Flishugg / Flistugg ES-1500E 15HK</t>
+  </si>
+  <si>
+    <t>22 500 kr</t>
+  </si>
+  <si>
+    <t>Balkongdörr</t>
+  </si>
+  <si>
+    <t>300 kr</t>
+  </si>
+  <si>
+    <t>Golfset dam med vagn</t>
+  </si>
+  <si>
+    <t>400 kr</t>
+  </si>
+  <si>
+    <t>Swedish House Mafia 4/5 2st sittplatser</t>
+  </si>
+  <si>
+    <t>Biljetter</t>
+  </si>
+  <si>
+    <t>Tahiti soffgrupp* DU SPRARA 2 005KR</t>
+  </si>
+  <si>
+    <t>6 995 kr</t>
+  </si>
+  <si>
+    <t>Cybex Balios S</t>
+  </si>
+  <si>
+    <t>Yamaha Virago 750 -96</t>
+  </si>
+  <si>
+    <t>16 000 kr</t>
+  </si>
+  <si>
+    <t>Tripp trapp</t>
+  </si>
+  <si>
+    <t>Däck 255/45-R19</t>
+  </si>
+  <si>
+    <t>Volvo s80 -99</t>
+  </si>
+  <si>
+    <t>Långved Björk-Sälg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boden</t>
+  </si>
+  <si>
+    <t>Toyota MR2 GT-S -94</t>
+  </si>
+  <si>
+    <t>75 000 kr</t>
+  </si>
+  <si>
+    <t>Suzuki intruder 800cc -93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piteå</t>
+  </si>
+  <si>
+    <t>Kia Optima Sport Wagon GT-Line/V-hjul -17</t>
+  </si>
+  <si>
+    <t>224 900 kr</t>
+  </si>
+  <si>
+    <t>Subaru XV 1.6i Ridge 4WD Lineartronic Euro 6 -18</t>
+  </si>
+  <si>
+    <t>284 500 kr</t>
+  </si>
+  <si>
+    <t>Audi A4 2,0 Tdi,S-line,Navi,Värmare -15</t>
+  </si>
+  <si>
+    <t>139 500 kr</t>
+  </si>
+  <si>
+    <t>BMW 520 d Aut xDrive Touring M-Sport / Värmar -19</t>
+  </si>
+  <si>
+    <t>449 000 kr (359 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SödermanlandBMW Premium Selection</t>
+  </si>
+  <si>
+    <t>Volvo S60 D2 Kinetic 115hk Värmare Drag 1 Års -15</t>
+  </si>
+  <si>
+    <t>138 000 kr</t>
+  </si>
+  <si>
+    <t>Lexus RX 450h Comfort/ Backkamera/ Navigation -10</t>
+  </si>
+  <si>
+    <t>159 000 kr</t>
+  </si>
+  <si>
+    <t>Honda Deauville obs endast 900 mil -98</t>
+  </si>
+  <si>
+    <t>19 000 kr</t>
+  </si>
+  <si>
+    <t>Café bord Stockholm bolinders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kronoberg</t>
+  </si>
+  <si>
+    <t>Dubbel hopfällbar rullstolramp 152.5x72x5 cm</t>
+  </si>
+  <si>
+    <t>1 695 kr</t>
+  </si>
+  <si>
+    <t>Stenmjöl, Basaltmjöl för odling</t>
+  </si>
+  <si>
+    <t>595 kr</t>
+  </si>
+  <si>
+    <t>Vägglampa Borens 1980:tal</t>
+  </si>
+  <si>
+    <t>500 kr</t>
+  </si>
+  <si>
+    <t>Huskomplex Jockfall</t>
+  </si>
+  <si>
+    <t>390 000 kr</t>
+  </si>
+  <si>
+    <t>Gula muggar från Gustavsberg</t>
+  </si>
+  <si>
+    <t>200 kr</t>
+  </si>
+  <si>
+    <t>Mac Pro 3,7 GHz QC - 32 gb RAM</t>
+  </si>
+  <si>
+    <t>16 500 kr</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel</t>
+  </si>
+  <si>
+    <t>Chevrolet Van Explorer AWD Fullutr 1Ägare -08</t>
+  </si>
+  <si>
+    <t>89 900 kr</t>
+  </si>
+  <si>
+    <t>Torkade renskinn</t>
+  </si>
+  <si>
+    <t>Hösilage ekologisk</t>
+  </si>
+  <si>
+    <t>925 kr</t>
+  </si>
+  <si>
+    <t>Hästar &amp; ridsport</t>
+  </si>
+  <si>
+    <t>Mio Golvlampa</t>
+  </si>
+  <si>
+    <t>Fräsch eldriven gräsklippare</t>
+  </si>
+  <si>
+    <t>Taklampa</t>
+  </si>
+  <si>
+    <t>Däck Volvo 850/V70 -98</t>
+  </si>
+  <si>
+    <t>Husky R7 / FETX200 / 2017 / Fullmatad</t>
+  </si>
+  <si>
+    <t>455 000 kr</t>
+  </si>
+  <si>
+    <t>Härnösandsgatan D1102, Ängelholm</t>
+  </si>
+  <si>
+    <t>1 135 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ängelholm</t>
+  </si>
+  <si>
+    <t>Toyota Yaris 3-dörrar (10000Mil) Ny Bes -99</t>
+  </si>
+  <si>
+    <t>19 900 kr</t>
+  </si>
+  <si>
+    <t>Suzuki Vitara 1.0T AllGrip 4X4 Automat -19</t>
+  </si>
+  <si>
+    <t>229 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jämtland</t>
+  </si>
+  <si>
+    <t>Flormansgatan 8, Lund</t>
+  </si>
+  <si>
+    <t>1 125 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lund</t>
+  </si>
+  <si>
+    <t>Seat Leon 1.5 TSI Euro 6 130hk -19</t>
+  </si>
+  <si>
+    <t>217 000 kr</t>
+  </si>
+  <si>
+    <t>Bmw f850gs -19</t>
+  </si>
+  <si>
+    <t>120 995 kr</t>
+  </si>
+  <si>
+    <t>Ungdomsbåt Cyber Hurricane 370-07</t>
+  </si>
+  <si>
+    <t>26 000 kr</t>
+  </si>
+  <si>
+    <t>Volvo S40 2.0T 12.100 mil -00</t>
+  </si>
+  <si>
+    <t>29 000 kr</t>
+  </si>
+  <si>
+    <t>Installera din Luftvärmepump med KYLA /VÄRME</t>
+  </si>
+  <si>
+    <t>12 995 kr</t>
+  </si>
+  <si>
+    <t>Fiat 500C CAB 1.2 69hk -12</t>
+  </si>
+  <si>
+    <t>68 000 kr</t>
+  </si>
+  <si>
+    <t>Soffa från Bröderna Andersson - Hög kvalité</t>
+  </si>
+  <si>
+    <t>1 700 kr</t>
+  </si>
+  <si>
+    <t>Brio Go -14</t>
+  </si>
+  <si>
+    <t>Laga din mobil (batteribyte,skärmbyte)</t>
+  </si>
+  <si>
+    <t>Tjänster</t>
+  </si>
+  <si>
+    <t>Bsa c11 1953 -80</t>
+  </si>
+  <si>
+    <t>21 500 kr</t>
+  </si>
+  <si>
+    <t>Försäljningsvagn/Torgvagn</t>
+  </si>
+  <si>
+    <t>49 000 kr</t>
+  </si>
+  <si>
+    <t>Inventarier &amp; maskiner</t>
+  </si>
+  <si>
+    <t>Sir William str 6,5</t>
+  </si>
+  <si>
+    <t>Kläder &amp; skor</t>
+  </si>
+  <si>
+    <t>Rikt/planhyvel</t>
+  </si>
+  <si>
+    <t>Dyna lowrider jubileumsmodell -03</t>
+  </si>
+  <si>
+    <t>89 000 kr</t>
+  </si>
+  <si>
+    <t>Tröjor och byxa</t>
+  </si>
+  <si>
+    <t>50 kr</t>
+  </si>
+  <si>
+    <t>Barnkläder &amp; skor</t>
+  </si>
+  <si>
+    <t>IPhone 8 Vit 64gb</t>
+  </si>
+  <si>
+    <t>4 500 kr</t>
+  </si>
+  <si>
+    <t>Telefoner &amp; tillbehör</t>
+  </si>
+  <si>
+    <t>Fiat 980 dt 4wd -83</t>
+  </si>
+  <si>
+    <t>87 500 kr</t>
+  </si>
+  <si>
+    <t>Samsunf Galaxy Watch 46mm Silver</t>
+  </si>
+  <si>
+    <t>2 800 kr</t>
+  </si>
+  <si>
+    <t>Accessoarer &amp; klockor</t>
+  </si>
+  <si>
+    <t>Gunghäst</t>
+  </si>
+  <si>
+    <t>Kamux söker en ny säljande butikschef till Ka</t>
+  </si>
+  <si>
+    <t>Försäljning</t>
+  </si>
+  <si>
+    <t>Suzuki SX4 S-Cross 1.6 VVT i-AWD GLX 120hk -14</t>
+  </si>
+  <si>
+    <t>129 900 kr</t>
+  </si>
+  <si>
+    <t>Toyota RAV4 2,5 Elhybrid AWD X Edition Drag V -18</t>
+  </si>
+  <si>
+    <t>339 900 kr</t>
+  </si>
+  <si>
+    <t>2 Flyglar säljes</t>
+  </si>
+  <si>
+    <t>Tavla 90*90</t>
+  </si>
+  <si>
+    <t>1 400 kr</t>
+  </si>
+  <si>
+    <t>Jelling soffbord* KOM IN OCH SE I BUTIK</t>
+  </si>
+  <si>
+    <t>3 095 kr</t>
+  </si>
+  <si>
+    <t>Kampanj Badrum</t>
+  </si>
+  <si>
+    <t>Diskbänk</t>
+  </si>
+  <si>
+    <t>Barbord med stolar</t>
+  </si>
+  <si>
+    <t>Nissan X-Trail DIG-T 163 Tekna Moonroof -18</t>
+  </si>
+  <si>
+    <t>269 900 kr (215 920 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>TV Toshiba LCD TV 32 tum</t>
+  </si>
+  <si>
+    <t>900 kr</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild</t>
+  </si>
+  <si>
+    <t>Hyundai Atos lågmilare toppskick -05</t>
+  </si>
+  <si>
+    <t>14 000 kr</t>
+  </si>
+  <si>
+    <t>Sommardäck på fälg</t>
+  </si>
+  <si>
+    <t>Hydrauliska pallgafflar och adapter</t>
+  </si>
+  <si>
+    <t>Lastbil, truck &amp; entreprenad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luleå</t>
+  </si>
+  <si>
+    <t>Taklampor</t>
+  </si>
+  <si>
+    <t>288 kr</t>
+  </si>
+  <si>
+    <t>Rullarkiv 3st</t>
+  </si>
+  <si>
+    <t>2 000 kr</t>
+  </si>
+  <si>
+    <t>IKEA Växasäng Minnen</t>
+  </si>
+  <si>
+    <t>450 kr</t>
+  </si>
+  <si>
+    <t>Husqvarna inbyggnadsugn</t>
+  </si>
+  <si>
+    <t>IPhone 4,5,6,7,8,X - Chip n Play/ Backaplan</t>
+  </si>
+  <si>
+    <t>Kakel</t>
+  </si>
+  <si>
+    <t>JENSEN, Ställbara sängbottnar</t>
+  </si>
+  <si>
+    <t>Kia Cee´d 1.6 CRDi Automat Panorama* GPS* V-H -14</t>
+  </si>
+  <si>
+    <t>134 900 kr</t>
+  </si>
+  <si>
+    <t>Harley-Davidson XL1200CA 30 mil *Fri hemlev* -16</t>
+  </si>
+  <si>
+    <t>Saab 9-5 SportCombi 2.0 T Aut Linear 150hk -04</t>
+  </si>
+  <si>
+    <t>8 500 kr</t>
+  </si>
+  <si>
+    <t>Fantastiskt hus med pool</t>
+  </si>
+  <si>
+    <t>1 768 909 kr</t>
+  </si>
+  <si>
+    <t>Utland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spanien</t>
+  </si>
+  <si>
+    <t>Audi A3 Sportback 2.0 FSI Automat 150hk -06</t>
+  </si>
+  <si>
+    <t>49 900 kr</t>
+  </si>
+  <si>
+    <t>Junior nätverkstekniker sökes</t>
+  </si>
+  <si>
+    <t>Data &amp; IT</t>
+  </si>
+  <si>
+    <t>4 duvblå fåtöljer i skinn</t>
+  </si>
+  <si>
+    <t>5 000 kr</t>
+  </si>
+  <si>
+    <t>Iphone 6 16gb</t>
+  </si>
+  <si>
+    <t>HD sryre</t>
+  </si>
+  <si>
+    <t>MC-delar &amp; tillbehör</t>
+  </si>
+  <si>
+    <t>Acne Drihanna str 40</t>
+  </si>
+  <si>
+    <t>2 200 kr</t>
+  </si>
+  <si>
+    <t>Fin bokhylla</t>
+  </si>
+  <si>
+    <t>250 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotland</t>
+  </si>
+  <si>
+    <t>Två stycken Fluke 177 Multimeter</t>
+  </si>
+  <si>
+    <t>Bilbarnstol</t>
+  </si>
+  <si>
+    <t>Soffbord i vitt med massiva ekben</t>
+  </si>
+  <si>
+    <t>Hekla Pimpsten från Island</t>
+  </si>
+  <si>
+    <t>Gasoltub</t>
+  </si>
+  <si>
+    <t>Höganäs glasmosaik ljusbrun golden line 10.5m</t>
+  </si>
+  <si>
+    <t>2 600 kr</t>
+  </si>
+  <si>
+    <t>Oanvända Brogrens däckstolar, 2st</t>
+  </si>
+  <si>
+    <t>Grå 3-sits soffa Wave</t>
+  </si>
+  <si>
+    <t>Spelkulor</t>
+  </si>
+  <si>
+    <t>199 kr</t>
+  </si>
+  <si>
+    <t>Hobby &amp; samlarprylar</t>
+  </si>
+  <si>
+    <t>Torkvinda aluminium 40 meter</t>
+  </si>
+  <si>
+    <t>695 kr</t>
+  </si>
+  <si>
+    <t>Volvo V70 T4 automat dragkrok -14</t>
+  </si>
+  <si>
+    <t>183 000 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Amarok BITDI 4WD -11</t>
+  </si>
+  <si>
+    <t>146 250 kr (117 000 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Blackstar HT-1RH Topp med låda</t>
+  </si>
+  <si>
+    <t>3 299 kr</t>
+  </si>
+  <si>
+    <t>Suzuki 9,9 två-takt</t>
+  </si>
+  <si>
+    <t>Honda CBR 600 F -00</t>
+  </si>
+  <si>
+    <t>23 000 kr</t>
+  </si>
+  <si>
+    <t>Vit Sänggavel Mio</t>
+  </si>
+  <si>
+    <t>3 Sits bäddsoffa med divan</t>
+  </si>
+  <si>
+    <t>Peugeot 206 3-dörrar 2.0 GTi 136hk Lågmil -03</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz GLC 220 d 4MATIC 9G-Tronic AMG -17</t>
+  </si>
+  <si>
+    <t>329 000 kr (263 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kalmar</t>
+  </si>
+  <si>
+    <t>Titan R4 BLÅ NY MODERN MOPEDBIL</t>
+  </si>
+  <si>
+    <t>Honda CR-V 2.0 i-VTEC 4WD/ DRAG / M-VÄRM -08</t>
+  </si>
+  <si>
+    <t>109 900 kr</t>
+  </si>
+  <si>
+    <t>Renault Master 2.5 dCi 120hk -08</t>
+  </si>
+  <si>
+    <t>Fin lägenhet med pool</t>
+  </si>
+  <si>
+    <t>1 728 365 kr</t>
+  </si>
+  <si>
+    <t>Graco bilstol framåtvänd toppskick</t>
+  </si>
+  <si>
+    <t>Mio 3 sits soffa Eden</t>
+  </si>
+  <si>
+    <t>Ljuskrona</t>
+  </si>
+  <si>
+    <t>Barnsäng</t>
+  </si>
+  <si>
+    <t>KAMPANJ JAC Eltruck 1800kg -19</t>
+  </si>
+  <si>
+    <t>Byggställning Sigma 70p stål</t>
+  </si>
+  <si>
+    <t>120 000 kr</t>
+  </si>
+  <si>
+    <t>Belos 222 + 252 + 284 samt tillbehör &amp; padda</t>
+  </si>
+  <si>
+    <t>Marknadsställning</t>
+  </si>
+  <si>
+    <t>1 000 kr</t>
+  </si>
+  <si>
+    <t>Biljetter till SHM bortvräkes</t>
+  </si>
+  <si>
+    <t>Britax Römer isofix</t>
+  </si>
+  <si>
+    <t>570 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helsingborg</t>
+  </si>
+  <si>
+    <t>Alterna isella kommo 50 vit komp h1</t>
+  </si>
+  <si>
+    <t>Beg Sommarhjul Passat</t>
+  </si>
+  <si>
+    <t>8 000 kr</t>
+  </si>
+  <si>
+    <t>Herrcykel</t>
+  </si>
+  <si>
+    <t>Poolskydd, barnsäkert</t>
+  </si>
+  <si>
+    <t>Räcke till balkong, balustrad och altan</t>
+  </si>
+  <si>
+    <t>Bygg och renovering</t>
+  </si>
+  <si>
+    <t>Peugeot Fälgar 16 tum</t>
+  </si>
+  <si>
+    <t>Säljare med eller utan erfarenhet. Lön 24 500</t>
+  </si>
+  <si>
     <t>Härnösandsgatan E1103, Ängelholm</t>
   </si>
   <si>
     <t>1 385 000 kr</t>
   </si>
   <si>
-    <t>Lägenheter</t>
-  </si>
-  <si>
-    <t>MäklareLägenheter, Ängelholm</t>
-  </si>
-  <si>
     <t>Ford Mustang GT 4.6 V8 Aut 304hk -05</t>
   </si>
   <si>
-    <t>179 900 kr</t>
-  </si>
-  <si>
-    <t>Bilar</t>
-  </si>
-  <si>
-    <t>ButikBilar, Stockholm</t>
-  </si>
-  <si>
     <t>Kymco Kymco Agility City 16+ 50i</t>
   </si>
   <si>
     <t>23 995 kr</t>
   </si>
   <si>
-    <t>Mopeder &amp; A-traktor</t>
-  </si>
-  <si>
-    <t>ButikMopeder &amp; A-traktor, Stockholm</t>
-  </si>
-  <si>
     <t>BMW X3 xDrive 20d Steptronic -16</t>
   </si>
   <si>
     <t>279 000 kr (223 200 kr ex. moms)</t>
   </si>
   <si>
-    <t>ButikBilar, HallandBMW Premium Selection</t>
+    <t xml:space="preserve"> HallandBMW Premium Selection</t>
   </si>
   <si>
     <t>Skinnjacka Jofama by KENZA</t>
   </si>
   <si>
-    <t>1 000 kr</t>
-  </si>
-  <si>
-    <t>Kläder &amp; skor</t>
-  </si>
-  <si>
-    <t>Kläder &amp; skor, Kronoberg</t>
-  </si>
-  <si>
     <t>Data skärm</t>
   </si>
   <si>
-    <t>500 kr</t>
-  </si>
-  <si>
-    <t>Datorer &amp; TV-spel</t>
-  </si>
-  <si>
-    <t>Datorer &amp; TV-spel, Dalarna</t>
+    <t>Marknadsadministratör</t>
+  </si>
+  <si>
+    <t>Marknadsföring</t>
   </si>
   <si>
     <t>Sonor Giant Step Dubbelpedal</t>
@@ -103,1408 +1183,46 @@
     <t>7 000 kr</t>
   </si>
   <si>
-    <t>Musikutrustning</t>
-  </si>
-  <si>
-    <t>Musikutrustning, Södermanland</t>
-  </si>
-  <si>
     <t>Bra speldator med 144hz skärm</t>
   </si>
   <si>
-    <t>8 000 kr</t>
-  </si>
-  <si>
-    <t>Datorer &amp; TV-spel, Östergötland</t>
-  </si>
-  <si>
     <t>Vitrinskåp , matbord och 4 stolar i björk</t>
   </si>
   <si>
     <t>1 600 kr</t>
   </si>
   <si>
-    <t>Möbler &amp; heminredning</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Jönköping</t>
-  </si>
-  <si>
     <t>Artwood, outlet, fåtölj, matstol, sänggavel</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ButikMöbler &amp; heminredning, Göteborg</t>
-  </si>
-  <si>
     <t>Shimano cykelsko mtb strl 41</t>
   </si>
   <si>
-    <t>Cyklar</t>
-  </si>
-  <si>
-    <t>Cyklar, Halland</t>
-  </si>
-  <si>
     <t>"Bumling" Golvlampa, Ateljé Lyktan, 1900-tal</t>
   </si>
   <si>
     <t>1 900 kr</t>
   </si>
   <si>
-    <t>Möbler &amp; heminredning, Stockholm</t>
+    <t>Finsktalande kundserviceagent på distans till</t>
+  </si>
+  <si>
+    <t>Service &amp; kundtjänst</t>
   </si>
   <si>
     <t>Grythyttan</t>
   </si>
   <si>
-    <t>8 500 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Älvsborg</t>
-  </si>
-  <si>
     <t>BMW 530 d Aut xDrive Touring M-Sport / Innova -18</t>
   </si>
   <si>
     <t>589 000 kr (471 200 kr ex. moms)</t>
   </si>
   <si>
-    <t>ButikBilar, SödermanlandBMW Premium Selection</t>
-  </si>
-  <si>
     <t>BMW M3 Cab Drivelogic Nybes Nyserv -08</t>
   </si>
   <si>
-    <t>239 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Helsingborg</t>
-  </si>
-  <si>
-    <t>Toyota Avensis 2.0 Automat 147hk Superfin -06</t>
-  </si>
-  <si>
-    <t>39 900 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Västerbotten</t>
-  </si>
-  <si>
-    <t>Bmw g310gs -19</t>
-  </si>
-  <si>
-    <t>62 625 kr</t>
-  </si>
-  <si>
-    <t>Motorcyklar</t>
-  </si>
-  <si>
-    <t>ButikMotorcyklar, Västerbotten</t>
-  </si>
-  <si>
-    <t>Kia Rio 1.0 T-GDi AUT DCT ADVANCE PLUS -19</t>
-  </si>
-  <si>
-    <t>159 000 kr</t>
-  </si>
-  <si>
-    <t>Förråd - Snabb leverans - Räntefri avb</t>
-  </si>
-  <si>
-    <t>40 500 kr</t>
-  </si>
-  <si>
-    <t>ButikBygg &amp; trädgård</t>
-  </si>
-  <si>
-    <t>Marantz 2270 Receiver - Stereo</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild, Stockholm</t>
-  </si>
-  <si>
-    <t>Bag, Vagn, Järn set, Wedge, Putter</t>
-  </si>
-  <si>
-    <t>Sport &amp; fritid</t>
-  </si>
-  <si>
-    <t>Sport &amp; fritid, Stockholm</t>
-  </si>
-  <si>
-    <t>Fina gamla LÅDOR, backar korgar för förvaring</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Göteborg</t>
-  </si>
-  <si>
-    <t>Westernsadel, sadelväskor, träns, sporrar mm</t>
-  </si>
-  <si>
-    <t>5 900 kr</t>
-  </si>
-  <si>
-    <t>Hästar &amp; ridsport</t>
-  </si>
-  <si>
-    <t>Hästar &amp; ridsport, Jönköping</t>
-  </si>
-  <si>
-    <t>Nissan NV200 Skåp 110 ComfortPlus Pack SSD -18</t>
-  </si>
-  <si>
-    <t>174 875 kr (139 900 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>ButikBilar, Blekinge</t>
-  </si>
-  <si>
-    <t>BLIMO Moto Sport-950 Promenadscooter 2018</t>
-  </si>
-  <si>
-    <t>14 900 kr</t>
-  </si>
-  <si>
-    <t>Mopeder &amp; A-traktor, Uppsala</t>
-  </si>
-  <si>
-    <t>Vikvägg / rumsavdelare</t>
-  </si>
-  <si>
-    <t>2 000 kr</t>
-  </si>
-  <si>
-    <t>Helt ny Xperia XZ1 ev byte</t>
-  </si>
-  <si>
-    <t>3 900 kr</t>
-  </si>
-  <si>
-    <t>Telefoner &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>Telefoner &amp; tillbehör, Höör</t>
-  </si>
-  <si>
-    <t>Citroën C4 Grand Picasso 7-sits-1.6 NY Besik -12</t>
-  </si>
-  <si>
-    <t>45 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Östergötland</t>
-  </si>
-  <si>
-    <t>Benahavis | Benahavis</t>
-  </si>
-  <si>
-    <t>3 090 420 kr</t>
-  </si>
-  <si>
-    <t>Utland</t>
-  </si>
-  <si>
-    <t>MäklareUtland, Spanien</t>
-  </si>
-  <si>
-    <t>Volvo XC60 D3 Summum Driver Support -17</t>
-  </si>
-  <si>
-    <t>279 900 kr (223 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>ButikBilar, Kalmar</t>
-  </si>
-  <si>
-    <t>Pilote Galaxy 781 Emotion - 180 hk Automat-18</t>
-  </si>
-  <si>
-    <t>1 075 000 kr</t>
-  </si>
-  <si>
-    <t>Husvagnar &amp; husbilar</t>
-  </si>
-  <si>
-    <t>Husvagnar &amp; husbilar, Jönköping</t>
-  </si>
-  <si>
-    <t>Liten antik Rokoko soffgrupp,mm</t>
-  </si>
-  <si>
-    <t>1 200 kr</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Malmö</t>
-  </si>
-  <si>
-    <t>Bmw e61 volvo 940</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör, Västernorrland</t>
-  </si>
-  <si>
-    <t>Rostfri vask, Duschblandare, köksblandare</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Hörby</t>
-  </si>
-  <si>
-    <t>Sommarhjul Audi</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör, Stockholm</t>
-  </si>
-  <si>
-    <t>Lynx Boondocker RE 3700 850 E-Tec SHOT -18</t>
-  </si>
-  <si>
-    <t>134 900 kr</t>
-  </si>
-  <si>
-    <t>Snöskotrar</t>
-  </si>
-  <si>
-    <t>ButikSnöskotrar, Västerbotten</t>
-  </si>
-  <si>
-    <t>Höganäskrus</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Västerbotten</t>
-  </si>
-  <si>
-    <t>Rakspegel/Pigtittare</t>
-  </si>
-  <si>
-    <t>200 kr</t>
-  </si>
-  <si>
-    <t>Falco MC stövlar</t>
-  </si>
-  <si>
-    <t>400 kr</t>
-  </si>
-  <si>
-    <t>MC-delar &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>MC-delar &amp; tillbehör, Göteborg</t>
-  </si>
-  <si>
-    <t>Hörnsoffa</t>
-  </si>
-  <si>
-    <t>1 500 kr</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Skaraborg</t>
-  </si>
-  <si>
-    <t>Saab 9-3 1.8t BioPower 175HK LINEAR M-VÄRM -08</t>
-  </si>
-  <si>
-    <t>34 900 kr</t>
-  </si>
-  <si>
-    <t>Renault Mégane 1.5dCi Värmare,1-Ägare,K-remBy -12</t>
-  </si>
-  <si>
-    <t>69 900 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Göteborg</t>
-  </si>
-  <si>
-    <t>Lexus NX 300h Business/ AWD/ Backkamera/ Navi -16</t>
-  </si>
-  <si>
-    <t>324 900 kr</t>
-  </si>
-  <si>
-    <t>Kia ProCeed GT 1.6 GDI Euro 6 204hk -18</t>
-  </si>
-  <si>
-    <t>223 750 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Örebro</t>
-  </si>
-  <si>
-    <t>61 995 kr</t>
-  </si>
-  <si>
-    <t>Hyundai i20 5-dörrar 1.2 77hk 1-Ägare -12</t>
-  </si>
-  <si>
-    <t>59 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Älvsborg</t>
-  </si>
-  <si>
-    <t>Ford Focus 1.0 100 Trend Kombi -06</t>
-  </si>
-  <si>
-    <t>19 500 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Värmland</t>
-  </si>
-  <si>
-    <t>Järnvägsgatan 4, Eksjö</t>
-  </si>
-  <si>
-    <t>Villor</t>
-  </si>
-  <si>
-    <t>MäklareVillor, Jönköping</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz SLK 280 7G-Tronic 231hk (9000 -07</t>
-  </si>
-  <si>
-    <t>149 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Dalarna</t>
-  </si>
-  <si>
-    <t>Vindskiveplåtar och Rännkrokar</t>
-  </si>
-  <si>
-    <t>40 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Östergötland</t>
-  </si>
-  <si>
-    <t>Varmvattenberedare</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Västmanland</t>
-  </si>
-  <si>
-    <t>Mountaing buggy duet, Cam3 sufflett och väska</t>
-  </si>
-  <si>
-    <t>350 kr</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker, Stockholm</t>
-  </si>
-  <si>
-    <t>Mangel</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Västernorrland</t>
-  </si>
-  <si>
-    <t>EBS ClassicLine 112 - Mini Size</t>
-  </si>
-  <si>
-    <t>1 700 kr</t>
-  </si>
-  <si>
-    <t>Musikutrustning, Stockholm</t>
-  </si>
-  <si>
-    <t>Subaru Forester 2.0 4WD 147HK 6 växlad Drag. -10</t>
-  </si>
-  <si>
-    <t>79 500 kr</t>
-  </si>
-  <si>
-    <t>4 Mycket fina oanvända plagg. 3 klänn+1 jump</t>
-  </si>
-  <si>
-    <t>600 kr</t>
-  </si>
-  <si>
-    <t>Kläder &amp; skor, Stockholm</t>
-  </si>
-  <si>
-    <t>Jac staplare 1000kg -19</t>
-  </si>
-  <si>
-    <t>Lastbil, truck &amp; entreprenad</t>
-  </si>
-  <si>
-    <t>ButikLastbil, truck &amp; entreprenad, Stockholm</t>
-  </si>
-  <si>
-    <t>Brio babyskydd</t>
-  </si>
-  <si>
-    <t>150 kr</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker, Malmö</t>
-  </si>
-  <si>
-    <t>Sulky</t>
-  </si>
-  <si>
-    <t>Nya skor</t>
-  </si>
-  <si>
-    <t>100 kr</t>
-  </si>
-  <si>
-    <t>Kläder &amp; skor, Skaraborg</t>
-  </si>
-  <si>
-    <t>Hjullager / Lager till mopedbilar</t>
-  </si>
-  <si>
-    <t>495 kr</t>
-  </si>
-  <si>
-    <t>ButikMopeder &amp; A-traktor, Jönköping</t>
-  </si>
-  <si>
-    <t>Nybodaringen 105, Stockholms stad</t>
-  </si>
-  <si>
-    <t>3 495 000 kr</t>
-  </si>
-  <si>
-    <t>MäklareLägenheter, Stockholm</t>
-  </si>
-  <si>
-    <t>MC Jeans</t>
-  </si>
-  <si>
-    <t>MC-delar &amp; tillbehör, Värmland</t>
-  </si>
-  <si>
-    <t>Båtpropeller</t>
-  </si>
-  <si>
-    <t>375 kr</t>
-  </si>
-  <si>
-    <t>Båtdelar &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>Båtdelar &amp; tillbehör, Värmland</t>
-  </si>
-  <si>
-    <t>Viarelli SuperMotard EL</t>
-  </si>
-  <si>
-    <t>37 990 kr</t>
-  </si>
-  <si>
-    <t>FMopeder &amp; A-traktor, Stockholm</t>
-  </si>
-  <si>
-    <t>Belgisk Jätte hane kvar vit rödögd?</t>
-  </si>
-  <si>
-    <t>Djur</t>
-  </si>
-  <si>
-    <t>Djur, Uppsala</t>
-  </si>
-  <si>
-    <t>Barnvagn Crescent Comfort Kombivagn</t>
-  </si>
-  <si>
-    <t>3 000 kr</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker, Kalmar</t>
-  </si>
-  <si>
-    <t>Suzuki intruder 800 -96</t>
-  </si>
-  <si>
-    <t>25 000 kr</t>
-  </si>
-  <si>
-    <t>Motorcyklar, Södermanland</t>
-  </si>
-  <si>
-    <t>Philip Glass på Cirkus (två biljetter)</t>
-  </si>
-  <si>
-    <t>1 480 kr</t>
-  </si>
-  <si>
-    <t>Biljetter</t>
-  </si>
-  <si>
-    <t>Biljetter, Stockholm</t>
-  </si>
-  <si>
-    <t>Pedaler Tonebone, Vox</t>
-  </si>
-  <si>
-    <t>135 kr</t>
-  </si>
-  <si>
-    <t>Scania Veteran</t>
-  </si>
-  <si>
-    <t>120 000 kr</t>
-  </si>
-  <si>
-    <t>Lastbil, truck &amp; entreprenad, Västerbotten</t>
-  </si>
-  <si>
-    <t>Toyota Supra 3.0 203hk -87</t>
-  </si>
-  <si>
-    <t>59 900 kr</t>
-  </si>
-  <si>
-    <t>Renault Laguna 2.0 135HK 5D Nybes Drag -02</t>
-  </si>
-  <si>
-    <t>11 900 kr</t>
-  </si>
-  <si>
-    <t>Opel Astra Dynamic 1,4T 125hk -19</t>
-  </si>
-  <si>
-    <t>219 900 kr</t>
-  </si>
-  <si>
-    <t>BMW 120 d Aut xDrive Model Advantage / Aktiv -17</t>
-  </si>
-  <si>
-    <t>269 000 kr</t>
-  </si>
-  <si>
-    <t>Bok: om hur du röker kött &amp; fisk</t>
-  </si>
-  <si>
-    <t>219 kr</t>
-  </si>
-  <si>
-    <t>Böcker &amp; studentlitteratur</t>
-  </si>
-  <si>
-    <t>ButikBöcker &amp; studentlitteratur</t>
-  </si>
-  <si>
-    <t>Garderober PAX (IKEA)</t>
-  </si>
-  <si>
-    <t>700 kr</t>
-  </si>
-  <si>
-    <t>Husqvarna rider r112c</t>
-  </si>
-  <si>
-    <t>24 900 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Dalarna</t>
-  </si>
-  <si>
-    <t>Bord från Svenska Hem i jättebra skick</t>
-  </si>
-  <si>
-    <t>Stor vindruta till Vespa</t>
-  </si>
-  <si>
-    <t>MC-delar &amp; tillbehör, Östergötland</t>
-  </si>
-  <si>
-    <t>Gåstol</t>
-  </si>
-  <si>
-    <t>Skingåtålj</t>
-  </si>
-  <si>
-    <t>Rosendahl kaffeservis</t>
-  </si>
-  <si>
-    <t>Hatthylla / Skohylla / Klädhängare</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Kalmar</t>
-  </si>
-  <si>
-    <t>Justersåg Altendorf</t>
-  </si>
-  <si>
-    <t>12 500 kr</t>
-  </si>
-  <si>
-    <t>Verktyg</t>
-  </si>
-  <si>
-    <t>Verktyg, Stockholm</t>
-  </si>
-  <si>
-    <t>Barnvagn Emmaljunga retro 70-tal</t>
-  </si>
-  <si>
-    <t>1 100 kr</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker, Luleå</t>
-  </si>
-  <si>
-    <t>Yamaha Pacifica 112VMX YNS</t>
-  </si>
-  <si>
-    <t>1 400 kr</t>
-  </si>
-  <si>
-    <t>Beats Studio wireless</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild, Skaraborg</t>
-  </si>
-  <si>
-    <t>Kontorsstol Markus IKEA</t>
-  </si>
-  <si>
-    <t>Silver Cross wave duo</t>
-  </si>
-  <si>
-    <t>14 000 kr</t>
-  </si>
-  <si>
-    <t>Jordfräs</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Örebro</t>
-  </si>
-  <si>
-    <t>Kaninbur - vinterbur</t>
-  </si>
-  <si>
-    <t>Djur, Östergötland</t>
-  </si>
-  <si>
-    <t>Diskbänk inklusive köksblandare</t>
-  </si>
-  <si>
-    <t>London Taxi tx1 generator</t>
-  </si>
-  <si>
-    <t>ButikBildelar &amp; biltillbehör, Örebro</t>
-  </si>
-  <si>
-    <t>Electrolux kylskåp med frys säljes</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Göteborg</t>
-  </si>
-  <si>
-    <t>Runt bord med iläggsskivor</t>
-  </si>
-  <si>
-    <t>1 300 kr</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Ystad</t>
-  </si>
-  <si>
-    <t>Monark</t>
-  </si>
-  <si>
-    <t>Cyklar, Västerbotten</t>
-  </si>
-  <si>
-    <t>Golfsko Footjoy 37</t>
-  </si>
-  <si>
-    <t>250 kr</t>
-  </si>
-  <si>
-    <t>Sport &amp; fritid, Ystad</t>
-  </si>
-  <si>
-    <t>Bärstolar</t>
-  </si>
-  <si>
-    <t>Sport &amp; fritid, Värmland</t>
-  </si>
-  <si>
-    <t>Mountainbike Extreme poison</t>
-  </si>
-  <si>
-    <t>Cyklar, Blekinge</t>
-  </si>
-  <si>
-    <t>Ktm duke 690 -15</t>
-  </si>
-  <si>
-    <t>49 950 kr</t>
-  </si>
-  <si>
-    <t>Motorcyklar, Halland</t>
-  </si>
-  <si>
-    <t>Fujifilm X-T1 hus</t>
-  </si>
-  <si>
-    <t>Bmw f850gs -19</t>
-  </si>
-  <si>
-    <t>120 995 kr</t>
-  </si>
-  <si>
-    <t>Mitsubishi Colt 1.3(95hk)0%Ränta -06</t>
-  </si>
-  <si>
-    <t>Peugeot 206 CC 1.6 109hk -03</t>
-  </si>
-  <si>
-    <t>29 900 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Södermanland</t>
-  </si>
-  <si>
-    <t>Volvo XC60 D4 AWD Momentum Business E -16</t>
-  </si>
-  <si>
-    <t>259 500 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Ystad</t>
-  </si>
-  <si>
-    <t>Toyota Aygo 1,0 VVT-i Automat Pluspaket (68hk -12</t>
-  </si>
-  <si>
-    <t>ButikBilar, Uppsala</t>
-  </si>
-  <si>
-    <t>Jaguar XK 4,2 298HK -07</t>
-  </si>
-  <si>
-    <t>199 900 kr</t>
-  </si>
-  <si>
-    <t>Audi A5 2.0 TFSI Q 211HK Aut Alpine edition -13</t>
-  </si>
-  <si>
-    <t>187 500 kr</t>
-  </si>
-  <si>
-    <t>Ramkvilla Torp 3, Vetlanda</t>
-  </si>
-  <si>
-    <t>1 395 000 kr</t>
-  </si>
-  <si>
-    <t>Remspännare Volvo hjullastare L70B till L120D</t>
-  </si>
-  <si>
-    <t>Apple watch 4 44mm GPS</t>
-  </si>
-  <si>
-    <t>4 500 kr</t>
-  </si>
-  <si>
-    <t>Accessoarer &amp; klockor</t>
-  </si>
-  <si>
-    <t>Accessoarer &amp; klockor, Dalarna</t>
-  </si>
-  <si>
-    <t>Tilluftsdon Activent 315 mm ventilation</t>
-  </si>
-  <si>
-    <t>800 kr</t>
-  </si>
-  <si>
-    <t>Inventarier &amp; maskiner</t>
-  </si>
-  <si>
-    <t>Inventarier &amp; maskiner, Östergötland</t>
-  </si>
-  <si>
-    <t>Städmaskin Fimap</t>
-  </si>
-  <si>
-    <t>5 000 kr</t>
-  </si>
-  <si>
-    <t>Inventarier &amp; maskiner, Uppsala</t>
-  </si>
-  <si>
-    <t>MOBIL SAMSUNG GALAXY J 4 Plus. NOKIA 3310.</t>
-  </si>
-  <si>
-    <t>Telefoner &amp; tillbehör, Jönköping</t>
-  </si>
-  <si>
-    <t>Mini bmx</t>
-  </si>
-  <si>
-    <t>Cyklar, Dalarna</t>
-  </si>
-  <si>
-    <t>SMV 10 Veteranhusvagn</t>
-  </si>
-  <si>
-    <t>16 000 kr</t>
-  </si>
-  <si>
-    <t>Husvagnar &amp; husbilar, Piteå</t>
-  </si>
-  <si>
-    <t>Kraftfull högtryckstvätt Kränzle</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Stockholm</t>
-  </si>
-  <si>
-    <t>2 Bordslampor</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Västmanland</t>
-  </si>
-  <si>
-    <t>Skön divansoffa i strålande skick</t>
-  </si>
-  <si>
-    <t>Keramikugn</t>
-  </si>
-  <si>
-    <t>30 000 kr</t>
-  </si>
-  <si>
-    <t>Inventarier &amp; maskiner, Stockholm</t>
-  </si>
-  <si>
-    <t>Chevrolet 1941-46 Pick up</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör, Södermanland</t>
-  </si>
-  <si>
-    <t>Badkar och handfat med blandare</t>
-  </si>
-  <si>
-    <t>950 kr</t>
-  </si>
-  <si>
-    <t>Nissan X-Trail dCi 130 Tekna Xtronic -18</t>
-  </si>
-  <si>
-    <t>269 900 kr (215 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Topplock B21</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör, Gävleborg</t>
-  </si>
-  <si>
-    <t>Symaskin till päls</t>
-  </si>
-  <si>
-    <t>7 500 kr</t>
-  </si>
-  <si>
-    <t>Hobby &amp; samlarprylar</t>
-  </si>
-  <si>
-    <t>Hobby &amp; samlarprylar, Jönköping</t>
-  </si>
-  <si>
-    <t>18" Fälgar</t>
-  </si>
-  <si>
-    <t>2 500 kr</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör, Ystad</t>
-  </si>
-  <si>
-    <t>Ek möbler</t>
-  </si>
-  <si>
-    <t>20 000 kr</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning, Älvsborg</t>
-  </si>
-  <si>
-    <t>Adria Altea 542PK 2015</t>
-  </si>
-  <si>
-    <t>185 000 kr</t>
-  </si>
-  <si>
-    <t>Husvagnar &amp; husbilar, Uppsala</t>
-  </si>
-  <si>
-    <t>STORY by Kranz &amp; Ziegler</t>
-  </si>
-  <si>
-    <t>Accessoarer &amp; klockor, Älvsborg</t>
-  </si>
-  <si>
-    <t>Rollator Let´s go out</t>
-  </si>
-  <si>
-    <t>Övrigt</t>
-  </si>
-  <si>
-    <t>Övrigt, Halland</t>
-  </si>
-  <si>
-    <t>VIP-biljetter Swedish House mafia (seats)</t>
-  </si>
-  <si>
-    <t>NYA Mitsubishi L200, Pajero,Fiat Fullback mfl</t>
-  </si>
-  <si>
-    <t>5 800 kr</t>
-  </si>
-  <si>
-    <t>Husqvara motor delar</t>
-  </si>
-  <si>
-    <t>Mopeder &amp; A-traktor, Skaraborg</t>
-  </si>
-  <si>
-    <t>Färgtv</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild, Boden</t>
-  </si>
-  <si>
-    <t>2 handgjorda jackor</t>
-  </si>
-  <si>
-    <t>Kylskåp Husqvarna QR2645W</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Östergötland</t>
-  </si>
-  <si>
-    <t>Modellflygplan R/C</t>
-  </si>
-  <si>
-    <t>Hobby &amp; samlarprylar, Ystad</t>
-  </si>
-  <si>
-    <t>Volvo XC40 T4 FWD Momentum Advanced Edition -19</t>
-  </si>
-  <si>
-    <t>487 200 kr (389 760 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>ButikBilar, Kristianstad</t>
-  </si>
-  <si>
-    <t>Kymco Kymco Like II 50i</t>
-  </si>
-  <si>
-    <t>25 995 kr</t>
-  </si>
-  <si>
-    <t>Mitsubishi Outlander P-HEV 2.0 Hybrid 4WD CVT -17</t>
-  </si>
-  <si>
-    <t>349 900 kr (279 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Aprilia Tuono V4 1100 RR -16</t>
-  </si>
-  <si>
-    <t>114 900 kr</t>
-  </si>
-  <si>
-    <t>ButikMotorcyklar, Stockholm</t>
-  </si>
-  <si>
-    <t>BMW M4 SV-Såld Convertible DCT Euro 6 431hk -16</t>
-  </si>
-  <si>
-    <t>659 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Gävleborg</t>
-  </si>
-  <si>
-    <t>Bugaboo Cameleon + duovagn med tillbehör</t>
-  </si>
-  <si>
-    <t>4 000 kr</t>
-  </si>
-  <si>
-    <t>Åkgräsklippare</t>
-  </si>
-  <si>
-    <t>9 500 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Södermanland</t>
-  </si>
-  <si>
-    <t>Helsvart sulky Britax B motion 4 i fint skick</t>
-  </si>
-  <si>
-    <t>LG smart tv</t>
-  </si>
-  <si>
-    <t>2 700 kr</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild, Malmö</t>
-  </si>
-  <si>
-    <t>Helt ny GoPro Hero 7 black + adventure kit</t>
-  </si>
-  <si>
-    <t>3 200 kr</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild, Halland</t>
-  </si>
-  <si>
-    <t>Barncykel 16</t>
-  </si>
-  <si>
-    <t>Cyklar, Stockholm</t>
-  </si>
-  <si>
-    <t>Polaris assault 800 ev byte</t>
-  </si>
-  <si>
-    <t>15 000 kr</t>
-  </si>
-  <si>
-    <t>Snöskotrar, Kiruna</t>
-  </si>
-  <si>
-    <t>Skogsvagn /Timmervagn</t>
-  </si>
-  <si>
-    <t>Skogs- &amp; lantbruksmaskiner</t>
-  </si>
-  <si>
-    <t>Skogs- &amp; lantbruksmaskiner, Blekinge</t>
-  </si>
-  <si>
-    <t>Smart Open Box Bed - FRI FRAKT</t>
-  </si>
-  <si>
-    <t>3 995 kr</t>
-  </si>
-  <si>
-    <t>ButikMöbler &amp; heminredning, Stockholm</t>
-  </si>
-  <si>
-    <t>Stiga veteran</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Kalmar</t>
-  </si>
-  <si>
-    <t>Diskmaskin Elektro Helios</t>
-  </si>
-  <si>
-    <t>650 kr</t>
-  </si>
-  <si>
-    <t>Fina barncyklar(flick/pojk) 24 tum</t>
-  </si>
-  <si>
-    <t>Cyklar, Gävleborg</t>
-  </si>
-  <si>
-    <t>5 Vxl Apollo</t>
-  </si>
-  <si>
-    <t>Fatglider (Cruiser)</t>
-  </si>
-  <si>
-    <t>15 495 kr</t>
-  </si>
-  <si>
-    <t>Hobby &amp; samlarprylar, Helsingborg</t>
-  </si>
-  <si>
-    <t>Ren Björkved</t>
-  </si>
-  <si>
-    <t>450 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Värmland</t>
-  </si>
-  <si>
-    <t>Darin Arena Tour 2019 - Stockholm - Biljetter</t>
-  </si>
-  <si>
-    <t>755 kr</t>
-  </si>
-  <si>
-    <t>ButikBiljetter, Stockholm</t>
-  </si>
-  <si>
-    <t>Ombyggd husvagn -90</t>
-  </si>
-  <si>
-    <t>35 000 kr</t>
-  </si>
-  <si>
-    <t>Husvagnar &amp; husbilar, Kalmar</t>
-  </si>
-  <si>
-    <t>Senior Accountant to EQT</t>
-  </si>
-  <si>
-    <t>Ekonomi</t>
-  </si>
-  <si>
-    <t>JobbEkonomi, Stockholm</t>
-  </si>
-  <si>
-    <t>Embeddedutvecklare till Agellis</t>
-  </si>
-  <si>
-    <t>Data &amp; IT</t>
-  </si>
-  <si>
-    <t>JobbData &amp; IT, Lund</t>
-  </si>
-  <si>
-    <t>Stor terrass i Capistrano Village - Nerja</t>
-  </si>
-  <si>
-    <t>1 784 696 kr</t>
-  </si>
-  <si>
-    <t>Harley-Davidson Street Glide S 114 -19</t>
-  </si>
-  <si>
-    <t>285 000 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Polo 1.2 TSI 5DR COMFORT 90HK 63.9 -13</t>
-  </si>
-  <si>
-    <t>63 900 kr</t>
-  </si>
-  <si>
-    <t>Volvo XC70 3.2 AWD Summum 238hk, Kanonskick -08</t>
-  </si>
-  <si>
-    <t>129 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Luleå</t>
-  </si>
-  <si>
-    <t>Volvo V60 T4 Summum Business Edition PRO -16</t>
-  </si>
-  <si>
-    <t>229 000 kr (183 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Pyrolavägen 23 nb, Lidingö</t>
-  </si>
-  <si>
-    <t>1 900 000 kr</t>
-  </si>
-  <si>
-    <t>Gris Ungerskt ullsvin</t>
-  </si>
-  <si>
-    <t>Djur, Västernorrland</t>
-  </si>
-  <si>
-    <t>Bord med två tillhörande stolar</t>
-  </si>
-  <si>
-    <t>Linhai 300cc med plog -06</t>
-  </si>
-  <si>
-    <t>18 000 kr</t>
-  </si>
-  <si>
-    <t>Motorcyklar, Jönköping</t>
-  </si>
-  <si>
-    <t>Vintage Burberry Scarf Cashmere</t>
-  </si>
-  <si>
-    <t>Bänkspis</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård, Skaraborg</t>
-  </si>
-  <si>
-    <t>Logitech G27</t>
-  </si>
-  <si>
-    <t>Datorer &amp; TV-spel, Södermanland</t>
-  </si>
-  <si>
-    <t>Must de Cartier - damur</t>
-  </si>
-  <si>
-    <t>Accessoarer &amp; klockor, Östergötland</t>
-  </si>
-  <si>
-    <t>Jägerkyl</t>
-  </si>
-  <si>
-    <t>3 500 kr</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Dalarna</t>
-  </si>
-  <si>
-    <t>Britax kidfix</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker, Västernorrland</t>
-  </si>
-  <si>
-    <t>Sony RX100 V</t>
-  </si>
-  <si>
-    <t>7 200 kr</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz B 180 Helläder Kamera Drag -16</t>
-  </si>
-  <si>
-    <t>159 900 kr</t>
-  </si>
-  <si>
-    <t>Audi Q5 2.0 TDI Quattro 170hk/ D-VÄRM/ DRAG -11</t>
-  </si>
-  <si>
-    <t>Porsche Boxster S / PDK / 315 Hk -13</t>
-  </si>
-  <si>
-    <t>519 000 kr</t>
-  </si>
-  <si>
-    <t>ButikBilar, Lund</t>
-  </si>
-  <si>
-    <t>Lägenhet i Malmö</t>
-  </si>
-  <si>
-    <t>MäklareLägenheter, Malmö</t>
-  </si>
-  <si>
-    <t>Lynx Boondocker 3900 STD 600 E-Tec</t>
-  </si>
-  <si>
-    <t>83 000 kr</t>
-  </si>
-  <si>
-    <t>ButikSnöskotrar, Jämtland</t>
-  </si>
-  <si>
-    <t>Toyota Land Cruiser 2,8 D-4D AUT 4WD INVINCIB -16</t>
-  </si>
-  <si>
-    <t>469 900 kr (375 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Herrcyckel</t>
-  </si>
-  <si>
-    <t>Cyklar, Jönköping</t>
-  </si>
-  <si>
-    <t>Norsktalande kundserviceagent på distans till</t>
-  </si>
-  <si>
-    <t>Service &amp; kundtjänst</t>
-  </si>
-  <si>
-    <t>JobbService &amp; kundtjänst, Göteborg</t>
-  </si>
-  <si>
-    <t>SP Balans fönsterdörr 9-21/15</t>
-  </si>
-  <si>
-    <t>ButikBygg &amp; trädgård, Blekinge</t>
-  </si>
-  <si>
-    <t>Specialized Langster Steel</t>
-  </si>
-  <si>
-    <t>Sängar - Svenska Hem (180x200)+sängtillb</t>
-  </si>
-  <si>
-    <t>Lastväxlarcontainer 12 22 30 kubiks med mera</t>
-  </si>
-  <si>
-    <t>Lastbil, truck &amp; entreprenad, Helsingborg</t>
-  </si>
-  <si>
-    <t>Ifor Williams LM 167</t>
-  </si>
-  <si>
-    <t>Baby barn adapter bugaboo gunga</t>
-  </si>
-  <si>
-    <t>Traxxas Ford GT 1/10 4WD RTR TQi TSM</t>
-  </si>
-  <si>
-    <t>2 795 kr</t>
-  </si>
-  <si>
-    <t>ButikHobby &amp; samlarprylar</t>
-  </si>
-  <si>
-    <t>Gustavslundsvägen 149 - Kontors / butikslokal</t>
-  </si>
-  <si>
-    <t>125 000 kr</t>
-  </si>
-  <si>
-    <t>Lokaler &amp; fastigheter</t>
-  </si>
-  <si>
-    <t>ButikLokaler &amp; fastigheter, Stockholm</t>
-  </si>
-  <si>
-    <t>Kommod Alterna All Day 61</t>
-  </si>
-  <si>
-    <t>Mountainbike Giant</t>
-  </si>
-  <si>
-    <t>Puch Cult, 28 tum</t>
-  </si>
-  <si>
-    <t>Frysskåp litet</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror, Stockholm</t>
-  </si>
-  <si>
-    <t>Svart Kronan Duo S</t>
+    <t>249 000 kr</t>
   </si>
 </sst>
 </file>
@@ -1921,35 +1639,35 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1963,945 +1681,945 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
@@ -2909,1315 +2627,1315 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D109" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B111" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>310</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="C125" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>319</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D127" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="D128" t="s">
-        <v>337</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="B129" t="s">
-        <v>339</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="B131" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D131" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="C132" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="B133" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>351</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="C134" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>356</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="D137" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="D139" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D140" t="s">
-        <v>363</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="B141" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="D141" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="B142" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="B144" t="s">
-        <v>372</v>
+        <v>110</v>
       </c>
       <c r="C144" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>373</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D145" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D147" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="B149" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="C149" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D149" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B150" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D150" t="s">
-        <v>388</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D151" t="s">
-        <v>390</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="C152" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="D152" t="s">
-        <v>393</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="C153" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="D153" t="s">
-        <v>396</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="B154" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>401</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>405</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>390</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>95</v>
       </c>
       <c r="D159" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="B160" t="s">
-        <v>411</v>
+        <v>189</v>
       </c>
       <c r="C160" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D160" t="s">
-        <v>412</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="B161" t="s">
-        <v>414</v>
+        <v>213</v>
       </c>
       <c r="C161" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>415</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="B162" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="C162" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C163" t="s">
-        <v>420</v>
+        <v>125</v>
       </c>
       <c r="D163" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="C164" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="B165" t="s">
-        <v>426</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="B166" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="C166" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="D166" t="s">
-        <v>63</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="B167" t="s">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D167" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="B168" t="s">
-        <v>432</v>
+        <v>69</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D168" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>354</v>
       </c>
       <c r="B169" t="s">
-        <v>435</v>
+        <v>113</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -4225,450 +3943,450 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D170" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D172" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="B173" t="s">
-        <v>442</v>
+        <v>36</v>
       </c>
       <c r="C173" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D173" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="B174" t="s">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="D174" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="B175" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C175" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="D176" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
       <c r="B177" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="C177" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="D177" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="B178" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="D179" t="s">
-        <v>455</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
       <c r="B180" t="s">
-        <v>457</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D180" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="B181" t="s">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D181" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>462</v>
+        <v>113</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>463</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B185" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="C185" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>468</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="B186" t="s">
-        <v>470</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="B187" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D187" t="s">
-        <v>472</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>474</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="B189" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D189" t="s">
-        <v>477</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="D190" t="s">
-        <v>390</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="C192" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>481</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="C193" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="D193" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="C194" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="D194" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>484</v>
+        <v>392</v>
       </c>
       <c r="B195" t="s">
-        <v>485</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s">
-        <v>336</v>
+        <v>95</v>
       </c>
       <c r="D195" t="s">
-        <v>486</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="B196" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="C196" t="s">
-        <v>489</v>
+        <v>44</v>
       </c>
       <c r="D196" t="s">
-        <v>490</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
       <c r="C197" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D197" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>492</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C198" t="s">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="D198" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D199" t="s">
-        <v>390</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="C200" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>495</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
       <c r="B201" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="C201" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>164</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/web-scraping/blocket_data.xlsx
+++ b/web-scraping/blocket_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="388">
   <si>
     <t>Title</t>
   </si>
@@ -28,1201 +28,1156 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Fender Stratocaster USA 1975 Obs 12500kr</t>
-  </si>
-  <si>
-    <t>12 500 kr</t>
+    <t>Mercedes-Benz B 180 NGT 116hk PANO AUT SV-SÅL -10</t>
+  </si>
+  <si>
+    <t>122 400 kr</t>
+  </si>
+  <si>
+    <t>Bilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stockholm</t>
+  </si>
+  <si>
+    <t>Kia Picanto 1.1 Automat BESIKTIGAD LÅGMIL -05</t>
+  </si>
+  <si>
+    <t>31 900 kr</t>
+  </si>
+  <si>
+    <t>Lexus NX 300H AWD 2.5 TAKLUCKA Euro 6 197HK/S -16</t>
+  </si>
+  <si>
+    <t>314 900 kr</t>
+  </si>
+  <si>
+    <t>Komplett akvarium 980 liter plus sump</t>
+  </si>
+  <si>
+    <t>10 000 kr</t>
+  </si>
+  <si>
+    <t>Djur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Klippan</t>
+  </si>
+  <si>
+    <t>Barngrind Babyproffsen</t>
+  </si>
+  <si>
+    <t>700 kr</t>
+  </si>
+  <si>
+    <t>Bygg &amp; trädgård</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blekinge</t>
+  </si>
+  <si>
+    <t>Balkvåg / Pallvåg 3000kg. DEMO Pris</t>
+  </si>
+  <si>
+    <t>5 700 kr</t>
+  </si>
+  <si>
+    <t>Inventarier &amp; maskiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jönköping</t>
+  </si>
+  <si>
+    <t>Jack &amp; Jones svart student kostym 46</t>
+  </si>
+  <si>
+    <t>450 kr</t>
+  </si>
+  <si>
+    <t>Kläder &amp; skor</t>
+  </si>
+  <si>
+    <t>Båtplatser</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Båtdelar &amp; tillbehör</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Östergötland</t>
+  </si>
+  <si>
+    <t>Retro möbler, gungstol, fåtölj</t>
+  </si>
+  <si>
+    <t>250 kr</t>
+  </si>
+  <si>
+    <t>Möbler &amp; heminredning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Älvsborg</t>
+  </si>
+  <si>
+    <t>Corvette flipper</t>
+  </si>
+  <si>
+    <t>43 000 kr</t>
+  </si>
+  <si>
+    <t>Hobby &amp; samlarprylar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Örebro</t>
+  </si>
+  <si>
+    <t>Garderob från ikea (elgå)</t>
+  </si>
+  <si>
+    <t>Kuddar Designers Guild</t>
+  </si>
+  <si>
+    <t>800 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz 200b -82</t>
+  </si>
+  <si>
+    <t>13 500 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halland</t>
+  </si>
+  <si>
+    <t>7 växlad 24" Crescent Pojkcykel</t>
+  </si>
+  <si>
+    <t>550 kr</t>
+  </si>
+  <si>
+    <t>Cyklar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kronoberg</t>
+  </si>
+  <si>
+    <t>B&amp;O Beolab 3 + Beolab 11</t>
+  </si>
+  <si>
+    <t>Ljud &amp; bild</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malmö</t>
+  </si>
+  <si>
+    <t>Frack</t>
+  </si>
+  <si>
+    <t>1 499 kr</t>
+  </si>
+  <si>
+    <t>Peugeot 207 3-dörrar 1.6 HDi FAP Sport 109hk -07</t>
+  </si>
+  <si>
+    <t>25 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Göteborg</t>
+  </si>
+  <si>
+    <t>Salladskyl</t>
+  </si>
+  <si>
+    <t>5 500 kr</t>
+  </si>
+  <si>
+    <t>Marshall Kilburn</t>
+  </si>
+  <si>
+    <t>1 500 kr</t>
+  </si>
+  <si>
+    <t>Volkswagen Caddy 2.0TDI D-VÄRM DRAG EU6 -16</t>
+  </si>
+  <si>
+    <t>123 200 kr (98 560 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Gaffelriggad segelbåt</t>
+  </si>
+  <si>
+    <t>180 000 kr</t>
+  </si>
+  <si>
+    <t>Båtar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kalmar</t>
+  </si>
+  <si>
+    <t>Audi A4 2.0 TDI S-Tronic Sport 190hk -16</t>
+  </si>
+  <si>
+    <t>242 500 kr</t>
+  </si>
+  <si>
+    <t>Kawasaki Z1000SX -19</t>
+  </si>
+  <si>
+    <t>132 900 kr</t>
+  </si>
+  <si>
+    <t>Motorcyklar</t>
+  </si>
+  <si>
+    <t>Volkswagen Crafter 2.5 TDI AUT Kranbil D-hytt -11</t>
+  </si>
+  <si>
+    <t>275 000 kr (220 000 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Gissi, Chieti</t>
+  </si>
+  <si>
+    <t>400 000 kr</t>
+  </si>
+  <si>
+    <t>Utland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italien</t>
+  </si>
+  <si>
+    <t>Kawasaki Z125 -19</t>
+  </si>
+  <si>
+    <t>46 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västerbotten</t>
+  </si>
+  <si>
+    <t>Volkswagen Passat CC 1.8 TSI (160hk) R-line H -12</t>
+  </si>
+  <si>
+    <t>129 900 kr</t>
+  </si>
+  <si>
+    <t>Volvo V50 1.8 Flexifuel Kinetic 125hk / M-Vär -07</t>
+  </si>
+  <si>
+    <t>47 900 kr</t>
+  </si>
+  <si>
+    <t>Skoda Octavia Kombi 1.5 TSI Euro 6 150hk -18</t>
+  </si>
+  <si>
+    <t>229 900 kr</t>
+  </si>
+  <si>
+    <t>Kia Niro Kia Niro 1.6 PLUG-IN PLUS 1 S+V-Hjul -18</t>
+  </si>
+  <si>
+    <t>259 000 kr (207 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Crescent bikerz</t>
+  </si>
+  <si>
+    <t>600 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hässleholm</t>
+  </si>
+  <si>
+    <t>Bugaboo kompakt transportväska</t>
+  </si>
+  <si>
+    <t>Barnartiklar &amp; leksaker</t>
+  </si>
+  <si>
+    <t>Hymer T 674 CL 2X2 -12</t>
+  </si>
+  <si>
+    <t>525 000 kr</t>
+  </si>
+  <si>
+    <t>Husvagnar &amp; husbilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västmanland</t>
+  </si>
+  <si>
+    <t>LEGO Jurassic World Indoraptor och attacken</t>
+  </si>
+  <si>
+    <t>1 119 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lund</t>
+  </si>
+  <si>
+    <t>Wilson DryTech Waterproof</t>
+  </si>
+  <si>
+    <t>1 000 kr</t>
+  </si>
+  <si>
+    <t>Sport &amp; fritid</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo 1.2 TSI BlueMotion Euro 6 90h -15</t>
+  </si>
+  <si>
+    <t>84 900 kr</t>
+  </si>
+  <si>
+    <t>Fälg</t>
+  </si>
+  <si>
+    <t>Bildelar &amp; biltillbehör</t>
+  </si>
+  <si>
+    <t>Lösdriftsplats i Kulltorp</t>
+  </si>
+  <si>
+    <t>Hästar &amp; ridsport</t>
+  </si>
+  <si>
+    <t>Ny vit PAX med skjutdörr</t>
+  </si>
+  <si>
+    <t>2 000 kr</t>
+  </si>
+  <si>
+    <t>Bosch tvättmaskin</t>
+  </si>
+  <si>
+    <t>Husgeråd &amp; vitvaror</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Värmland</t>
+  </si>
+  <si>
+    <t>Volvo V50 1,8 Manuell, 125hk -06</t>
+  </si>
+  <si>
+    <t>17 000 kr</t>
+  </si>
+  <si>
+    <t>Axminster trade såg med 1300mm rullbord</t>
+  </si>
+  <si>
+    <t>Verktyg</t>
+  </si>
+  <si>
+    <t>Epa traktor duet 10000:-</t>
+  </si>
+  <si>
+    <t>Mopeder &amp; A-traktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uppsala</t>
+  </si>
+  <si>
+    <t>Betongsten</t>
+  </si>
+  <si>
+    <t>Lekstol Alex i Gislaved Kampanj</t>
+  </si>
+  <si>
+    <t>599 kr</t>
+  </si>
+  <si>
+    <t>Trädgårdgrupp</t>
+  </si>
+  <si>
+    <t>1 800 kr</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy active Tab</t>
+  </si>
+  <si>
+    <t>Datorer &amp; TV-spel</t>
+  </si>
+  <si>
+    <t>Thoréns i Kil Adaptrar fritt levererat</t>
+  </si>
+  <si>
+    <t>Lastbil, truck &amp; entreprenad</t>
+  </si>
+  <si>
+    <t>Soffa bortskänkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helsingborg</t>
+  </si>
+  <si>
+    <t>Nytt glasbord och 4 skinnstolar</t>
+  </si>
+  <si>
+    <t>Rayco RG 1645 SJRD Begagnad</t>
+  </si>
+  <si>
+    <t>Skogs- &amp; lantbruksmaskiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Landskrona</t>
+  </si>
+  <si>
+    <t>Klippo B&amp;S 3,5Hk mulcher multiklippare</t>
+  </si>
+  <si>
+    <t>2 699 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Baby Safe</t>
+  </si>
+  <si>
+    <t>400 kr</t>
+  </si>
+  <si>
+    <t>Beg Planerskopa Ca 750L med Grävfäste S60</t>
+  </si>
+  <si>
+    <t>Lastbågar för dropplist</t>
+  </si>
+  <si>
+    <t>130 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skaraborg</t>
+  </si>
+  <si>
+    <t>Soffa</t>
+  </si>
+  <si>
+    <t>500 kr</t>
+  </si>
+  <si>
+    <t>Barnvagn, baby jogger mini city</t>
+  </si>
+  <si>
+    <t>Gammal bandsåg</t>
+  </si>
+  <si>
+    <t>2 500 kr</t>
+  </si>
+  <si>
+    <t>Bugaboo cameleon 3</t>
+  </si>
+  <si>
+    <t>Corsair HS50 headset</t>
+  </si>
+  <si>
+    <t>900 kr</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Wexiödisk WD 4E på stativ</t>
+  </si>
+  <si>
+    <t>18 750 kr</t>
+  </si>
+  <si>
+    <t>Specialized Crosstrail Expert, Grafitgrå Herr</t>
+  </si>
+  <si>
+    <t>6 895 kr</t>
+  </si>
+  <si>
+    <t>BMW 325 i Cabriolet (218hk) Läder / Farthålla -08</t>
+  </si>
+  <si>
+    <t>169 000 kr</t>
+  </si>
+  <si>
+    <t>Swedish House Mafia VIP-Ståbiljetter 4e Maj</t>
+  </si>
+  <si>
+    <t>Biljetter</t>
+  </si>
+  <si>
+    <t>Marsvinsbur + tillbehör</t>
+  </si>
+  <si>
+    <t>Lexus RX 450h L Executive, Lucka, 7-Sits -18</t>
+  </si>
+  <si>
+    <t>649 000 kr</t>
+  </si>
+  <si>
+    <t>Vespa Elettrica FE</t>
+  </si>
+  <si>
+    <t>77 900 kr</t>
+  </si>
+  <si>
+    <t>Carado A 461 -15</t>
+  </si>
+  <si>
+    <t>495 000 kr</t>
+  </si>
+  <si>
+    <t>BMW X1 xDrive20d | M Sport | Connected | Aut -19</t>
+  </si>
+  <si>
+    <t>379 000 kr (303 200 kr ex. moms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÄlvsborgBMW Premium Selection</t>
+  </si>
+  <si>
+    <t>Skoda Fabia 1.4 75hk Taklucka Parkeringssenso -06</t>
+  </si>
+  <si>
+    <t>24 900 kr</t>
+  </si>
+  <si>
+    <t>Double bed and mattress</t>
+  </si>
+  <si>
+    <t>150 kr</t>
+  </si>
+  <si>
+    <t>1 bils carport i galvat stål inkl frakt</t>
+  </si>
+  <si>
+    <t>69 800 kr</t>
+  </si>
+  <si>
+    <t>HJC MC-hjälm (ny i kartong)</t>
+  </si>
+  <si>
+    <t>MC-delar &amp; tillbehör</t>
+  </si>
+  <si>
+    <t>Krokvåg / Kranvåg 500kg kapacitet - 200 gram</t>
+  </si>
+  <si>
+    <t>Volkswagen Tiguan 2.0 TDI 4Motion -09</t>
+  </si>
+  <si>
+    <t>80 000 kr</t>
+  </si>
+  <si>
+    <t>Trådlösa hörlurar</t>
+  </si>
+  <si>
+    <t>200 kr</t>
+  </si>
+  <si>
+    <t>Telefoner &amp; tillbehör</t>
+  </si>
+  <si>
+    <t>Volkswagen The Beetle 1.8 TSI DSG / 170Hk -15</t>
+  </si>
+  <si>
+    <t>88 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristianstad</t>
+  </si>
+  <si>
+    <t>Hoppekids skötbord med tyg ida-marie i blått</t>
+  </si>
+  <si>
+    <t>Apple watch serie 4</t>
+  </si>
+  <si>
+    <t>3 200 kr</t>
+  </si>
+  <si>
+    <t>Traktor John Deere 5067E inkl Lastare</t>
+  </si>
+  <si>
+    <t>Emmaljunga Super Viking 2019 Limited ed DUO</t>
+  </si>
+  <si>
+    <t>6 999 kr</t>
+  </si>
+  <si>
+    <t>Canon blixt, Manfrotto stativ</t>
+  </si>
+  <si>
+    <t>20" Volvo XC90 R-Design original</t>
+  </si>
+  <si>
+    <t>11 900 kr</t>
+  </si>
+  <si>
+    <t>Gucciskor som nya Passa på</t>
+  </si>
+  <si>
+    <t>3 800 kr</t>
+  </si>
+  <si>
+    <t>Ekstolar med gungfunktion</t>
+  </si>
+  <si>
+    <t>Minigrisar</t>
+  </si>
+  <si>
+    <t>3 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gävleborg</t>
+  </si>
+  <si>
+    <t>Garmin Fenix 3 Sapphire</t>
+  </si>
+  <si>
+    <t>Concept 2 Modell D svart - Roddmaskin -PM5</t>
+  </si>
+  <si>
+    <t>9 800 kr</t>
+  </si>
+  <si>
+    <t>Bortskänkes ca 30 plattor</t>
+  </si>
+  <si>
+    <t>Teddykaniner</t>
+  </si>
+  <si>
+    <t>Gym golv / Friviktsgolv</t>
+  </si>
+  <si>
+    <t>40 000 kr</t>
+  </si>
+  <si>
+    <t>Däck 235/60/17 Michelin</t>
+  </si>
+  <si>
+    <t>Rana 15m3</t>
+  </si>
+  <si>
+    <t>15 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Västernorrland</t>
+  </si>
+  <si>
+    <t>Harley-Davidson XL883L Superlow -13</t>
+  </si>
+  <si>
+    <t>89 900 kr</t>
+  </si>
+  <si>
+    <t>Super SOCO TC Elmoped</t>
+  </si>
+  <si>
+    <t>32 900 kr</t>
+  </si>
+  <si>
+    <t>Renault Clio 1.6 112Hk 5D Aut -08</t>
+  </si>
+  <si>
+    <t>29 900 kr</t>
+  </si>
+  <si>
+    <t>Super SOCO TS | KANSKE DEN BÄSTA EL MOPEDEN</t>
+  </si>
+  <si>
+    <t>Torrt fint hö</t>
+  </si>
+  <si>
+    <t>3 kr</t>
+  </si>
+  <si>
+    <t>Sekretär/chiffonje</t>
+  </si>
+  <si>
+    <t>Hundpulka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gällivare</t>
+  </si>
+  <si>
+    <t>Skrivbord</t>
+  </si>
+  <si>
+    <t>Pelletspanna</t>
+  </si>
+  <si>
+    <t>7 000 kr</t>
+  </si>
+  <si>
+    <t>Kranvåg / krokvåg 5 ton med 2 kg noggrannhet</t>
+  </si>
+  <si>
+    <t>Nike AirMax 95 LX</t>
+  </si>
+  <si>
+    <t>Mazda CX-5 2.2 DE AWD Optimum Aut 184hk -19</t>
+  </si>
+  <si>
+    <t>385 900 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luleå</t>
+  </si>
+  <si>
+    <t>Volvo V70 -04</t>
+  </si>
+  <si>
+    <t>21 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arvidsjaur</t>
+  </si>
+  <si>
+    <t>Husqvarna Brilliance 75Q i Gislaved</t>
+  </si>
+  <si>
+    <t>15 295 kr</t>
+  </si>
+  <si>
+    <t>2 st. Thule cykelhållare</t>
+  </si>
+  <si>
+    <t>Kejsarlänk 130g äkta silver</t>
+  </si>
+  <si>
+    <t>Accessoarer &amp; klockor</t>
+  </si>
+  <si>
+    <t>2st Ps4-kontroller + Red dead 2</t>
+  </si>
+  <si>
+    <t>350 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalarna</t>
+  </si>
+  <si>
+    <t>Retro plansch</t>
+  </si>
+  <si>
+    <t>Roland Boutique SH-01A (Ny)</t>
+  </si>
+  <si>
+    <t>3 695 kr</t>
   </si>
   <si>
     <t>Musikutrustning</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dalarna</t>
-  </si>
-  <si>
-    <t>ORRSKÄR 850-85 AD41P Diesel DP290 Bogpropp</t>
-  </si>
-  <si>
-    <t>295 000 kr</t>
-  </si>
-  <si>
-    <t>Båtar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stockholm</t>
-  </si>
-  <si>
-    <t>Daewoo Tacuma 1.6 -03</t>
-  </si>
-  <si>
-    <t>9 500 kr</t>
-  </si>
-  <si>
-    <t>Bilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gävleborg</t>
-  </si>
-  <si>
-    <t>Åskärrsvägen 5 B, Stråvalla</t>
-  </si>
-  <si>
-    <t>2 475 000 kr</t>
+    <t>Sommardäck Dayton touring 2</t>
+  </si>
+  <si>
+    <t>VR glasögon/headset för Android, Iphone</t>
+  </si>
+  <si>
+    <t>Ikea Leran lampa stora modellen</t>
+  </si>
+  <si>
+    <t>Toyota Auris Touring Sports 1.6 D-4D Active + -17</t>
+  </si>
+  <si>
+    <t>149 900 kr</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne 3.0 V6 4 TipTronic S 245hk DR -14</t>
+  </si>
+  <si>
+    <t>339 900 kr</t>
+  </si>
+  <si>
+    <t>Vespa GTS 300 sei giorni -17</t>
+  </si>
+  <si>
+    <t>64 900 kr</t>
+  </si>
+  <si>
+    <t>Kawasaki Z650 -18</t>
+  </si>
+  <si>
+    <t>Skoda Octavia RS Miltek Stertman (310hk) -15</t>
+  </si>
+  <si>
+    <t>219 800 kr</t>
+  </si>
+  <si>
+    <t>Renault Mégane Grandtour 1.2 TCe Euro 6 132hk -17</t>
+  </si>
+  <si>
+    <t>164 900 kr</t>
+  </si>
+  <si>
+    <t>Toyota Auris Touring Sports Hybrid 1.8 VVT-i -15</t>
+  </si>
+  <si>
+    <t>169 900 kr</t>
+  </si>
+  <si>
+    <t>Bmw m3 e36 -93</t>
+  </si>
+  <si>
+    <t>249 900 kr</t>
+  </si>
+  <si>
+    <t>Sonus faber GUARNERI TRADITION - demoex</t>
+  </si>
+  <si>
+    <t>Rational SCC 202 Storkök &amp; Industriugn</t>
+  </si>
+  <si>
+    <t>131 500 kr</t>
+  </si>
+  <si>
+    <t>Fälgar till Audi , BMW116, MB C180,E39,Opel</t>
+  </si>
+  <si>
+    <t>Tunis matgrupp 220-280x90 + 6 maggie stolar</t>
+  </si>
+  <si>
+    <t>6 995 kr</t>
+  </si>
+  <si>
+    <t>Matbord från ILX Interiör</t>
+  </si>
+  <si>
+    <t>Twist &amp; shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotland</t>
+  </si>
+  <si>
+    <t>17" Audi sommardäck och originalfälgar</t>
+  </si>
+  <si>
+    <t>Ljuskrona i mässing och glas</t>
+  </si>
+  <si>
+    <t>24 500 kr</t>
+  </si>
+  <si>
+    <t>Byrå</t>
+  </si>
+  <si>
+    <t>300 kr</t>
+  </si>
+  <si>
+    <t>Josef Frank oval Tulpan-bricka</t>
+  </si>
+  <si>
+    <t>220 kr</t>
+  </si>
+  <si>
+    <t>Smidig bänkvåg / Bordsvåg 30 kg / 1 gram</t>
+  </si>
+  <si>
+    <t>Bromma familjesäng NYHET 90+120/140x200</t>
+  </si>
+  <si>
+    <t>3 395 kr</t>
+  </si>
+  <si>
+    <t>Spinnings cykel Bodybike</t>
+  </si>
+  <si>
+    <t>5 000 kr</t>
+  </si>
+  <si>
+    <t>Verktygs skåp på hjul</t>
+  </si>
+  <si>
+    <t>1 200 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Södermanland</t>
+  </si>
+  <si>
+    <t>Dotz 20" med dåliga däck</t>
+  </si>
+  <si>
+    <t>Mc- hjälm Scubert</t>
+  </si>
+  <si>
+    <t>Naim NDX - Pre-owned</t>
+  </si>
+  <si>
+    <t>19 990 kr</t>
+  </si>
+  <si>
+    <t>Original Hyundai S.däck och fälg 215/50/17"</t>
+  </si>
+  <si>
+    <t>GPD pocket</t>
+  </si>
+  <si>
+    <t>1 900 kr</t>
+  </si>
+  <si>
+    <t>Träningsutrustning - nedsatt pris</t>
+  </si>
+  <si>
+    <t>Volkswagen Caddy MPV 7sits 2.0 EcoFuel 109hk -15</t>
+  </si>
+  <si>
+    <t>139 800 kr (111 840 kr ex. moms)</t>
+  </si>
+  <si>
+    <t>Skylt Flaggskylt belyst LED-bestyckad</t>
+  </si>
+  <si>
+    <t>Ford Focus C-Max 1.8 Duratec Flexifuel 125hk -06</t>
+  </si>
+  <si>
+    <t>25 000 kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trelleborg</t>
+  </si>
+  <si>
+    <t>Toyota Yaris -04</t>
+  </si>
+  <si>
+    <t>19 900 kr</t>
+  </si>
+  <si>
+    <t>Skördevägen 120D, Strängnäs</t>
+  </si>
+  <si>
+    <t>900 000 kr</t>
   </si>
   <si>
     <t>Lägenheter</t>
   </si>
   <si>
-    <t xml:space="preserve"> Halland</t>
-  </si>
-  <si>
-    <t>Honda FJS 600 Silverwing *Fri hemlev* -07</t>
-  </si>
-  <si>
-    <t>44 900 kr</t>
-  </si>
-  <si>
-    <t>Motorcyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Västerbotten</t>
-  </si>
-  <si>
-    <t>Volvo V60 MOMMENTUM D3 MANUELL SKINN 150 HK S -16</t>
-  </si>
-  <si>
-    <t>179 900 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Malmö</t>
-  </si>
-  <si>
-    <t>Uttern 5750C - 96</t>
+    <t>Kawasaki Versys 1000 Orange -19</t>
+  </si>
+  <si>
+    <t>Sagovägen 63, Umeå</t>
+  </si>
+  <si>
+    <t>1 250 000 kr</t>
+  </si>
+  <si>
+    <t>Balsamingatan 22, Malmö stad</t>
+  </si>
+  <si>
+    <t>Fritidsboende</t>
+  </si>
+  <si>
+    <t>Volvo XC60 D4 AWD Classic Summum Euro6 AUT -17</t>
+  </si>
+  <si>
+    <t>309 900 kr</t>
+  </si>
+  <si>
+    <t>Mitsubishi Outlander 2.0 Phev Business Nav Sa -14</t>
+  </si>
+  <si>
+    <t>209 000 kr</t>
+  </si>
+  <si>
+    <t>Bokhylla gediget trä med ekskiva vit</t>
+  </si>
+  <si>
+    <t>Nya ridstövlar i läder</t>
+  </si>
+  <si>
+    <t>Dethleffs MAGIC EDITION T 7151-4 -15</t>
+  </si>
+  <si>
+    <t>549 000 kr</t>
+  </si>
+  <si>
+    <t>Jugendfönster från tidigt 1900tal</t>
+  </si>
+  <si>
+    <t>Runt matbord</t>
+  </si>
+  <si>
+    <t>2 200 kr</t>
+  </si>
+  <si>
+    <t>Din Takleverantör, Sundsvalls Tätskikt AB</t>
+  </si>
+  <si>
+    <t>Tjänster</t>
+  </si>
+  <si>
+    <t>Respo Båttrailer - obromsad med hög lastvikt</t>
+  </si>
+  <si>
+    <t>12 950 kr</t>
+  </si>
+  <si>
+    <t>Nya bandsågar från Axminster Craft</t>
+  </si>
+  <si>
+    <t>2 562 kr</t>
+  </si>
+  <si>
+    <t>Stiga Villa Senator</t>
+  </si>
+  <si>
+    <t>9 000 kr</t>
+  </si>
+  <si>
+    <t>7925 Beg. 8-mans personalbod med dusch</t>
+  </si>
+  <si>
+    <t>Övrigt</t>
+  </si>
+  <si>
+    <t>Seriell DB9</t>
+  </si>
+  <si>
+    <t>50 kr</t>
+  </si>
+  <si>
+    <t>Thoréns Planerskopa kombi gratis frakt</t>
+  </si>
+  <si>
+    <t>Finance I, Fek I</t>
+  </si>
+  <si>
+    <t>Böcker &amp; studentlitteratur</t>
+  </si>
+  <si>
+    <t>Dammsugare</t>
+  </si>
+  <si>
+    <t>Goretex ställ dam</t>
+  </si>
+  <si>
+    <t>Kampanj Svenktillverkad Fältvagn TKF1612 25m3 -19</t>
+  </si>
+  <si>
+    <t>Barnvagn</t>
+  </si>
+  <si>
+    <t>Klotång Hund/Katt belysning &amp; förstoringsglas</t>
+  </si>
+  <si>
+    <t>179 kr</t>
+  </si>
+  <si>
+    <t>Praktiska damjackor</t>
+  </si>
+  <si>
+    <t>Troll lux spjälsäng, dropside - som ny</t>
+  </si>
+  <si>
+    <t>1 400 kr</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz E 220d All-T (194hk) Navi / M-v -18</t>
+  </si>
+  <si>
+    <t>459 000 kr</t>
+  </si>
+  <si>
+    <t>Baby Dan Flexi Fit Grind i Gislaved</t>
+  </si>
+  <si>
+    <t>499 kr</t>
+  </si>
+  <si>
+    <t>Bjälbogatan 3B, Linköping</t>
+  </si>
+  <si>
+    <t>1 625 000 kr</t>
+  </si>
+  <si>
+    <t>Telefon, fast</t>
+  </si>
+  <si>
+    <t>195 kr</t>
+  </si>
+  <si>
+    <t>Bolt Wood Chopper &amp; Hoodie*Aramid Kevlar</t>
+  </si>
+  <si>
+    <t>Renault Mégane 1.6 svart kombi -05</t>
+  </si>
+  <si>
+    <t>14 900 kr</t>
+  </si>
+  <si>
+    <t>Bmw r1200rt -10</t>
+  </si>
+  <si>
+    <t>99 900 kr</t>
+  </si>
+  <si>
+    <t>Glommans småstugeområde nr 4, Örebro</t>
   </si>
   <si>
     <t>125 000 kr</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gällivare</t>
-  </si>
-  <si>
-    <t>Båtmotor suzuki dt 400 25hk</t>
-  </si>
-  <si>
-    <t>2 500 kr</t>
-  </si>
-  <si>
-    <t>Båtdelar &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz E 500 Cabriolet 7G-Tronic AMG 3 -10</t>
-  </si>
-  <si>
-    <t>349 000 kr</t>
-  </si>
-  <si>
-    <t>Safari Bar - Till campen, bryggan, verandan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Jakt &amp; fiske</t>
-  </si>
-  <si>
-    <t>ButikJakt &amp; fiske</t>
-  </si>
-  <si>
-    <t>Massor av fiske till rätt pris</t>
-  </si>
-  <si>
-    <t>Boghammar Magnum 35 Volvo D6 2004</t>
-  </si>
-  <si>
-    <t>750 000 kr</t>
-  </si>
-  <si>
-    <t>Cykel Nishiki hybrid 2013</t>
-  </si>
-  <si>
-    <t>1 800 kr</t>
-  </si>
-  <si>
-    <t>Cyklar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Östergötland</t>
-  </si>
-  <si>
-    <t>Brenderup kåpsläp</t>
-  </si>
-  <si>
-    <t>20 000 kr</t>
-  </si>
-  <si>
-    <t>Bildelar &amp; biltillbehör</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Västernorrland</t>
-  </si>
-  <si>
-    <t>Gasolgrill</t>
-  </si>
-  <si>
-    <t>700 kr</t>
-  </si>
-  <si>
-    <t>Bygg &amp; trädgård</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jönköping</t>
-  </si>
-  <si>
-    <t>Honda 500 foreman -17</t>
-  </si>
-  <si>
-    <t>108 000 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Älvsborg</t>
-  </si>
-  <si>
-    <t>50 rader 210 kW Plattvärmeväxlare</t>
-  </si>
-  <si>
-    <t>2 090 kr</t>
-  </si>
-  <si>
-    <t>ButikBygg &amp; trädgård</t>
-  </si>
-  <si>
-    <t>Förtält Isabella FORUM färg Tweed/Skybl</t>
+    <t>Technogym Löparband Jog 500</t>
+  </si>
+  <si>
+    <t>16 000 kr</t>
+  </si>
+  <si>
+    <t>Båtplats Bergnäsets småbåtshamn</t>
+  </si>
+  <si>
+    <t>65 000 kr</t>
+  </si>
+  <si>
+    <t>Terassmarkis 5,5m</t>
+  </si>
+  <si>
+    <t>Tive 4000 gödningsspridare 12m</t>
+  </si>
+  <si>
+    <t>9 375 kr</t>
+  </si>
+  <si>
+    <t>Extra stor Paketvåg. DEMO 1990 kr</t>
+  </si>
+  <si>
+    <t>Phil Collins Friends Arena</t>
+  </si>
+  <si>
+    <t>Husqvarna Z242F åkgräsklippare</t>
+  </si>
+  <si>
+    <t>36 875 kr</t>
+  </si>
+  <si>
+    <t>Kia Rio 1.2 Special Edition Navi-En ägare -17</t>
+  </si>
+  <si>
+    <t>108 500 kr</t>
+  </si>
+  <si>
+    <t>IPhone 8 Plus 64gb</t>
   </si>
   <si>
     <t>4 000 kr</t>
   </si>
   <si>
-    <t>Husvagnar &amp; husbilar</t>
-  </si>
-  <si>
-    <t>Lynx Xtrim SC 900 ACE -15</t>
-  </si>
-  <si>
-    <t>84 900 kr</t>
-  </si>
-  <si>
-    <t>Snöskotrar</t>
-  </si>
-  <si>
-    <t>Honda Shadow VT 600 Pc21 "Bobber" -88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trelleborg</t>
-  </si>
-  <si>
-    <t>Alaskan huskies</t>
-  </si>
-  <si>
-    <t>3 000 kr</t>
-  </si>
-  <si>
-    <t>Djur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Överkalix</t>
-  </si>
-  <si>
-    <t>Högboda Älvås 1, Kil</t>
-  </si>
-  <si>
-    <t>450 000 kr</t>
-  </si>
-  <si>
-    <t>Villor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Värmland</t>
-  </si>
-  <si>
-    <t>Kia Optima SW 1.7 CRDI GT-LINE Värmare V-hjul -17</t>
-  </si>
-  <si>
-    <t>234 900 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Örebro</t>
-  </si>
-  <si>
-    <t>Volkswagen Polo 1,2 TSI 90 MASTERS PAKET 3156 -17</t>
-  </si>
-  <si>
-    <t>114 900 kr</t>
-  </si>
-  <si>
-    <t>Fågelbur voljär av trä</t>
-  </si>
-  <si>
-    <t>1 490 kr</t>
-  </si>
-  <si>
-    <t>ButikDjur</t>
-  </si>
-  <si>
-    <t>Domarvägen 14, Huddinge</t>
-  </si>
-  <si>
-    <t>Älgjakt Jämtland V.37 2019</t>
-  </si>
-  <si>
-    <t>11 650 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skaraborg</t>
-  </si>
-  <si>
-    <t>Nissan Micra IG-T 90 Acenta Comfort Pack -18</t>
-  </si>
-  <si>
-    <t>129 900 kr (103 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blekinge</t>
-  </si>
-  <si>
-    <t>Caravanstore Fiamma 360 komplett m väggar</t>
-  </si>
-  <si>
-    <t>3 500 kr</t>
-  </si>
-  <si>
-    <t>Måste bort innan 25/4</t>
-  </si>
-  <si>
-    <t>1 200 kr</t>
-  </si>
-  <si>
-    <t>Möbler &amp; heminredning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Södermanland</t>
-  </si>
-  <si>
-    <t>Stubbfräs 15HK SF-13 hammarlack fri frakt -19</t>
-  </si>
-  <si>
-    <t>18 990 kr (15 192 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Skogs- &amp; lantbruksmaskiner</t>
-  </si>
-  <si>
-    <t>ButikSkogs- &amp; lantbruksmaskiner</t>
-  </si>
-  <si>
-    <t>Polar armbands ur M600</t>
-  </si>
-  <si>
-    <t>Sport &amp; fritid</t>
-  </si>
-  <si>
-    <t>BMW 320 Sedan automat -10</t>
-  </si>
-  <si>
-    <t>110 000 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Västmanland</t>
-  </si>
-  <si>
-    <t>Ugnssäkra formar, pajformar,tallrikar, muggar</t>
-  </si>
-  <si>
-    <t>180 kr</t>
-  </si>
-  <si>
-    <t>Husgeråd &amp; vitvaror</t>
-  </si>
-  <si>
-    <t>Kap och gearsåg</t>
-  </si>
-  <si>
-    <t>800 kr</t>
-  </si>
-  <si>
-    <t>Verktyg</t>
-  </si>
-  <si>
-    <t>Golf, greenlagare</t>
-  </si>
-  <si>
-    <t>600 kr</t>
-  </si>
-  <si>
-    <t>Åketorpsgatan 8, Göteborgs stad</t>
-  </si>
-  <si>
-    <t>4 975 000 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Göteborg</t>
-  </si>
-  <si>
-    <t>Volvo V60 D4 SUMMUM EU6 181hk NAVI VOC -15</t>
-  </si>
-  <si>
-    <t>179 800 kr (143 840 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Volkswagen Caddy Panel Van 1.6 TDI -15</t>
-  </si>
-  <si>
-    <t>74 900 kr</t>
-  </si>
-  <si>
-    <t>Skepparegatan 40, Norrköping</t>
-  </si>
-  <si>
-    <t>1 695 000 kr</t>
-  </si>
-  <si>
-    <t>Kymco Kymco Agility City 16+ 125i</t>
-  </si>
-  <si>
-    <t>24 995 kr</t>
-  </si>
-  <si>
-    <t>Mopeder &amp; A-traktor</t>
-  </si>
-  <si>
-    <t>Audi A1 Sportback 1.4 TFSI Pro Line Euro 6 12 -17</t>
-  </si>
-  <si>
-    <t>148 900 kr (119 120 kr ex. moms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uppsala</t>
-  </si>
-  <si>
-    <t>Kia Picanto 1.2 AUT Advance Plus/Motorvärmare -18</t>
-  </si>
-  <si>
-    <t>124 900 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Passat Variant 1.4 TSI EcoFuel Pre -14</t>
-  </si>
-  <si>
-    <t>104 000 kr</t>
-  </si>
-  <si>
-    <t>Triumph Speed Triple S -18</t>
-  </si>
-  <si>
-    <t>143 500 kr</t>
-  </si>
-  <si>
-    <t>Bestå tv bänk</t>
-  </si>
-  <si>
-    <t>100 kr</t>
-  </si>
-  <si>
-    <t>Tvåmanskajak för hela familjen</t>
-  </si>
-  <si>
-    <t>7 990 kr</t>
-  </si>
-  <si>
-    <t>Sjökort Garmin Bluechart G3</t>
-  </si>
-  <si>
-    <t>Fin heminredning och belysning</t>
-  </si>
-  <si>
-    <t>1 500 kr</t>
-  </si>
-  <si>
-    <t>Babybjörn bärsele miracle och one</t>
-  </si>
-  <si>
-    <t>350 kr</t>
-  </si>
-  <si>
-    <t>Barnartiklar &amp; leksaker</t>
-  </si>
-  <si>
-    <t>Flishugg / Flistugg ES-1500E 15HK</t>
-  </si>
-  <si>
-    <t>22 500 kr</t>
-  </si>
-  <si>
-    <t>Balkongdörr</t>
-  </si>
-  <si>
-    <t>300 kr</t>
-  </si>
-  <si>
-    <t>Golfset dam med vagn</t>
-  </si>
-  <si>
-    <t>400 kr</t>
-  </si>
-  <si>
-    <t>Swedish House Mafia 4/5 2st sittplatser</t>
-  </si>
-  <si>
-    <t>Biljetter</t>
-  </si>
-  <si>
-    <t>Tahiti soffgrupp* DU SPRARA 2 005KR</t>
-  </si>
-  <si>
-    <t>6 995 kr</t>
-  </si>
-  <si>
-    <t>Cybex Balios S</t>
-  </si>
-  <si>
-    <t>Yamaha Virago 750 -96</t>
-  </si>
-  <si>
-    <t>16 000 kr</t>
-  </si>
-  <si>
-    <t>Tripp trapp</t>
-  </si>
-  <si>
-    <t>Däck 255/45-R19</t>
-  </si>
-  <si>
-    <t>Volvo s80 -99</t>
-  </si>
-  <si>
-    <t>Långved Björk-Sälg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boden</t>
-  </si>
-  <si>
-    <t>Toyota MR2 GT-S -94</t>
-  </si>
-  <si>
-    <t>75 000 kr</t>
-  </si>
-  <si>
-    <t>Suzuki intruder 800cc -93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piteå</t>
-  </si>
-  <si>
-    <t>Kia Optima Sport Wagon GT-Line/V-hjul -17</t>
-  </si>
-  <si>
-    <t>224 900 kr</t>
-  </si>
-  <si>
-    <t>Subaru XV 1.6i Ridge 4WD Lineartronic Euro 6 -18</t>
-  </si>
-  <si>
-    <t>284 500 kr</t>
-  </si>
-  <si>
-    <t>Audi A4 2,0 Tdi,S-line,Navi,Värmare -15</t>
-  </si>
-  <si>
-    <t>139 500 kr</t>
-  </si>
-  <si>
-    <t>BMW 520 d Aut xDrive Touring M-Sport / Värmar -19</t>
-  </si>
-  <si>
-    <t>449 000 kr (359 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SödermanlandBMW Premium Selection</t>
-  </si>
-  <si>
-    <t>Volvo S60 D2 Kinetic 115hk Värmare Drag 1 Års -15</t>
-  </si>
-  <si>
-    <t>138 000 kr</t>
-  </si>
-  <si>
-    <t>Lexus RX 450h Comfort/ Backkamera/ Navigation -10</t>
-  </si>
-  <si>
-    <t>159 000 kr</t>
-  </si>
-  <si>
-    <t>Honda Deauville obs endast 900 mil -98</t>
-  </si>
-  <si>
-    <t>19 000 kr</t>
-  </si>
-  <si>
-    <t>Café bord Stockholm bolinders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kronoberg</t>
-  </si>
-  <si>
-    <t>Dubbel hopfällbar rullstolramp 152.5x72x5 cm</t>
-  </si>
-  <si>
-    <t>1 695 kr</t>
-  </si>
-  <si>
-    <t>Stenmjöl, Basaltmjöl för odling</t>
-  </si>
-  <si>
-    <t>595 kr</t>
-  </si>
-  <si>
-    <t>Vägglampa Borens 1980:tal</t>
-  </si>
-  <si>
-    <t>500 kr</t>
-  </si>
-  <si>
-    <t>Huskomplex Jockfall</t>
-  </si>
-  <si>
-    <t>390 000 kr</t>
-  </si>
-  <si>
-    <t>Gula muggar från Gustavsberg</t>
-  </si>
-  <si>
-    <t>200 kr</t>
-  </si>
-  <si>
-    <t>Mac Pro 3,7 GHz QC - 32 gb RAM</t>
-  </si>
-  <si>
-    <t>16 500 kr</t>
-  </si>
-  <si>
-    <t>Datorer &amp; TV-spel</t>
-  </si>
-  <si>
-    <t>Chevrolet Van Explorer AWD Fullutr 1Ägare -08</t>
-  </si>
-  <si>
-    <t>89 900 kr</t>
-  </si>
-  <si>
-    <t>Torkade renskinn</t>
-  </si>
-  <si>
-    <t>Hösilage ekologisk</t>
-  </si>
-  <si>
-    <t>925 kr</t>
-  </si>
-  <si>
-    <t>Hästar &amp; ridsport</t>
-  </si>
-  <si>
-    <t>Mio Golvlampa</t>
-  </si>
-  <si>
-    <t>Fräsch eldriven gräsklippare</t>
-  </si>
-  <si>
-    <t>Taklampa</t>
-  </si>
-  <si>
-    <t>Däck Volvo 850/V70 -98</t>
-  </si>
-  <si>
-    <t>Husky R7 / FETX200 / 2017 / Fullmatad</t>
-  </si>
-  <si>
-    <t>455 000 kr</t>
-  </si>
-  <si>
-    <t>Härnösandsgatan D1102, Ängelholm</t>
-  </si>
-  <si>
-    <t>1 135 000 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ängelholm</t>
-  </si>
-  <si>
-    <t>Toyota Yaris 3-dörrar (10000Mil) Ny Bes -99</t>
-  </si>
-  <si>
-    <t>19 900 kr</t>
-  </si>
-  <si>
-    <t>Suzuki Vitara 1.0T AllGrip 4X4 Automat -19</t>
-  </si>
-  <si>
-    <t>229 900 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jämtland</t>
-  </si>
-  <si>
-    <t>Flormansgatan 8, Lund</t>
-  </si>
-  <si>
-    <t>1 125 000 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lund</t>
-  </si>
-  <si>
-    <t>Seat Leon 1.5 TSI Euro 6 130hk -19</t>
-  </si>
-  <si>
-    <t>217 000 kr</t>
-  </si>
-  <si>
-    <t>Bmw f850gs -19</t>
-  </si>
-  <si>
-    <t>120 995 kr</t>
-  </si>
-  <si>
-    <t>Ungdomsbåt Cyber Hurricane 370-07</t>
-  </si>
-  <si>
-    <t>26 000 kr</t>
-  </si>
-  <si>
-    <t>Volvo S40 2.0T 12.100 mil -00</t>
-  </si>
-  <si>
-    <t>29 000 kr</t>
-  </si>
-  <si>
-    <t>Installera din Luftvärmepump med KYLA /VÄRME</t>
-  </si>
-  <si>
-    <t>12 995 kr</t>
-  </si>
-  <si>
-    <t>Fiat 500C CAB 1.2 69hk -12</t>
-  </si>
-  <si>
-    <t>68 000 kr</t>
-  </si>
-  <si>
-    <t>Soffa från Bröderna Andersson - Hög kvalité</t>
-  </si>
-  <si>
-    <t>1 700 kr</t>
-  </si>
-  <si>
-    <t>Brio Go -14</t>
-  </si>
-  <si>
-    <t>Laga din mobil (batteribyte,skärmbyte)</t>
-  </si>
-  <si>
-    <t>Tjänster</t>
-  </si>
-  <si>
-    <t>Bsa c11 1953 -80</t>
-  </si>
-  <si>
-    <t>21 500 kr</t>
-  </si>
-  <si>
-    <t>Försäljningsvagn/Torgvagn</t>
-  </si>
-  <si>
-    <t>49 000 kr</t>
-  </si>
-  <si>
-    <t>Inventarier &amp; maskiner</t>
-  </si>
-  <si>
-    <t>Sir William str 6,5</t>
-  </si>
-  <si>
-    <t>Kläder &amp; skor</t>
-  </si>
-  <si>
-    <t>Rikt/planhyvel</t>
-  </si>
-  <si>
-    <t>Dyna lowrider jubileumsmodell -03</t>
-  </si>
-  <si>
-    <t>89 000 kr</t>
-  </si>
-  <si>
-    <t>Tröjor och byxa</t>
-  </si>
-  <si>
-    <t>50 kr</t>
-  </si>
-  <si>
-    <t>Barnkläder &amp; skor</t>
-  </si>
-  <si>
-    <t>IPhone 8 Vit 64gb</t>
-  </si>
-  <si>
-    <t>4 500 kr</t>
-  </si>
-  <si>
-    <t>Telefoner &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>Fiat 980 dt 4wd -83</t>
-  </si>
-  <si>
-    <t>87 500 kr</t>
-  </si>
-  <si>
-    <t>Samsunf Galaxy Watch 46mm Silver</t>
-  </si>
-  <si>
-    <t>2 800 kr</t>
-  </si>
-  <si>
-    <t>Accessoarer &amp; klockor</t>
-  </si>
-  <si>
-    <t>Gunghäst</t>
-  </si>
-  <si>
-    <t>Kamux söker en ny säljande butikschef till Ka</t>
-  </si>
-  <si>
-    <t>Försäljning</t>
-  </si>
-  <si>
-    <t>Suzuki SX4 S-Cross 1.6 VVT i-AWD GLX 120hk -14</t>
-  </si>
-  <si>
-    <t>129 900 kr</t>
-  </si>
-  <si>
-    <t>Toyota RAV4 2,5 Elhybrid AWD X Edition Drag V -18</t>
-  </si>
-  <si>
-    <t>339 900 kr</t>
-  </si>
-  <si>
-    <t>2 Flyglar säljes</t>
-  </si>
-  <si>
-    <t>Tavla 90*90</t>
-  </si>
-  <si>
-    <t>1 400 kr</t>
-  </si>
-  <si>
-    <t>Jelling soffbord* KOM IN OCH SE I BUTIK</t>
-  </si>
-  <si>
-    <t>3 095 kr</t>
-  </si>
-  <si>
-    <t>Kampanj Badrum</t>
-  </si>
-  <si>
-    <t>Diskbänk</t>
-  </si>
-  <si>
-    <t>Barbord med stolar</t>
-  </si>
-  <si>
-    <t>Nissan X-Trail DIG-T 163 Tekna Moonroof -18</t>
-  </si>
-  <si>
-    <t>269 900 kr (215 920 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>TV Toshiba LCD TV 32 tum</t>
-  </si>
-  <si>
-    <t>900 kr</t>
-  </si>
-  <si>
-    <t>Ljud &amp; bild</t>
-  </si>
-  <si>
-    <t>Hyundai Atos lågmilare toppskick -05</t>
-  </si>
-  <si>
-    <t>14 000 kr</t>
-  </si>
-  <si>
-    <t>Sommardäck på fälg</t>
-  </si>
-  <si>
-    <t>Hydrauliska pallgafflar och adapter</t>
-  </si>
-  <si>
-    <t>Lastbil, truck &amp; entreprenad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Luleå</t>
-  </si>
-  <si>
-    <t>Taklampor</t>
-  </si>
-  <si>
-    <t>288 kr</t>
-  </si>
-  <si>
-    <t>Rullarkiv 3st</t>
-  </si>
-  <si>
-    <t>2 000 kr</t>
-  </si>
-  <si>
-    <t>IKEA Växasäng Minnen</t>
-  </si>
-  <si>
-    <t>450 kr</t>
-  </si>
-  <si>
-    <t>Husqvarna inbyggnadsugn</t>
-  </si>
-  <si>
-    <t>IPhone 4,5,6,7,8,X - Chip n Play/ Backaplan</t>
-  </si>
-  <si>
-    <t>Kakel</t>
-  </si>
-  <si>
-    <t>JENSEN, Ställbara sängbottnar</t>
-  </si>
-  <si>
-    <t>Kia Cee´d 1.6 CRDi Automat Panorama* GPS* V-H -14</t>
-  </si>
-  <si>
-    <t>134 900 kr</t>
-  </si>
-  <si>
-    <t>Harley-Davidson XL1200CA 30 mil *Fri hemlev* -16</t>
-  </si>
-  <si>
-    <t>Saab 9-5 SportCombi 2.0 T Aut Linear 150hk -04</t>
-  </si>
-  <si>
-    <t>8 500 kr</t>
-  </si>
-  <si>
-    <t>Fantastiskt hus med pool</t>
-  </si>
-  <si>
-    <t>1 768 909 kr</t>
-  </si>
-  <si>
-    <t>Utland</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spanien</t>
-  </si>
-  <si>
-    <t>Audi A3 Sportback 2.0 FSI Automat 150hk -06</t>
-  </si>
-  <si>
-    <t>49 900 kr</t>
-  </si>
-  <si>
-    <t>Junior nätverkstekniker sökes</t>
-  </si>
-  <si>
-    <t>Data &amp; IT</t>
-  </si>
-  <si>
-    <t>4 duvblå fåtöljer i skinn</t>
-  </si>
-  <si>
-    <t>5 000 kr</t>
-  </si>
-  <si>
-    <t>Iphone 6 16gb</t>
-  </si>
-  <si>
-    <t>HD sryre</t>
-  </si>
-  <si>
-    <t>MC-delar &amp; tillbehör</t>
-  </si>
-  <si>
-    <t>Acne Drihanna str 40</t>
-  </si>
-  <si>
-    <t>2 200 kr</t>
-  </si>
-  <si>
-    <t>Fin bokhylla</t>
-  </si>
-  <si>
-    <t>250 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotland</t>
-  </si>
-  <si>
-    <t>Två stycken Fluke 177 Multimeter</t>
-  </si>
-  <si>
-    <t>Bilbarnstol</t>
-  </si>
-  <si>
-    <t>Soffbord i vitt med massiva ekben</t>
-  </si>
-  <si>
-    <t>Hekla Pimpsten från Island</t>
-  </si>
-  <si>
-    <t>Gasoltub</t>
-  </si>
-  <si>
-    <t>Höganäs glasmosaik ljusbrun golden line 10.5m</t>
-  </si>
-  <si>
-    <t>2 600 kr</t>
-  </si>
-  <si>
-    <t>Oanvända Brogrens däckstolar, 2st</t>
-  </si>
-  <si>
-    <t>Grå 3-sits soffa Wave</t>
-  </si>
-  <si>
-    <t>Spelkulor</t>
-  </si>
-  <si>
-    <t>199 kr</t>
-  </si>
-  <si>
-    <t>Hobby &amp; samlarprylar</t>
-  </si>
-  <si>
-    <t>Torkvinda aluminium 40 meter</t>
-  </si>
-  <si>
-    <t>695 kr</t>
-  </si>
-  <si>
-    <t>Volvo V70 T4 automat dragkrok -14</t>
-  </si>
-  <si>
-    <t>183 000 kr</t>
-  </si>
-  <si>
-    <t>Volkswagen Amarok BITDI 4WD -11</t>
-  </si>
-  <si>
-    <t>146 250 kr (117 000 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>Blackstar HT-1RH Topp med låda</t>
-  </si>
-  <si>
-    <t>3 299 kr</t>
-  </si>
-  <si>
-    <t>Suzuki 9,9 två-takt</t>
-  </si>
-  <si>
-    <t>Honda CBR 600 F -00</t>
-  </si>
-  <si>
-    <t>23 000 kr</t>
-  </si>
-  <si>
-    <t>Vit Sänggavel Mio</t>
-  </si>
-  <si>
-    <t>3 Sits bäddsoffa med divan</t>
-  </si>
-  <si>
-    <t>Peugeot 206 3-dörrar 2.0 GTi 136hk Lågmil -03</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz GLC 220 d 4MATIC 9G-Tronic AMG -17</t>
-  </si>
-  <si>
-    <t>329 000 kr (263 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kalmar</t>
-  </si>
-  <si>
-    <t>Titan R4 BLÅ NY MODERN MOPEDBIL</t>
-  </si>
-  <si>
-    <t>Honda CR-V 2.0 i-VTEC 4WD/ DRAG / M-VÄRM -08</t>
-  </si>
-  <si>
-    <t>109 900 kr</t>
-  </si>
-  <si>
-    <t>Renault Master 2.5 dCi 120hk -08</t>
-  </si>
-  <si>
-    <t>Fin lägenhet med pool</t>
-  </si>
-  <si>
-    <t>1 728 365 kr</t>
-  </si>
-  <si>
-    <t>Graco bilstol framåtvänd toppskick</t>
-  </si>
-  <si>
-    <t>Mio 3 sits soffa Eden</t>
-  </si>
-  <si>
-    <t>Ljuskrona</t>
-  </si>
-  <si>
-    <t>Barnsäng</t>
-  </si>
-  <si>
-    <t>KAMPANJ JAC Eltruck 1800kg -19</t>
-  </si>
-  <si>
-    <t>Byggställning Sigma 70p stål</t>
-  </si>
-  <si>
-    <t>120 000 kr</t>
-  </si>
-  <si>
-    <t>Belos 222 + 252 + 284 samt tillbehör &amp; padda</t>
-  </si>
-  <si>
-    <t>Marknadsställning</t>
-  </si>
-  <si>
-    <t>1 000 kr</t>
-  </si>
-  <si>
-    <t>Biljetter till SHM bortvräkes</t>
-  </si>
-  <si>
-    <t>Britax Römer isofix</t>
-  </si>
-  <si>
-    <t>570 kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Helsingborg</t>
-  </si>
-  <si>
-    <t>Alterna isella kommo 50 vit komp h1</t>
-  </si>
-  <si>
-    <t>Beg Sommarhjul Passat</t>
-  </si>
-  <si>
-    <t>8 000 kr</t>
-  </si>
-  <si>
-    <t>Herrcykel</t>
-  </si>
-  <si>
-    <t>Poolskydd, barnsäkert</t>
-  </si>
-  <si>
-    <t>Räcke till balkong, balustrad och altan</t>
-  </si>
-  <si>
-    <t>Bygg och renovering</t>
-  </si>
-  <si>
-    <t>Peugeot Fälgar 16 tum</t>
-  </si>
-  <si>
-    <t>Säljare med eller utan erfarenhet. Lön 24 500</t>
-  </si>
-  <si>
-    <t>Härnösandsgatan E1103, Ängelholm</t>
-  </si>
-  <si>
-    <t>1 385 000 kr</t>
-  </si>
-  <si>
-    <t>Ford Mustang GT 4.6 V8 Aut 304hk -05</t>
-  </si>
-  <si>
-    <t>Kymco Kymco Agility City 16+ 50i</t>
-  </si>
-  <si>
-    <t>23 995 kr</t>
-  </si>
-  <si>
-    <t>BMW X3 xDrive 20d Steptronic -16</t>
-  </si>
-  <si>
-    <t>279 000 kr (223 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HallandBMW Premium Selection</t>
-  </si>
-  <si>
-    <t>Skinnjacka Jofama by KENZA</t>
-  </si>
-  <si>
-    <t>Data skärm</t>
-  </si>
-  <si>
-    <t>Marknadsadministratör</t>
-  </si>
-  <si>
-    <t>Marknadsföring</t>
-  </si>
-  <si>
-    <t>Sonor Giant Step Dubbelpedal</t>
-  </si>
-  <si>
-    <t>7 000 kr</t>
-  </si>
-  <si>
-    <t>Bra speldator med 144hz skärm</t>
-  </si>
-  <si>
-    <t>Vitrinskåp , matbord och 4 stolar i björk</t>
-  </si>
-  <si>
-    <t>1 600 kr</t>
-  </si>
-  <si>
-    <t>Artwood, outlet, fåtölj, matstol, sänggavel</t>
-  </si>
-  <si>
-    <t>Shimano cykelsko mtb strl 41</t>
-  </si>
-  <si>
-    <t>"Bumling" Golvlampa, Ateljé Lyktan, 1900-tal</t>
-  </si>
-  <si>
-    <t>1 900 kr</t>
-  </si>
-  <si>
-    <t>Finsktalande kundserviceagent på distans till</t>
-  </si>
-  <si>
-    <t>Service &amp; kundtjänst</t>
-  </si>
-  <si>
-    <t>Grythyttan</t>
-  </si>
-  <si>
-    <t>BMW 530 d Aut xDrive Touring M-Sport / Innova -18</t>
-  </si>
-  <si>
-    <t>589 000 kr (471 200 kr ex. moms)</t>
-  </si>
-  <si>
-    <t>BMW M3 Cab Drivelogic Nybes Nyserv -08</t>
-  </si>
-  <si>
-    <t>249 000 kr</t>
+    <t>Seadoo optimering</t>
+  </si>
+  <si>
+    <t>1 990 kr</t>
+  </si>
+  <si>
+    <t>Vox VT20+ och och diverse utrustningMåste säl</t>
+  </si>
+  <si>
+    <t>Lampor från 80-90 Talet</t>
+  </si>
+  <si>
+    <t>149 kr</t>
+  </si>
+  <si>
+    <t>Innerdörr 8x20</t>
+  </si>
+  <si>
+    <t>Skruvstäd, plåtsax, klippsax</t>
   </si>
 </sst>
 </file>
@@ -1611,108 +1566,108 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1734,13 +1689,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1751,10 +1706,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1765,455 +1720,455 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -2221,2172 +2176,2172 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
         <v>144</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" t="s">
         <v>47</v>
       </c>
-      <c r="C64" t="s">
-        <v>22</v>
-      </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C109" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="D110" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C135" t="s">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>302</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D136" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C140" t="s">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D142" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D143" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B144" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B145" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="C146" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="D151" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C153" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="D153" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
         <v>51</v>
-      </c>
-      <c r="C157" t="s">
-        <v>32</v>
-      </c>
-      <c r="D157" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>102</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D158" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B161" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="D162" t="s">
-        <v>345</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B163" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="C163" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B164" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="D166" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="C167" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D167" t="s">
-        <v>283</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B168" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B170" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" t="s">
         <v>113</v>
       </c>
-      <c r="C170" t="s">
-        <v>95</v>
-      </c>
       <c r="D170" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C173" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
       <c r="C174" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B175" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="C175" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" t="s">
         <v>144</v>
-      </c>
-      <c r="D176" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D179" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="D181" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D182" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="C184" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="D184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="B185" t="s">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B187" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C187" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D188" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="C189" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="C190" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D192" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B193" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C193" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="D193" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B194" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C194" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D195" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B198" t="s">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="D198" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B199" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="C199" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D199" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B200" t="s">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>111</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D201" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
